--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="862">
   <si>
     <t>#</t>
   </si>
@@ -2603,6 +2603,12 @@
   </si>
   <si>
     <t>0.804 1,3bis-phosphoglycerate[c] + 18.4 acetyl-CoA[c] + 0.197 alpha-D-glucose 6-phosphate[c] + 19.6 ATP[c] + 0.918 glycerone phosphate[c] + 0.316 nad+[c] + 29.9 NADPH[c] + 0.00208 NADPH[m] + 0.572 O2[c] + 0.00416 pyruvate[m] + 0.00208 oxaloacetate[c] =&gt; 19.6 ADP[c] + 1.4 CO2[c] + 18.4 coenzyme A[c] + 0.316 NADH[c] + 29.9 nadp+[c] + 0.00208 nadp+[m] + 21.6 phosphate[c] + growthLipid[c]</t>
+  </si>
+  <si>
+    <t>YBR019C</t>
+  </si>
+  <si>
+    <t>YBR018C</t>
   </si>
 </sst>
 </file>
@@ -2969,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,7 +3382,7 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>860</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
@@ -3399,7 +3405,7 @@
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>861</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -253,9 +253,6 @@
     <t>5.4.2.2</t>
   </si>
   <si>
-    <t>YMR105C;YKL127</t>
-  </si>
-  <si>
     <t>HXK</t>
   </si>
   <si>
@@ -2609,6 +2606,9 @@
   </si>
   <si>
     <t>YBR018C</t>
+  </si>
+  <si>
+    <t>YMR105C;YKL127W</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +2976,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,7 +3382,7 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
@@ -3405,7 +3405,7 @@
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>
@@ -3428,7 +3428,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>861</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -3439,709 +3439,709 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s">
         <v>81</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>85</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
       <c r="J20" t="s">
         <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
       <c r="J21" t="s">
         <v>60</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>96</v>
       </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>106</v>
       </c>
-      <c r="F24" t="s">
-        <v>107</v>
-      </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>849</v>
+      </c>
+      <c r="E25" t="s">
         <v>109</v>
       </c>
-      <c r="D25" t="s">
-        <v>850</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>110</v>
       </c>
-      <c r="F25" t="s">
-        <v>111</v>
-      </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>850</v>
+      </c>
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
-        <v>851</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>114</v>
       </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
       <c r="J26" t="s">
         <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>118</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="F27" t="s">
-        <v>120</v>
-      </c>
       <c r="J27" t="s">
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
         <v>121</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>123</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>124</v>
       </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
       <c r="J28" t="s">
         <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
         <v>126</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>128</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>129</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
       <c r="J29" t="s">
         <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
         <v>131</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>132</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>133</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>134</v>
       </c>
-      <c r="F30" t="s">
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" t="s">
         <v>135</v>
-      </c>
-      <c r="J30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>139</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>140</v>
       </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
       <c r="J31" t="s">
         <v>60</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
         <v>142</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>144</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>145</v>
       </c>
-      <c r="F32" t="s">
-        <v>146</v>
-      </c>
       <c r="J32" t="s">
         <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
         <v>147</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>148</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>149</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>150</v>
       </c>
-      <c r="F33" t="s">
-        <v>151</v>
-      </c>
       <c r="J33" t="s">
         <v>60</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>153</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>154</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>155</v>
       </c>
-      <c r="F34" t="s">
-        <v>156</v>
-      </c>
       <c r="J34" t="s">
         <v>60</v>
       </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
         <v>157</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>158</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>159</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>160</v>
       </c>
-      <c r="F35" t="s">
-        <v>161</v>
-      </c>
       <c r="J35" t="s">
         <v>60</v>
       </c>
       <c r="L35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
         <v>162</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>163</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>164</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>165</v>
       </c>
-      <c r="F36" t="s">
-        <v>166</v>
-      </c>
       <c r="J36" t="s">
         <v>60</v>
       </c>
       <c r="L36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
         <v>167</v>
       </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" t="s">
-        <v>168</v>
-      </c>
       <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
         <v>160</v>
       </c>
-      <c r="F37" t="s">
-        <v>161</v>
-      </c>
       <c r="J37" t="s">
         <v>60</v>
       </c>
       <c r="L37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>170</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>171</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>172</v>
       </c>
-      <c r="F38" t="s">
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" t="s">
         <v>173</v>
-      </c>
-      <c r="J38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
         <v>175</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>176</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>177</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>178</v>
       </c>
-      <c r="F39" t="s">
-        <v>179</v>
-      </c>
       <c r="J39" t="s">
         <v>60</v>
       </c>
       <c r="L39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
         <v>180</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>181</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>182</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>183</v>
       </c>
-      <c r="F40" t="s">
-        <v>184</v>
-      </c>
       <c r="J40" t="s">
         <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
         <v>185</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>186</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>187</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>188</v>
       </c>
-      <c r="F41" t="s">
-        <v>189</v>
-      </c>
       <c r="J41" t="s">
         <v>60</v>
       </c>
       <c r="L41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" t="s">
         <v>190</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>191</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>192</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>193</v>
       </c>
-      <c r="F42" t="s">
-        <v>194</v>
-      </c>
       <c r="J42" t="s">
         <v>60</v>
       </c>
       <c r="L42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
         <v>195</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>196</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>197</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>198</v>
       </c>
-      <c r="F43" t="s">
+      <c r="J43" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" t="s">
         <v>199</v>
-      </c>
-      <c r="J43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L43" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
         <v>201</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>202</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>203</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>204</v>
       </c>
-      <c r="F44" t="s">
+      <c r="J44" t="s">
         <v>205</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>206</v>
-      </c>
-      <c r="L44" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
         <v>208</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>209</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>210</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>211</v>
       </c>
-      <c r="F45" t="s">
-        <v>212</v>
-      </c>
       <c r="J45" t="s">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s">
         <v>206</v>
-      </c>
-      <c r="L45" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" t="s">
         <v>213</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>214</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" t="s">
         <v>215</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L46" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
         <v>217</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>218</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>219</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>220</v>
       </c>
-      <c r="F47" t="s">
-        <v>221</v>
-      </c>
       <c r="J47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
         <v>222</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>822</v>
+      </c>
+      <c r="E48" t="s">
         <v>223</v>
       </c>
-      <c r="D48" t="s">
-        <v>823</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>224</v>
       </c>
-      <c r="F48" t="s">
-        <v>225</v>
-      </c>
       <c r="J48" t="s">
         <v>60</v>
       </c>
       <c r="L48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
@@ -4150,455 +4150,455 @@
         <v>60</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" t="s">
         <v>226</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>227</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>228</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>229</v>
       </c>
-      <c r="F50" t="s">
-        <v>230</v>
-      </c>
       <c r="J50" t="s">
         <v>60</v>
       </c>
       <c r="L50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
         <v>231</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>232</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>233</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>234</v>
       </c>
-      <c r="F51" t="s">
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" t="s">
         <v>235</v>
-      </c>
-      <c r="J51" t="s">
-        <v>60</v>
-      </c>
-      <c r="L51" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
         <v>237</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>238</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>239</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>240</v>
       </c>
-      <c r="F52" t="s">
-        <v>241</v>
-      </c>
       <c r="J52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" t="s">
         <v>242</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>243</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>244</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>245</v>
       </c>
-      <c r="F53" t="s">
-        <v>246</v>
-      </c>
       <c r="J53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
         <v>247</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>248</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>249</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>250</v>
       </c>
-      <c r="F54" t="s">
-        <v>251</v>
-      </c>
       <c r="J54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" t="s">
         <v>252</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>253</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>254</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>255</v>
       </c>
-      <c r="F55" t="s">
-        <v>256</v>
-      </c>
       <c r="J55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>852</v>
+      </c>
+      <c r="E56" t="s">
         <v>257</v>
       </c>
-      <c r="D56" t="s">
-        <v>853</v>
-      </c>
-      <c r="E56" t="s">
-        <v>258</v>
-      </c>
       <c r="F56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D57" t="s">
+        <v>832</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="D57" t="s">
-        <v>833</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>838</v>
-      </c>
       <c r="J57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
         <v>259</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>260</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>261</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>262</v>
       </c>
-      <c r="F58" t="s">
-        <v>263</v>
-      </c>
       <c r="J58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
         <v>264</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>265</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>266</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>267</v>
       </c>
-      <c r="F59" t="s">
-        <v>268</v>
-      </c>
       <c r="J59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
         <v>269</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>270</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>271</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>272</v>
       </c>
-      <c r="F60" t="s">
-        <v>273</v>
-      </c>
       <c r="J60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" t="s">
         <v>274</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>275</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>276</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>277</v>
       </c>
-      <c r="F61" t="s">
-        <v>278</v>
-      </c>
       <c r="J61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" t="s">
         <v>279</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>280</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>281</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>282</v>
       </c>
-      <c r="F62" t="s">
+      <c r="J62" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" t="s">
         <v>283</v>
-      </c>
-      <c r="J62" t="s">
-        <v>206</v>
-      </c>
-      <c r="L62" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
         <v>285</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>286</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" t="s">
         <v>287</v>
       </c>
-      <c r="E63" t="s">
-        <v>282</v>
-      </c>
-      <c r="F63" t="s">
-        <v>288</v>
-      </c>
       <c r="J63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
         <v>289</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>290</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" t="s">
         <v>291</v>
       </c>
-      <c r="E64" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" t="s">
-        <v>292</v>
-      </c>
       <c r="J64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s">
         <v>293</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>842</v>
+      </c>
+      <c r="E65" t="s">
         <v>294</v>
       </c>
-      <c r="D65" t="s">
-        <v>843</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>295</v>
       </c>
-      <c r="F65" t="s">
-        <v>296</v>
-      </c>
       <c r="J65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" t="s">
         <v>297</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>843</v>
+      </c>
+      <c r="E66" t="s">
         <v>298</v>
       </c>
-      <c r="D66" t="s">
-        <v>844</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>299</v>
       </c>
-      <c r="F66" t="s">
-        <v>300</v>
-      </c>
       <c r="J66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
         <v>301</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>844</v>
+      </c>
+      <c r="E67" t="s">
         <v>302</v>
       </c>
-      <c r="D67" t="s">
-        <v>845</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>303</v>
       </c>
-      <c r="F67" t="s">
-        <v>304</v>
-      </c>
       <c r="J67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" t="s">
         <v>305</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>306</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>205</v>
+      </c>
+      <c r="L68" t="s">
         <v>307</v>
-      </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" t="s">
-        <v>206</v>
-      </c>
-      <c r="L68" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" t="s">
         <v>309</v>
       </c>
-      <c r="C69" t="s">
-        <v>310</v>
-      </c>
       <c r="D69" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4607,22 +4607,22 @@
         <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>310</v>
+      </c>
+      <c r="C70" t="s">
         <v>311</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>312</v>
       </c>
-      <c r="D70" t="s">
-        <v>313</v>
-      </c>
       <c r="E70" t="s">
         <v>16</v>
       </c>
@@ -4630,21 +4630,21 @@
         <v>16</v>
       </c>
       <c r="J70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" t="s">
         <v>314</v>
       </c>
-      <c r="C71" t="s">
-        <v>315</v>
-      </c>
       <c r="D71" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
@@ -4653,22 +4653,22 @@
         <v>16</v>
       </c>
       <c r="J71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" t="s">
         <v>316</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>317</v>
       </c>
-      <c r="D72" t="s">
-        <v>318</v>
-      </c>
       <c r="E72" t="s">
         <v>16</v>
       </c>
@@ -4676,22 +4676,22 @@
         <v>16</v>
       </c>
       <c r="J72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
         <v>319</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>320</v>
       </c>
-      <c r="D73" t="s">
-        <v>321</v>
-      </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
@@ -4699,22 +4699,22 @@
         <v>16</v>
       </c>
       <c r="J73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" t="s">
         <v>322</v>
       </c>
-      <c r="C74" t="s">
-        <v>306</v>
-      </c>
-      <c r="D74" t="s">
-        <v>323</v>
-      </c>
       <c r="E74" t="s">
         <v>16</v>
       </c>
@@ -4722,21 +4722,21 @@
         <v>16</v>
       </c>
       <c r="J74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D75" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
@@ -4745,22 +4745,22 @@
         <v>16</v>
       </c>
       <c r="J75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>324</v>
+      </c>
+      <c r="C76" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" t="s">
         <v>325</v>
       </c>
-      <c r="C76" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" t="s">
-        <v>326</v>
-      </c>
       <c r="E76" t="s">
         <v>16</v>
       </c>
@@ -4768,22 +4768,22 @@
         <v>16</v>
       </c>
       <c r="J76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" t="s">
         <v>327</v>
       </c>
-      <c r="C77" t="s">
-        <v>315</v>
-      </c>
-      <c r="D77" t="s">
-        <v>328</v>
-      </c>
       <c r="E77" t="s">
         <v>16</v>
       </c>
@@ -4791,22 +4791,22 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" t="s">
+        <v>316</v>
+      </c>
+      <c r="D78" t="s">
         <v>329</v>
       </c>
-      <c r="C78" t="s">
-        <v>317</v>
-      </c>
-      <c r="D78" t="s">
-        <v>330</v>
-      </c>
       <c r="E78" t="s">
         <v>16</v>
       </c>
@@ -4814,21 +4814,21 @@
         <v>16</v>
       </c>
       <c r="J78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" t="s">
-        <v>332</v>
-      </c>
       <c r="D79" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -4837,44 +4837,44 @@
         <v>16</v>
       </c>
       <c r="J79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" t="s">
         <v>333</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>854</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" t="s">
         <v>334</v>
-      </c>
-      <c r="D80" t="s">
-        <v>855</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" t="s">
-        <v>60</v>
-      </c>
-      <c r="L80" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>335</v>
+      </c>
+      <c r="C81" t="s">
         <v>336</v>
       </c>
-      <c r="C81" t="s">
-        <v>337</v>
-      </c>
       <c r="D81" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
@@ -4886,18 +4886,18 @@
         <v>60</v>
       </c>
       <c r="L81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" t="s">
         <v>338</v>
       </c>
-      <c r="C82" t="s">
-        <v>339</v>
-      </c>
       <c r="D82" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
@@ -4909,18 +4909,18 @@
         <v>60</v>
       </c>
       <c r="L82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" t="s">
         <v>340</v>
       </c>
-      <c r="C83" t="s">
-        <v>341</v>
-      </c>
       <c r="D83" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -4932,18 +4932,18 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" t="s">
         <v>342</v>
       </c>
-      <c r="C84" t="s">
-        <v>343</v>
-      </c>
       <c r="D84" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -4955,19 +4955,19 @@
         <v>60</v>
       </c>
       <c r="L84" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>343</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
         <v>344</v>
       </c>
-      <c r="C85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" t="s">
-        <v>345</v>
-      </c>
       <c r="E85" t="s">
         <v>16</v>
       </c>
@@ -4978,19 +4978,19 @@
         <v>60</v>
       </c>
       <c r="L85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
         <v>346</v>
       </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s">
-        <v>347</v>
-      </c>
       <c r="E86" t="s">
         <v>16</v>
       </c>
@@ -5001,19 +5001,19 @@
         <v>60</v>
       </c>
       <c r="L86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
         <v>348</v>
       </c>
-      <c r="C87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" t="s">
-        <v>349</v>
-      </c>
       <c r="E87" t="s">
         <v>16</v>
       </c>
@@ -5024,19 +5024,19 @@
         <v>60</v>
       </c>
       <c r="L87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
         <v>350</v>
       </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>351</v>
-      </c>
       <c r="E88" t="s">
         <v>16</v>
       </c>
@@ -5047,19 +5047,19 @@
         <v>60</v>
       </c>
       <c r="L88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>351</v>
+      </c>
+      <c r="C89" t="s">
         <v>352</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>353</v>
       </c>
-      <c r="D89" t="s">
-        <v>354</v>
-      </c>
       <c r="E89" t="s">
         <v>16</v>
       </c>
@@ -5070,18 +5070,18 @@
         <v>60</v>
       </c>
       <c r="L89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" t="s">
         <v>355</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>356</v>
-      </c>
-      <c r="D90" t="s">
-        <v>357</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5096,7 +5096,7 @@
         <v>60</v>
       </c>
       <c r="L90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5126,16 +5126,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" t="s">
         <v>359</v>
-      </c>
-      <c r="G1" t="s">
-        <v>360</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -5146,1327 +5146,1327 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>362</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>363</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
         <v>365</v>
-      </c>
-      <c r="H2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
         <v>367</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>368</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>369</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>370</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
         <v>371</v>
-      </c>
-      <c r="H3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" t="s">
         <v>373</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>374</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>375</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>376</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
         <v>377</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
         <v>379</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>380</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" t="s">
         <v>381</v>
       </c>
-      <c r="F5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
         <v>382</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
         <v>384</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
         <v>386</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>387</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>388</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>389</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
         <v>390</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" t="s">
         <v>392</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>393</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>394</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>395</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>396</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" t="s">
         <v>398</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>399</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>400</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>401</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
         <v>402</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
         <v>404</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>405</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>406</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>407</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>408</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" t="s">
         <v>410</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>411</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>412</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>413</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
         <v>414</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
         <v>416</v>
-      </c>
-      <c r="C12" t="s">
-        <v>411</v>
-      </c>
-      <c r="E12" t="s">
-        <v>412</v>
-      </c>
-      <c r="F12" t="s">
-        <v>413</v>
-      </c>
-      <c r="G12" t="s">
-        <v>414</v>
-      </c>
-      <c r="H12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" t="s">
         <v>418</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>419</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>420</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>421</v>
       </c>
-      <c r="G13" t="s">
-        <v>422</v>
-      </c>
       <c r="H13" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" t="s">
         <v>423</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>424</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>425</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>426</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
         <v>427</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" t="s">
         <v>429</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>430</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>431</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>432</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
         <v>433</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" t="s">
         <v>435</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>436</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>437</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>438</v>
       </c>
-      <c r="G16" t="s">
-        <v>439</v>
-      </c>
       <c r="H16" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>819</v>
+      </c>
+      <c r="C17" t="s">
+        <v>818</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" t="s">
         <v>440</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>441</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>442</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>443</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
         <v>444</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" t="s">
         <v>446</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>447</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" t="s">
         <v>448</v>
       </c>
-      <c r="F19" t="s">
-        <v>432</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
         <v>449</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" t="s">
         <v>451</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
         <v>452</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" t="s">
         <v>454</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>455</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>456</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>457</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
         <v>458</v>
-      </c>
-      <c r="H21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" t="s">
         <v>460</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>461</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" t="s">
         <v>462</v>
       </c>
-      <c r="F22" t="s">
-        <v>461</v>
-      </c>
-      <c r="G22" t="s">
-        <v>463</v>
-      </c>
       <c r="H22" t="s">
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" t="s">
         <v>461</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" t="s">
         <v>462</v>
       </c>
-      <c r="F23" t="s">
-        <v>461</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
         <v>463</v>
-      </c>
-      <c r="H23" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" t="s">
         <v>465</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>466</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>467</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>468</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s">
         <v>469</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G25" t="s">
+        <v>468</v>
+      </c>
+      <c r="H25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" t="s">
         <v>471</v>
-      </c>
-      <c r="C25" t="s">
-        <v>466</v>
-      </c>
-      <c r="E25" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" t="s">
-        <v>468</v>
-      </c>
-      <c r="G25" t="s">
-        <v>469</v>
-      </c>
-      <c r="H25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I25" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" t="s">
         <v>473</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>474</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>475</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>476</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
         <v>477</v>
-      </c>
-      <c r="H26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" t="s">
         <v>479</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>480</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>481</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>482</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
         <v>483</v>
-      </c>
-      <c r="H27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" t="s">
         <v>485</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>486</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>487</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>488</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
         <v>489</v>
-      </c>
-      <c r="H28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" t="s">
         <v>491</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>492</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29" t="s">
         <v>493</v>
       </c>
-      <c r="F29" t="s">
-        <v>488</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
         <v>494</v>
-      </c>
-      <c r="H29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" t="s">
         <v>496</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>497</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>487</v>
+      </c>
+      <c r="G30" t="s">
         <v>498</v>
       </c>
-      <c r="F30" t="s">
-        <v>488</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
         <v>499</v>
-      </c>
-      <c r="H30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" t="s">
         <v>501</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>502</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>503</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>504</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
         <v>505</v>
-      </c>
-      <c r="H31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" t="s">
         <v>507</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>508</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>509</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>510</v>
       </c>
-      <c r="G32" t="s">
-        <v>511</v>
-      </c>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" t="s">
         <v>512</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>513</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>514</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>515</v>
       </c>
-      <c r="G33" t="s">
-        <v>516</v>
-      </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>516</v>
+      </c>
+      <c r="C34" t="s">
         <v>517</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>518</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>519</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>520</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
         <v>521</v>
-      </c>
-      <c r="H34" t="s">
-        <v>206</v>
-      </c>
-      <c r="I34" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>522</v>
+      </c>
+      <c r="C35" t="s">
         <v>523</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
         <v>524</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" t="s">
         <v>526</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>527</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>528</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>529</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
         <v>530</v>
-      </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C37" t="s">
         <v>532</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>533</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>481</v>
+      </c>
+      <c r="G37" t="s">
         <v>534</v>
       </c>
-      <c r="F37" t="s">
-        <v>482</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
         <v>535</v>
-      </c>
-      <c r="H37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>536</v>
+      </c>
+      <c r="C38" t="s">
         <v>537</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>538</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>456</v>
+      </c>
+      <c r="G38" t="s">
         <v>539</v>
       </c>
-      <c r="F38" t="s">
-        <v>457</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
         <v>540</v>
-      </c>
-      <c r="H38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>541</v>
+      </c>
+      <c r="C39" t="s">
         <v>542</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>543</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>544</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>545</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
         <v>546</v>
-      </c>
-      <c r="H39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>547</v>
+      </c>
+      <c r="C40" t="s">
+        <v>542</v>
+      </c>
+      <c r="E40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" t="s">
         <v>548</v>
-      </c>
-      <c r="C40" t="s">
-        <v>543</v>
-      </c>
-      <c r="E40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G40" t="s">
-        <v>546</v>
-      </c>
-      <c r="H40" t="s">
-        <v>206</v>
-      </c>
-      <c r="I40" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>549</v>
+      </c>
+      <c r="C41" t="s">
         <v>550</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>551</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>552</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>553</v>
       </c>
-      <c r="G41" t="s">
-        <v>554</v>
-      </c>
       <c r="H41" t="s">
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C42" t="s">
+        <v>550</v>
+      </c>
+      <c r="E42" t="s">
         <v>551</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>552</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>553</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
         <v>554</v>
-      </c>
-      <c r="H42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I42" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>555</v>
+      </c>
+      <c r="C43" t="s">
         <v>556</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>557</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>558</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>559</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
         <v>560</v>
-      </c>
-      <c r="H43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" t="s">
+        <v>556</v>
+      </c>
+      <c r="E44" t="s">
+        <v>557</v>
+      </c>
+      <c r="F44" t="s">
+        <v>558</v>
+      </c>
+      <c r="G44" t="s">
+        <v>559</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
         <v>562</v>
-      </c>
-      <c r="C44" t="s">
-        <v>557</v>
-      </c>
-      <c r="E44" t="s">
-        <v>558</v>
-      </c>
-      <c r="F44" t="s">
-        <v>559</v>
-      </c>
-      <c r="G44" t="s">
-        <v>560</v>
-      </c>
-      <c r="H44" t="s">
-        <v>206</v>
-      </c>
-      <c r="I44" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>563</v>
+      </c>
+      <c r="C45" t="s">
         <v>564</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>565</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>566</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>567</v>
       </c>
-      <c r="G45" t="s">
-        <v>568</v>
-      </c>
       <c r="H45" t="s">
         <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C46" t="s">
+        <v>564</v>
+      </c>
+      <c r="E46" t="s">
         <v>565</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>566</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>567</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" t="s">
         <v>568</v>
-      </c>
-      <c r="H46" t="s">
-        <v>206</v>
-      </c>
-      <c r="I46" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>569</v>
+      </c>
+      <c r="C47" t="s">
         <v>570</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>571</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>570</v>
+      </c>
+      <c r="G47" t="s">
         <v>572</v>
       </c>
-      <c r="F47" t="s">
-        <v>571</v>
-      </c>
-      <c r="G47" t="s">
-        <v>573</v>
-      </c>
       <c r="H47" t="s">
         <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>573</v>
+      </c>
+      <c r="C48" t="s">
         <v>574</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>575</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>576</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>577</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" t="s">
         <v>578</v>
-      </c>
-      <c r="H48" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>579</v>
+      </c>
+      <c r="C49" t="s">
         <v>580</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>581</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>582</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>583</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" t="s">
         <v>584</v>
-      </c>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>585</v>
+      </c>
+      <c r="C50" t="s">
         <v>586</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>587</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>588</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>589</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" t="s">
         <v>590</v>
-      </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>591</v>
+      </c>
+      <c r="C51" t="s">
         <v>592</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>593</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>594</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>595</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
         <v>596</v>
-      </c>
-      <c r="H51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C52" t="s">
         <v>598</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>599</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>600</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>601</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" t="s">
         <v>602</v>
-      </c>
-      <c r="H52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>603</v>
+      </c>
+      <c r="C53" t="s">
         <v>604</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>605</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>606</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>607</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
         <v>608</v>
-      </c>
-      <c r="H53" t="s">
-        <v>206</v>
-      </c>
-      <c r="I53" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" t="s">
         <v>610</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>611</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>612</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>613</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" t="s">
         <v>614</v>
-      </c>
-      <c r="H54" t="s">
-        <v>206</v>
-      </c>
-      <c r="I54" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>615</v>
+      </c>
+      <c r="C55" t="s">
         <v>616</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>617</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>618</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>619</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" t="s">
         <v>620</v>
-      </c>
-      <c r="H55" t="s">
-        <v>206</v>
-      </c>
-      <c r="I55" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C56" t="s">
         <v>622</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>623</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>624</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>625</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
         <v>626</v>
-      </c>
-      <c r="H56" t="s">
-        <v>206</v>
-      </c>
-      <c r="I56" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>627</v>
+      </c>
+      <c r="C57" t="s">
         <v>628</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>629</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>425</v>
+      </c>
+      <c r="G57" t="s">
         <v>630</v>
       </c>
-      <c r="F57" t="s">
-        <v>426</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I57" t="s">
         <v>631</v>
-      </c>
-      <c r="H57" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>632</v>
+      </c>
+      <c r="C58" t="s">
         <v>633</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" t="s">
         <v>634</v>
-      </c>
-      <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" t="s">
-        <v>206</v>
-      </c>
-      <c r="I58" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>840</v>
+      </c>
+      <c r="C59" t="s">
+        <v>633</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>838</v>
+      </c>
+      <c r="I59" t="s">
         <v>841</v>
-      </c>
-      <c r="C59" t="s">
-        <v>634</v>
-      </c>
-      <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" t="s">
-        <v>839</v>
-      </c>
-      <c r="I59" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>635</v>
+      </c>
+      <c r="C60" t="s">
         <v>636</v>
       </c>
-      <c r="C60" t="s">
-        <v>637</v>
-      </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
@@ -6477,16 +6477,16 @@
         <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>637</v>
+      </c>
+      <c r="C61" t="s">
         <v>638</v>
       </c>
-      <c r="C61" t="s">
-        <v>639</v>
-      </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
@@ -6497,16 +6497,16 @@
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>639</v>
+      </c>
+      <c r="C62" t="s">
         <v>640</v>
       </c>
-      <c r="C62" t="s">
-        <v>641</v>
-      </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
@@ -6517,16 +6517,16 @@
         <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>641</v>
+      </c>
+      <c r="C63" t="s">
         <v>642</v>
       </c>
-      <c r="C63" t="s">
-        <v>643</v>
-      </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
@@ -6537,16 +6537,16 @@
         <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>643</v>
+      </c>
+      <c r="C64" t="s">
         <v>644</v>
       </c>
-      <c r="C64" t="s">
-        <v>645</v>
-      </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
@@ -6557,16 +6557,16 @@
         <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>645</v>
+      </c>
+      <c r="C65" t="s">
         <v>646</v>
       </c>
-      <c r="C65" t="s">
-        <v>647</v>
-      </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
@@ -6577,16 +6577,16 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>647</v>
+      </c>
+      <c r="C66" t="s">
         <v>648</v>
       </c>
-      <c r="C66" t="s">
-        <v>649</v>
-      </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
@@ -6597,16 +6597,16 @@
         <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>649</v>
+      </c>
+      <c r="C67" t="s">
         <v>650</v>
       </c>
-      <c r="C67" t="s">
-        <v>651</v>
-      </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
@@ -6617,16 +6617,16 @@
         <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>651</v>
+      </c>
+      <c r="C68" t="s">
         <v>652</v>
       </c>
-      <c r="C68" t="s">
-        <v>653</v>
-      </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
@@ -6637,35 +6637,35 @@
         <v>60</v>
       </c>
       <c r="I68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>653</v>
+      </c>
+      <c r="C69" t="s">
         <v>654</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69" t="s">
         <v>655</v>
-      </c>
-      <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" t="s">
-        <v>60</v>
-      </c>
-      <c r="I69" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -6674,18 +6674,18 @@
         <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -6694,191 +6694,191 @@
         <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I71" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>658</v>
+      </c>
+      <c r="C72" t="s">
+        <v>580</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s">
         <v>659</v>
-      </c>
-      <c r="C72" t="s">
-        <v>581</v>
-      </c>
-      <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>660</v>
+      </c>
+      <c r="C73" t="s">
+        <v>592</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" t="s">
         <v>661</v>
-      </c>
-      <c r="C73" t="s">
-        <v>593</v>
-      </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>662</v>
+      </c>
+      <c r="C74" t="s">
+        <v>574</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" t="s">
         <v>663</v>
-      </c>
-      <c r="C74" t="s">
-        <v>575</v>
-      </c>
-      <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" t="s">
-        <v>60</v>
-      </c>
-      <c r="I74" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>664</v>
+      </c>
+      <c r="C75" t="s">
         <v>665</v>
       </c>
-      <c r="C75" t="s">
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" t="s">
         <v>666</v>
-      </c>
-      <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I75" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>667</v>
+      </c>
+      <c r="C76" t="s">
         <v>668</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>669</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>431</v>
+      </c>
+      <c r="G76" t="s">
         <v>670</v>
       </c>
-      <c r="F76" t="s">
-        <v>432</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" t="s">
         <v>671</v>
-      </c>
-      <c r="H76" t="s">
-        <v>60</v>
-      </c>
-      <c r="I76" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>672</v>
+      </c>
+      <c r="C77" t="s">
         <v>673</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>674</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>675</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>676</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" t="s">
         <v>677</v>
-      </c>
-      <c r="H77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>678</v>
+      </c>
+      <c r="C78" t="s">
         <v>679</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>680</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>675</v>
+      </c>
+      <c r="G78" t="s">
         <v>681</v>
       </c>
-      <c r="F78" t="s">
-        <v>676</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" t="s">
         <v>682</v>
-      </c>
-      <c r="H78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>683</v>
+      </c>
+      <c r="C79" t="s">
         <v>684</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>685</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>431</v>
+      </c>
+      <c r="G79" t="s">
         <v>686</v>
       </c>
-      <c r="F79" t="s">
-        <v>432</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" t="s">
         <v>687</v>
-      </c>
-      <c r="H79" t="s">
-        <v>60</v>
-      </c>
-      <c r="I79" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>688</v>
+      </c>
+      <c r="C80" t="s">
         <v>689</v>
       </c>
-      <c r="C80" t="s">
-        <v>690</v>
-      </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
@@ -6886,34 +6886,34 @@
         <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I80" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>831</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -6936,13 +6936,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -6953,23 +6953,23 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C4" t="s">
         <v>839</v>
-      </c>
-      <c r="C4" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6977,7 +6977,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -7006,7 +7006,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
         <v>60</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E17" t="s">
         <v>60</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E18" t="s">
         <v>60</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E25" t="s">
         <v>60</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E27" t="s">
         <v>60</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E28" t="s">
         <v>60</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E30" t="s">
         <v>60</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E32" t="s">
         <v>60</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
         <v>60</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
         <v>60</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E36" t="s">
         <v>60</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E37" t="s">
         <v>60</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E39" t="s">
         <v>60</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E40" t="s">
         <v>60</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
         <v>60</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
         <v>60</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E45" t="s">
         <v>60</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E46" t="s">
         <v>60</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E47" t="s">
         <v>60</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
         <v>60</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E49" t="s">
         <v>60</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E50" t="s">
         <v>60</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E51" t="s">
         <v>60</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E52" t="s">
         <v>60</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
         <v>60</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
         <v>60</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E59" t="s">
         <v>60</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E60" t="s">
         <v>60</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E61" t="s">
         <v>60</v>
@@ -7494,7 +7494,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E63" t="s">
         <v>60</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E64" t="s">
         <v>60</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E65" t="s">
         <v>60</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E66" t="s">
         <v>60</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E67" t="s">
         <v>60</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E69" t="s">
         <v>60</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E70" t="s">
         <v>60</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E71" t="s">
         <v>60</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E72" t="s">
         <v>60</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E73" t="s">
         <v>60</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E74" t="s">
         <v>60</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E75" t="s">
         <v>60</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E76" t="s">
         <v>60</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E77" t="s">
         <v>60</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E78" t="s">
         <v>60</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E79" t="s">
         <v>60</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E80" t="s">
         <v>60</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E81" t="s">
         <v>60</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E82" t="s">
         <v>60</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E83" t="s">
         <v>60</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E84" t="s">
         <v>60</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E85" t="s">
         <v>60</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E86" t="s">
         <v>60</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E87" t="s">
         <v>60</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E88" t="s">
         <v>60</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E89" t="s">
         <v>60</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E90" t="s">
         <v>60</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E91" t="s">
         <v>60</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E92" t="s">
         <v>60</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E93" t="s">
         <v>60</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E94" t="s">
         <v>60</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E95" t="s">
         <v>60</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E96" t="s">
         <v>60</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E97" t="s">
         <v>60</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E98" t="s">
         <v>60</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E99" t="s">
         <v>60</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E100" t="s">
         <v>60</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E101" t="s">
         <v>60</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E102" t="s">
         <v>60</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E103" t="s">
         <v>60</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E104" t="s">
         <v>60</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E105" t="s">
         <v>60</v>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E106" t="s">
         <v>60</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E107" t="s">
         <v>60</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E108" t="s">
         <v>60</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E109" t="s">
         <v>60</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E110" t="s">
         <v>60</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E111" t="s">
         <v>60</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E112" t="s">
         <v>60</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E113" t="s">
         <v>60</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E114" t="s">
         <v>60</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E115" t="s">
         <v>60</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E116" t="s">
         <v>60</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E117" t="s">
         <v>60</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E118" t="s">
         <v>60</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E119" t="s">
         <v>60</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E120" t="s">
         <v>60</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E124" t="s">
         <v>60</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E125" t="s">
         <v>60</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E126" t="s">
         <v>60</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -8041,39 +8041,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1" t="s">
         <v>803</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>804</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>805</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>806</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>807</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>808</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>809</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>810</v>
-      </c>
-      <c r="K1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" t="s">
         <v>812</v>
-      </c>
-      <c r="C2" t="s">
-        <v>813</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -8082,16 +8082,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G2" t="s">
         <v>814</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>815</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>816</v>
-      </c>
-      <c r="I2" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBase\ECM_Yeast\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7116408D-DCFF-DD42-85A0-A5BA9D997097}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20100" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="865">
   <si>
     <t>#</t>
   </si>
@@ -961,9 +962,6 @@
     <t>Mitochondrial oxaloacetate transport protein</t>
   </si>
   <si>
-    <t>h+[m] + oxaloacetate[c] =&gt; oxaloacetate[m] + h+[m]</t>
-  </si>
-  <si>
     <t>PyrTrans</t>
   </si>
   <si>
@@ -1174,9 +1172,6 @@
     <t>P3G[c]</t>
   </si>
   <si>
-    <t>1,3 bis-phosphoglycerate</t>
-  </si>
-  <si>
     <t>P13G[c]</t>
   </si>
   <si>
@@ -2609,12 +2604,27 @@
   </si>
   <si>
     <t>YMR105C;YKL127W</t>
+  </si>
+  <si>
+    <t>YKL127W</t>
+  </si>
+  <si>
+    <t>1,3-bis-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>h+[c] + oxaloacetate[c] =&gt; oxaloacetate[m] + h+[m]</t>
+  </si>
+  <si>
+    <t>h+[c]</t>
+  </si>
+  <si>
+    <t>H[c]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2972,19 +2982,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="94.140625" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" customWidth="1"/>
+    <col min="4" max="4" width="94.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -3048,7 +3059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -3074,7 +3085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -3100,7 +3111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -3123,7 +3134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -3169,7 +3180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -3195,7 +3206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -3221,7 +3232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -3270,7 +3281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -3293,7 +3304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -3319,7 +3330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>52</v>
       </c>
@@ -3345,7 +3356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -3368,7 +3379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -3382,7 +3393,7 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
@@ -3391,7 +3402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -3405,7 +3416,7 @@
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>
@@ -3414,7 +3425,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>72</v>
       </c>
@@ -3428,7 +3439,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -3437,7 +3448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>76</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>82</v>
       </c>
@@ -3483,7 +3494,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>87</v>
       </c>
@@ -3506,7 +3517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -3529,7 +3540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>97</v>
       </c>
@@ -3552,7 +3563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -3575,7 +3586,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>107</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E25" t="s">
         <v>109</v>
@@ -3598,7 +3609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>111</v>
       </c>
@@ -3606,7 +3617,7 @@
         <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E26" t="s">
         <v>113</v>
@@ -3621,7 +3632,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>115</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>120</v>
       </c>
@@ -3667,7 +3678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>130</v>
       </c>
@@ -3713,7 +3724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>136</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>141</v>
       </c>
@@ -3759,7 +3770,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -3782,7 +3793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>151</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>156</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>161</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>166</v>
       </c>
@@ -3874,7 +3885,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>168</v>
       </c>
@@ -3897,7 +3908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>174</v>
       </c>
@@ -3920,7 +3931,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>179</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>184</v>
       </c>
@@ -3966,7 +3977,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>189</v>
       </c>
@@ -3989,7 +4000,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>194</v>
       </c>
@@ -4012,7 +4023,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>200</v>
       </c>
@@ -4035,7 +4046,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>207</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>212</v>
       </c>
@@ -4081,7 +4092,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>216</v>
       </c>
@@ -4104,7 +4115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>221</v>
       </c>
@@ -4112,7 +4123,7 @@
         <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E48" t="s">
         <v>223</v>
@@ -4127,21 +4138,21 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
@@ -4150,10 +4161,10 @@
         <v>60</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>225</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>230</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>236</v>
       </c>
@@ -4222,7 +4233,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>241</v>
       </c>
@@ -4245,7 +4256,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>246</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>251</v>
       </c>
@@ -4291,21 +4302,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C56" t="s">
         <v>256</v>
       </c>
       <c r="D56" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E56" t="s">
         <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J56" t="s">
         <v>205</v>
@@ -4314,21 +4325,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" t="s">
+        <v>830</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="D57" t="s">
-        <v>832</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>837</v>
       </c>
       <c r="J57" t="s">
         <v>205</v>
@@ -4337,7 +4348,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>258</v>
       </c>
@@ -4360,7 +4371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>263</v>
       </c>
@@ -4383,7 +4394,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>268</v>
       </c>
@@ -4406,7 +4417,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>273</v>
       </c>
@@ -4429,7 +4440,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>278</v>
       </c>
@@ -4452,7 +4463,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>284</v>
       </c>
@@ -4475,7 +4486,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>288</v>
       </c>
@@ -4498,7 +4509,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>292</v>
       </c>
@@ -4506,7 +4517,7 @@
         <v>293</v>
       </c>
       <c r="D65" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E65" t="s">
         <v>294</v>
@@ -4521,7 +4532,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>296</v>
       </c>
@@ -4529,7 +4540,7 @@
         <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E66" t="s">
         <v>298</v>
@@ -4544,7 +4555,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>300</v>
       </c>
@@ -4552,7 +4563,7 @@
         <v>301</v>
       </c>
       <c r="D67" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E67" t="s">
         <v>302</v>
@@ -4567,7 +4578,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>304</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>308</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>309</v>
       </c>
       <c r="D69" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4613,7 +4624,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>310</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>311</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>862</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
@@ -4636,15 +4647,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" t="s">
         <v>313</v>
       </c>
-      <c r="C71" t="s">
-        <v>314</v>
-      </c>
       <c r="D71" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
@@ -4659,15 +4670,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" t="s">
         <v>315</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>316</v>
-      </c>
-      <c r="D72" t="s">
-        <v>317</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
@@ -4682,15 +4693,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" t="s">
         <v>318</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>319</v>
-      </c>
-      <c r="D73" t="s">
-        <v>320</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
@@ -4705,15 +4716,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C74" t="s">
         <v>305</v>
       </c>
       <c r="D74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
@@ -4728,15 +4739,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
         <v>309</v>
       </c>
       <c r="D75" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
@@ -4751,15 +4762,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C76" t="s">
         <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -4774,15 +4785,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" t="s">
         <v>326</v>
-      </c>
-      <c r="C77" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" t="s">
-        <v>327</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -4797,15 +4808,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" t="s">
         <v>328</v>
-      </c>
-      <c r="C78" t="s">
-        <v>316</v>
-      </c>
-      <c r="D78" t="s">
-        <v>329</v>
       </c>
       <c r="E78" t="s">
         <v>16</v>
@@ -4820,15 +4831,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" t="s">
         <v>330</v>
       </c>
-      <c r="C79" t="s">
-        <v>331</v>
-      </c>
       <c r="D79" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -4843,245 +4854,245 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" t="s">
         <v>332</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>852</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" t="s">
         <v>333</v>
       </c>
-      <c r="D80" t="s">
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" t="s">
+        <v>335</v>
+      </c>
+      <c r="D81" t="s">
+        <v>853</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>60</v>
+      </c>
+      <c r="L81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" t="s">
         <v>854</v>
       </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" t="s">
-        <v>60</v>
-      </c>
-      <c r="L80" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>335</v>
-      </c>
-      <c r="C81" t="s">
-        <v>336</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>60</v>
+      </c>
+      <c r="L82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" t="s">
         <v>855</v>
       </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" t="s">
-        <v>60</v>
-      </c>
-      <c r="L81" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>337</v>
-      </c>
-      <c r="C82" t="s">
-        <v>338</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>60</v>
+      </c>
+      <c r="L83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" t="s">
         <v>856</v>
       </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" t="s">
-        <v>60</v>
-      </c>
-      <c r="L82" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>339</v>
-      </c>
-      <c r="C83" t="s">
-        <v>340</v>
-      </c>
-      <c r="D83" t="s">
-        <v>857</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" t="s">
-        <v>60</v>
-      </c>
-      <c r="L83" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>341</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>60</v>
+      </c>
+      <c r="L84" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>342</v>
       </c>
-      <c r="D84" t="s">
-        <v>858</v>
-      </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" t="s">
-        <v>60</v>
-      </c>
-      <c r="L84" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
         <v>343</v>
       </c>
-      <c r="C85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>60</v>
+      </c>
+      <c r="L85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>344</v>
       </c>
-      <c r="E85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
-        <v>60</v>
-      </c>
-      <c r="L85" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
         <v>345</v>
       </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>346</v>
       </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" t="s">
-        <v>60</v>
-      </c>
-      <c r="L86" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
         <v>347</v>
       </c>
-      <c r="C87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>60</v>
+      </c>
+      <c r="L87" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>348</v>
       </c>
-      <c r="E87" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>60</v>
-      </c>
-      <c r="L87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
         <v>349</v>
       </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>350</v>
       </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" t="s">
-        <v>60</v>
-      </c>
-      <c r="L88" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>351</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>352</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>60</v>
+      </c>
+      <c r="L89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>353</v>
       </c>
-      <c r="E89" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" t="s">
-        <v>60</v>
-      </c>
-      <c r="L89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>354</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>355</v>
-      </c>
-      <c r="D90" t="s">
-        <v>356</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5096,7 +5107,7 @@
         <v>60</v>
       </c>
       <c r="L90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5106,16 +5117,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5126,16 +5137,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" t="s">
         <v>358</v>
-      </c>
-      <c r="G1" t="s">
-        <v>359</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -5144,1288 +5155,1288 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" t="s">
         <v>360</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>361</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>362</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>363</v>
-      </c>
-      <c r="G2" t="s">
-        <v>364</v>
       </c>
       <c r="H2" t="s">
         <v>205</v>
       </c>
       <c r="I2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>366</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>367</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>368</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>369</v>
-      </c>
-      <c r="G3" t="s">
-        <v>370</v>
       </c>
       <c r="H3" t="s">
         <v>205</v>
       </c>
       <c r="I3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>372</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>373</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>374</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>375</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
         <v>376</v>
       </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>378</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>379</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" t="s">
         <v>380</v>
       </c>
-      <c r="F5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
         <v>381</v>
       </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C6" t="s">
+        <v>861</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>848</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>385</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>386</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>387</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
         <v>388</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="C8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>391</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>392</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>393</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>394</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>395</v>
       </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="C9" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>397</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>398</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>399</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
         <v>400</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>401</v>
       </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="C10" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>403</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>404</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>405</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
         <v>406</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>407</v>
       </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="C11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>409</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>410</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>411</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
         <v>412</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>413</v>
       </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>415</v>
-      </c>
       <c r="C12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
         <v>410</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>411</v>
-      </c>
-      <c r="F12" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" t="s">
-        <v>413</v>
       </c>
       <c r="H12" t="s">
         <v>205</v>
       </c>
       <c r="I12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>417</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>418</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>419</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>420</v>
       </c>
-      <c r="G13" t="s">
+      <c r="C14" t="s">
         <v>421</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>422</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>423</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>424</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
         <v>425</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>426</v>
       </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="C15" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>428</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>429</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>430</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
         <v>431</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>432</v>
       </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="C16" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>434</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>435</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>436</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C17" t="s">
+        <v>816</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>437</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C18" t="s">
         <v>438</v>
       </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>819</v>
-      </c>
-      <c r="C17" t="s">
-        <v>818</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>439</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>440</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>441</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
         <v>442</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>443</v>
       </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="C19" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>445</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" t="s">
         <v>446</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
         <v>447</v>
       </c>
-      <c r="F19" t="s">
-        <v>431</v>
-      </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>448</v>
       </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="C20" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
         <v>450</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>451</v>
       </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="C21" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>453</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>454</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>455</v>
-      </c>
-      <c r="F21" t="s">
-        <v>456</v>
-      </c>
-      <c r="G21" t="s">
-        <v>457</v>
       </c>
       <c r="H21" t="s">
         <v>205</v>
       </c>
       <c r="I21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>459</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
+        <v>458</v>
+      </c>
+      <c r="G22" t="s">
         <v>460</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>461</v>
       </c>
-      <c r="F22" t="s">
+      <c r="C23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E23" t="s">
+        <v>459</v>
+      </c>
+      <c r="F23" t="s">
+        <v>458</v>
+      </c>
+      <c r="G23" t="s">
         <v>460</v>
-      </c>
-      <c r="G22" t="s">
-        <v>462</v>
-      </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>463</v>
-      </c>
-      <c r="C23" t="s">
-        <v>460</v>
-      </c>
-      <c r="E23" t="s">
-        <v>461</v>
-      </c>
-      <c r="F23" t="s">
-        <v>460</v>
-      </c>
-      <c r="G23" t="s">
-        <v>462</v>
       </c>
       <c r="H23" t="s">
         <v>205</v>
       </c>
       <c r="I23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>464</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>465</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>466</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s">
         <v>467</v>
       </c>
-      <c r="G24" t="s">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>468</v>
       </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>470</v>
-      </c>
       <c r="C25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E25" t="s">
+        <v>464</v>
+      </c>
+      <c r="F25" t="s">
         <v>465</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>466</v>
-      </c>
-      <c r="F25" t="s">
-        <v>467</v>
-      </c>
-      <c r="G25" t="s">
-        <v>468</v>
       </c>
       <c r="H25" t="s">
         <v>205</v>
       </c>
       <c r="I25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>472</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>473</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>474</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
         <v>475</v>
       </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>476</v>
       </c>
-      <c r="H26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="C27" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>478</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>479</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>480</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
         <v>481</v>
       </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>482</v>
       </c>
-      <c r="H27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="C28" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>484</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>485</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>486</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
         <v>487</v>
       </c>
-      <c r="G28" t="s">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>488</v>
       </c>
-      <c r="H28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="C29" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>490</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
+        <v>485</v>
+      </c>
+      <c r="G29" t="s">
         <v>491</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
         <v>492</v>
       </c>
-      <c r="F29" t="s">
-        <v>487</v>
-      </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>493</v>
       </c>
-      <c r="H29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="C30" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>495</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
+        <v>485</v>
+      </c>
+      <c r="G30" t="s">
         <v>496</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
         <v>497</v>
       </c>
-      <c r="F30" t="s">
-        <v>487</v>
-      </c>
-      <c r="G30" t="s">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>498</v>
       </c>
-      <c r="H30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="C31" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>500</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
         <v>501</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>502</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
         <v>503</v>
       </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>504</v>
       </c>
-      <c r="H31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="C32" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>506</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>507</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>508</v>
-      </c>
-      <c r="F32" t="s">
-        <v>509</v>
-      </c>
-      <c r="G32" t="s">
-        <v>510</v>
       </c>
       <c r="H32" t="s">
         <v>205</v>
       </c>
       <c r="I32" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" t="s">
+        <v>510</v>
+      </c>
+      <c r="E33" t="s">
         <v>511</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>512</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>513</v>
-      </c>
-      <c r="F33" t="s">
-        <v>514</v>
-      </c>
-      <c r="G33" t="s">
-        <v>515</v>
       </c>
       <c r="H33" t="s">
         <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" t="s">
+        <v>515</v>
+      </c>
+      <c r="E34" t="s">
         <v>516</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
         <v>517</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>518</v>
-      </c>
-      <c r="F34" t="s">
-        <v>519</v>
-      </c>
-      <c r="G34" t="s">
-        <v>520</v>
       </c>
       <c r="H34" t="s">
         <v>205</v>
       </c>
       <c r="I34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
         <v>522</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>523</v>
       </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="C36" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>525</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>526</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>527</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
         <v>528</v>
       </c>
-      <c r="G36" t="s">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>529</v>
       </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="C37" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>531</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" t="s">
+        <v>479</v>
+      </c>
+      <c r="G37" t="s">
         <v>532</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
         <v>533</v>
       </c>
-      <c r="F37" t="s">
-        <v>481</v>
-      </c>
-      <c r="G37" t="s">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>534</v>
       </c>
-      <c r="H37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="C38" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>536</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
+        <v>454</v>
+      </c>
+      <c r="G38" t="s">
         <v>537</v>
-      </c>
-      <c r="E38" t="s">
-        <v>538</v>
-      </c>
-      <c r="F38" t="s">
-        <v>456</v>
-      </c>
-      <c r="G38" t="s">
-        <v>539</v>
       </c>
       <c r="H38" t="s">
         <v>205</v>
       </c>
       <c r="I38" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>541</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>542</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>543</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
         <v>544</v>
       </c>
-      <c r="G39" t="s">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>545</v>
       </c>
-      <c r="H39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>547</v>
-      </c>
       <c r="C40" t="s">
+        <v>540</v>
+      </c>
+      <c r="E40" t="s">
+        <v>541</v>
+      </c>
+      <c r="F40" t="s">
         <v>542</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>543</v>
-      </c>
-      <c r="F40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G40" t="s">
-        <v>545</v>
       </c>
       <c r="H40" t="s">
         <v>205</v>
       </c>
       <c r="I40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>547</v>
+      </c>
+      <c r="C41" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>549</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" t="s">
         <v>550</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>551</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>552</v>
       </c>
-      <c r="G41" t="s">
-        <v>553</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="C42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E42" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>554</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>550</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>551</v>
-      </c>
-      <c r="F42" t="s">
-        <v>552</v>
-      </c>
-      <c r="G42" t="s">
-        <v>553</v>
       </c>
       <c r="H42" t="s">
         <v>205</v>
       </c>
       <c r="I42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>553</v>
+      </c>
+      <c r="C43" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>555</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>556</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>557</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
         <v>558</v>
       </c>
-      <c r="G43" t="s">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>559</v>
       </c>
-      <c r="H43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>561</v>
-      </c>
       <c r="C44" t="s">
+        <v>554</v>
+      </c>
+      <c r="E44" t="s">
+        <v>555</v>
+      </c>
+      <c r="F44" t="s">
         <v>556</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>557</v>
-      </c>
-      <c r="F44" t="s">
-        <v>558</v>
-      </c>
-      <c r="G44" t="s">
-        <v>559</v>
       </c>
       <c r="H44" t="s">
         <v>205</v>
       </c>
       <c r="I44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>561</v>
+      </c>
+      <c r="C45" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>563</v>
       </c>
-      <c r="C45" t="s">
+      <c r="F45" t="s">
         <v>564</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>565</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>566</v>
       </c>
-      <c r="G45" t="s">
-        <v>567</v>
-      </c>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="C46" t="s">
+        <v>562</v>
+      </c>
+      <c r="E46" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>568</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>564</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>565</v>
-      </c>
-      <c r="F46" t="s">
-        <v>566</v>
-      </c>
-      <c r="G46" t="s">
-        <v>567</v>
       </c>
       <c r="H46" t="s">
         <v>205</v>
       </c>
       <c r="I46" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>567</v>
+      </c>
+      <c r="C47" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>569</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
+        <v>568</v>
+      </c>
+      <c r="G47" t="s">
         <v>570</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>571</v>
       </c>
-      <c r="F47" t="s">
-        <v>570</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="C48" t="s">
         <v>572</v>
       </c>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>573</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F48" t="s">
         <v>574</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>575</v>
-      </c>
-      <c r="F48" t="s">
-        <v>576</v>
-      </c>
-      <c r="G48" t="s">
-        <v>577</v>
       </c>
       <c r="H48" t="s">
         <v>205</v>
       </c>
       <c r="I48" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>577</v>
+      </c>
+      <c r="C49" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>579</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F49" t="s">
         <v>580</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>581</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" t="s">
         <v>582</v>
       </c>
-      <c r="G49" t="s">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>583</v>
       </c>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="C50" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>585</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
         <v>586</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>587</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" t="s">
         <v>588</v>
       </c>
-      <c r="G50" t="s">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>589</v>
       </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="C51" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>591</v>
       </c>
-      <c r="C51" t="s">
+      <c r="F51" t="s">
         <v>592</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>593</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
         <v>594</v>
       </c>
-      <c r="G51" t="s">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>595</v>
       </c>
-      <c r="H51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="C52" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="E52" t="s">
         <v>597</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
         <v>598</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>599</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" t="s">
         <v>600</v>
       </c>
-      <c r="G52" t="s">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>601</v>
       </c>
-      <c r="H52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="C53" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="E53" t="s">
         <v>603</v>
       </c>
-      <c r="C53" t="s">
+      <c r="F53" t="s">
         <v>604</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>605</v>
-      </c>
-      <c r="F53" t="s">
-        <v>606</v>
-      </c>
-      <c r="G53" t="s">
-        <v>607</v>
       </c>
       <c r="H53" t="s">
         <v>205</v>
       </c>
       <c r="I53" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>607</v>
+      </c>
+      <c r="C54" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>609</v>
       </c>
-      <c r="C54" t="s">
+      <c r="F54" t="s">
         <v>610</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>611</v>
-      </c>
-      <c r="F54" t="s">
-        <v>612</v>
-      </c>
-      <c r="G54" t="s">
-        <v>613</v>
       </c>
       <c r="H54" t="s">
         <v>205</v>
       </c>
       <c r="I54" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>613</v>
+      </c>
+      <c r="C55" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="E55" t="s">
         <v>615</v>
       </c>
-      <c r="C55" t="s">
+      <c r="F55" t="s">
         <v>616</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>617</v>
-      </c>
-      <c r="F55" t="s">
-        <v>618</v>
-      </c>
-      <c r="G55" t="s">
-        <v>619</v>
       </c>
       <c r="H55" t="s">
         <v>205</v>
       </c>
       <c r="I55" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>619</v>
+      </c>
+      <c r="C56" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>621</v>
       </c>
-      <c r="C56" t="s">
+      <c r="F56" t="s">
         <v>622</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>623</v>
-      </c>
-      <c r="F56" t="s">
-        <v>624</v>
-      </c>
-      <c r="G56" t="s">
-        <v>625</v>
       </c>
       <c r="H56" t="s">
         <v>205</v>
       </c>
       <c r="I56" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>625</v>
+      </c>
+      <c r="C57" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="E57" t="s">
         <v>627</v>
       </c>
-      <c r="C57" t="s">
+      <c r="F57" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" t="s">
         <v>628</v>
-      </c>
-      <c r="E57" t="s">
-        <v>629</v>
-      </c>
-      <c r="F57" t="s">
-        <v>425</v>
-      </c>
-      <c r="G57" t="s">
-        <v>630</v>
       </c>
       <c r="H57" t="s">
         <v>205</v>
       </c>
       <c r="I57" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>630</v>
+      </c>
+      <c r="C58" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>632</v>
-      </c>
-      <c r="C58" t="s">
-        <v>633</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -6437,235 +6448,235 @@
         <v>205</v>
       </c>
       <c r="I58" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" t="s">
+        <v>631</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>836</v>
+      </c>
+      <c r="I59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>633</v>
+      </c>
+      <c r="C60" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>840</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60" t="s">
         <v>633</v>
       </c>
-      <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" t="s">
-        <v>838</v>
-      </c>
-      <c r="I59" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>635</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>636</v>
       </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>637</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>638</v>
       </c>
-      <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>639</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>640</v>
       </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" t="s">
-        <v>60</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>641</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>642</v>
       </c>
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>643</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>644</v>
       </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
-        <v>60</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>645</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>646</v>
       </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>647</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>648</v>
       </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>649</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>650</v>
       </c>
-      <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>651</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>652</v>
       </c>
-      <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" t="s">
-        <v>60</v>
-      </c>
-      <c r="I68" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69" t="s">
         <v>653</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>654</v>
       </c>
-      <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" t="s">
-        <v>60</v>
-      </c>
-      <c r="I69" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>656</v>
-      </c>
       <c r="C70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -6677,15 +6688,15 @@
         <v>205</v>
       </c>
       <c r="I70" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C71" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -6697,15 +6708,15 @@
         <v>205</v>
       </c>
       <c r="I71" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C72" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -6717,15 +6728,15 @@
         <v>205</v>
       </c>
       <c r="I72" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C73" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -6737,147 +6748,147 @@
         <v>205</v>
       </c>
       <c r="I73" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>660</v>
+      </c>
+      <c r="C74" t="s">
+        <v>572</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>662</v>
       </c>
-      <c r="C74" t="s">
-        <v>574</v>
-      </c>
-      <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" t="s">
-        <v>60</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="C75" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" t="s">
         <v>664</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>665</v>
       </c>
-      <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="C76" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="E76" t="s">
         <v>667</v>
       </c>
-      <c r="C76" t="s">
+      <c r="F76" t="s">
+        <v>429</v>
+      </c>
+      <c r="G76" t="s">
         <v>668</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" t="s">
         <v>669</v>
       </c>
-      <c r="F76" t="s">
-        <v>431</v>
-      </c>
-      <c r="G76" t="s">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>670</v>
       </c>
-      <c r="H76" t="s">
-        <v>60</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="C77" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>672</v>
       </c>
-      <c r="C77" t="s">
+      <c r="F77" t="s">
         <v>673</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>674</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" t="s">
         <v>675</v>
       </c>
-      <c r="G77" t="s">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>676</v>
       </c>
-      <c r="H77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="C78" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="E78" t="s">
         <v>678</v>
       </c>
-      <c r="C78" t="s">
+      <c r="F78" t="s">
+        <v>673</v>
+      </c>
+      <c r="G78" t="s">
         <v>679</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" t="s">
         <v>680</v>
       </c>
-      <c r="F78" t="s">
-        <v>675</v>
-      </c>
-      <c r="G78" t="s">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>681</v>
       </c>
-      <c r="H78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="C79" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>683</v>
       </c>
-      <c r="C79" t="s">
+      <c r="F79" t="s">
+        <v>429</v>
+      </c>
+      <c r="G79" t="s">
         <v>684</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" t="s">
         <v>685</v>
       </c>
-      <c r="F79" t="s">
-        <v>431</v>
-      </c>
-      <c r="G79" t="s">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>686</v>
       </c>
-      <c r="H79" t="s">
-        <v>60</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="C80" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>688</v>
-      </c>
-      <c r="C80" t="s">
-        <v>689</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -6889,31 +6900,51 @@
         <v>205</v>
       </c>
       <c r="I80" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>205</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>863</v>
+      </c>
+      <c r="C82" t="s">
+        <v>631</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -6922,62 +6953,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C4" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -6986,16 +7017,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7006,29 +7037,29 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -7036,23 +7067,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>114</v>
       </c>
@@ -7060,39 +7091,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>699</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>700</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>701</v>
       </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>702</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>703</v>
-      </c>
       <c r="E11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -7100,151 +7131,151 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>702</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>704</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>705</v>
       </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>706</v>
       </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>707</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>708</v>
       </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>709</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>710</v>
       </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>711</v>
       </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>712</v>
       </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>713</v>
       </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>714</v>
       </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>715</v>
       </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>716</v>
       </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>717</v>
       </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>718</v>
       </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>719</v>
       </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>720</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>721</v>
-      </c>
       <c r="E30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>155</v>
       </c>
@@ -7252,23 +7283,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>101</v>
       </c>
@@ -7276,7 +7307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>277</v>
       </c>
@@ -7284,23 +7315,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>229</v>
       </c>
@@ -7308,31 +7339,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>724</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>725</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>726</v>
       </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>727</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>728</v>
-      </c>
       <c r="E41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>245</v>
       </c>
@@ -7340,7 +7371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>165</v>
       </c>
@@ -7348,7 +7379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>96</v>
       </c>
@@ -7356,31 +7387,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>727</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>728</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>729</v>
       </c>
-      <c r="E45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>730</v>
-      </c>
-      <c r="E46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>731</v>
-      </c>
       <c r="E47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>134</v>
       </c>
@@ -7388,47 +7419,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>730</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>731</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>732</v>
       </c>
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>733</v>
       </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>734</v>
       </c>
-      <c r="E51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>735</v>
-      </c>
-      <c r="E52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>736</v>
-      </c>
       <c r="E53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>150</v>
       </c>
@@ -7436,15 +7467,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>193</v>
       </c>
@@ -7452,7 +7483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>272</v>
       </c>
@@ -7460,175 +7491,175 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>736</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>737</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>738</v>
       </c>
-      <c r="E58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>739</v>
       </c>
-      <c r="E59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>740</v>
       </c>
-      <c r="E60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>741</v>
       </c>
-      <c r="E61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>742</v>
       </c>
-      <c r="E62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>743</v>
       </c>
-      <c r="E63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>744</v>
       </c>
-      <c r="E64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>745</v>
       </c>
-      <c r="E65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>746</v>
       </c>
-      <c r="E66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>747</v>
       </c>
-      <c r="E67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>748</v>
       </c>
-      <c r="E68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>749</v>
       </c>
-      <c r="E69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>750</v>
       </c>
-      <c r="E70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="E72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>751</v>
       </c>
-      <c r="E71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="E73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>752</v>
       </c>
-      <c r="E72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>753</v>
       </c>
-      <c r="E73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="E75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>754</v>
       </c>
-      <c r="E74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>755</v>
       </c>
-      <c r="E75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="E77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>756</v>
       </c>
-      <c r="E76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>757</v>
-      </c>
-      <c r="E77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>758</v>
-      </c>
       <c r="E78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>287</v>
       </c>
@@ -7636,335 +7667,335 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>757</v>
+      </c>
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>758</v>
+      </c>
+      <c r="E81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>759</v>
       </c>
-      <c r="E80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="E82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>760</v>
       </c>
-      <c r="E81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="E83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>761</v>
       </c>
-      <c r="E82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>762</v>
       </c>
-      <c r="E83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="E85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>763</v>
       </c>
-      <c r="E84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>764</v>
       </c>
-      <c r="E85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="E87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>765</v>
       </c>
-      <c r="E86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="E88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>766</v>
       </c>
-      <c r="E87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>767</v>
       </c>
-      <c r="E88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="E90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>768</v>
       </c>
-      <c r="E89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="E91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>769</v>
       </c>
-      <c r="E90" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="E92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>770</v>
       </c>
-      <c r="E91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>771</v>
       </c>
-      <c r="E92" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="E94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>772</v>
       </c>
-      <c r="E93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="E95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>773</v>
       </c>
-      <c r="E94" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="E96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>774</v>
       </c>
-      <c r="E95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>775</v>
       </c>
-      <c r="E96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="E98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>776</v>
       </c>
-      <c r="E97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="E99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>777</v>
       </c>
-      <c r="E98" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="E100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>778</v>
       </c>
-      <c r="E99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="E101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>779</v>
       </c>
-      <c r="E100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="E102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>780</v>
       </c>
-      <c r="E101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="E103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>781</v>
       </c>
-      <c r="E102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="E104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>782</v>
       </c>
-      <c r="E103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="E105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>783</v>
       </c>
-      <c r="E104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="E106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>784</v>
       </c>
-      <c r="E105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="E107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>785</v>
       </c>
-      <c r="E106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="E108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>786</v>
       </c>
-      <c r="E107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="E109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>787</v>
       </c>
-      <c r="E108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>788</v>
       </c>
-      <c r="E109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="E111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>789</v>
       </c>
-      <c r="E110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="E112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>790</v>
       </c>
-      <c r="E111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="E113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>791</v>
       </c>
-      <c r="E112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="E114" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>792</v>
       </c>
-      <c r="E113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="E115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>793</v>
       </c>
-      <c r="E114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="E116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>794</v>
       </c>
-      <c r="E115" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="E117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>795</v>
       </c>
-      <c r="E116" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+      <c r="E118" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>796</v>
       </c>
-      <c r="E117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>797</v>
       </c>
-      <c r="E118" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>798</v>
-      </c>
-      <c r="E119" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>799</v>
-      </c>
       <c r="E120" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>59</v>
       </c>
@@ -7972,7 +8003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>66</v>
       </c>
@@ -7980,7 +8011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>71</v>
       </c>
@@ -7988,36 +8019,60 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E124" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E125" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E126" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E127" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>857</v>
+      </c>
+      <c r="E128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>858</v>
+      </c>
+      <c r="E129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>860</v>
+      </c>
+      <c r="E130" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -8026,14 +8081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8041,39 +8096,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1" t="s">
         <v>802</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>803</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>804</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>805</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>806</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>807</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>808</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>809</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C2" t="s">
-        <v>812</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -8082,16 +8137,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H2" t="s">
         <v>813</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>814</v>
-      </c>
-      <c r="H2" t="s">
-        <v>815</v>
-      </c>
-      <c r="I2" t="s">
-        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7116408D-DCFF-DD42-85A0-A5BA9D997097}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21D7B550-82A4-054D-B008-8286E6C24836}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20100" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19900" yWindow="460" windowWidth="18500" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="818">
   <si>
     <t>#</t>
   </si>
@@ -38,9 +38,6 @@
     <t>EQUATION</t>
   </si>
   <si>
-    <t>EC-NUMBER</t>
-  </si>
-  <si>
     <t>GENE ASSOCIATION</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Uptake of galactose</t>
   </si>
   <si>
-    <t xml:space="preserve"> =&gt; galactos[c]</t>
-  </si>
-  <si>
     <t>gluActiveIn</t>
   </si>
   <si>
@@ -197,12 +191,6 @@
     <t>Galactokinase</t>
   </si>
   <si>
-    <t>ATP[c] + galactos[c] =&gt; ADP[c] + D-galactose 1-phosphate[c]</t>
-  </si>
-  <si>
-    <t>2.7.1.6</t>
-  </si>
-  <si>
     <t>YBR020W</t>
   </si>
   <si>
@@ -215,15 +203,9 @@
     <t>GAL10</t>
   </si>
   <si>
-    <t>UDP-glucose 4-epimerase</t>
-  </si>
-  <si>
     <t>UDP-D-galactose[c] &lt;=&gt; UDP-glucose[c]</t>
   </si>
   <si>
-    <t>5.1.3.2</t>
-  </si>
-  <si>
     <t>YBR019</t>
   </si>
   <si>
@@ -236,36 +218,21 @@
     <t>D-galactose 1-phosphate[c] + UDP-glucose[c] &lt;=&gt; UDP-D-galactose[c] + D-glucose 1-phosphate[c]</t>
   </si>
   <si>
-    <t>2.7.7.12</t>
-  </si>
-  <si>
     <t>YBR018</t>
   </si>
   <si>
     <t>PGM1_2</t>
   </si>
   <si>
-    <t>Phosphoglucomutase-1</t>
-  </si>
-  <si>
     <t>D-glucose 1-phosphate[c] &lt;=&gt; alpha-D-glucose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>5.4.2.2</t>
-  </si>
-  <si>
     <t>HXK</t>
   </si>
   <si>
-    <t>Hexokinase</t>
-  </si>
-  <si>
     <t>alpha-D-glucose[c] + ATP[c] =&gt; ADP[c] + alpha-D-glucose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>2.7.1.1 OR 2.7.1.2</t>
-  </si>
-  <si>
     <t>YFR053C;YGL253W;YCL040W</t>
   </si>
   <si>
@@ -278,12 +245,6 @@
     <t>Glucose-6-phosphate isomerase</t>
   </si>
   <si>
-    <t>alpha-D-glucose 6-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c]</t>
-  </si>
-  <si>
-    <t>5.3.1.9</t>
-  </si>
-  <si>
     <t>YBR196C</t>
   </si>
   <si>
@@ -293,27 +254,12 @@
     <t>Phosphofructokinase</t>
   </si>
   <si>
-    <t>ATP[c] + beta-D-fructofuranose 6-phosphate[c] =&gt; ADP[c] + beta-D-fructofuranose 1,6-bisphosphate[c]</t>
-  </si>
-  <si>
-    <t>2.7.1.11</t>
-  </si>
-  <si>
     <t>YGR240C;YMR205C</t>
   </si>
   <si>
     <t>FBP</t>
   </si>
   <si>
-    <t>Fructose-1,6-bisphosphatase</t>
-  </si>
-  <si>
-    <t>beta-D-fructofuranose 1,6-bisphosphate[c] =&gt; beta-D-fructofuranose 6-phosphate[c] + phosphate[c]</t>
-  </si>
-  <si>
-    <t>3.1.3.11</t>
-  </si>
-  <si>
     <t>YLR377C</t>
   </si>
   <si>
@@ -323,39 +269,21 @@
     <t>Fructose-bisphosphate aldolase</t>
   </si>
   <si>
-    <t>beta-D-fructofuranose 1,6-bisphosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + glycerone phosphate[c]</t>
-  </si>
-  <si>
-    <t>4.1.2.13</t>
-  </si>
-  <si>
     <t>YKL060C</t>
   </si>
   <si>
     <t>TPI</t>
   </si>
   <si>
-    <t>Triosephosphate isomerase</t>
-  </si>
-  <si>
     <t>glycerone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
   </si>
   <si>
-    <t>5.3.1.1</t>
-  </si>
-  <si>
     <t>YDR050C</t>
   </si>
   <si>
     <t>GLD</t>
   </si>
   <si>
-    <t>Triosephosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>1.2.1.12</t>
-  </si>
-  <si>
     <t>YJL052W;YJR009C;YGR192C</t>
   </si>
   <si>
@@ -365,9 +293,6 @@
     <t>Phosphoglycerate kinase</t>
   </si>
   <si>
-    <t>2.7.2.3</t>
-  </si>
-  <si>
     <t>YCR012W</t>
   </si>
   <si>
@@ -380,9 +305,6 @@
     <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glycerate[c]</t>
   </si>
   <si>
-    <t>5.4.2.11</t>
-  </si>
-  <si>
     <t>YKL152C;YDL021W;YOL056W</t>
   </si>
   <si>
@@ -395,9 +317,6 @@
     <t>2-phospho-D-glycerate[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>4.2.1.11</t>
-  </si>
-  <si>
     <t>YGR254W;YHR174W;YOR393W;YPL281C;YMR323W</t>
   </si>
   <si>
@@ -410,24 +329,15 @@
     <t>ADP[c] + phosphoenolpyruvate[c] =&gt; ATP[c] + pyruvate[c]</t>
   </si>
   <si>
-    <t>2.7.1.40</t>
-  </si>
-  <si>
     <t>YOR347C;YAL038W</t>
   </si>
   <si>
     <t>ZWF</t>
   </si>
   <si>
-    <t>Glucose-6-phosphate 1-dehydrogenase</t>
-  </si>
-  <si>
     <t>alpha-D-glucose 6-phosphate[c] + nadp+[c] =&gt; 6-O-phosphono-D-glucono-1,5-lactone[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>1.1.1.49</t>
-  </si>
-  <si>
     <t>YNL241C</t>
   </si>
   <si>
@@ -443,69 +353,42 @@
     <t>6-O-phosphono-D-glucono-1,5-lactone[c] =&gt; 6-phospho-D-gluconate[c]</t>
   </si>
   <si>
-    <t>3.1.1.31</t>
-  </si>
-  <si>
     <t>YNR034W;YCR073W-A;YHR163W;YGR248W</t>
   </si>
   <si>
     <t>GND</t>
   </si>
   <si>
-    <t>6-phosphogluconate dehydrogenase, decarboxylating</t>
-  </si>
-  <si>
     <t>6-phospho-D-gluconate[c] + nadp+[c] =&gt; CO2[c] + D-ribulose 5-phosphate[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>1.1.1.44</t>
-  </si>
-  <si>
     <t>YGR256W;YHR183W</t>
   </si>
   <si>
     <t>RPI</t>
   </si>
   <si>
-    <t>ribose 5-phosphate isomerase</t>
-  </si>
-  <si>
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-ribose 5-phosphate[c]</t>
   </si>
   <si>
-    <t>5.3.1.6</t>
-  </si>
-  <si>
     <t>YOR095C</t>
   </si>
   <si>
     <t>RPE</t>
   </si>
   <si>
-    <t>Ribulose-phosphate 3-epimerase</t>
-  </si>
-  <si>
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-xylulose 5-phosphate[c]</t>
   </si>
   <si>
-    <t>5.1.3.1</t>
-  </si>
-  <si>
     <t>YJL121C</t>
   </si>
   <si>
     <t>TKLa</t>
   </si>
   <si>
-    <t>Transketolase</t>
-  </si>
-  <si>
     <t>D-ribose 5-phosphate[c] + D-xylulose 5-phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c]</t>
   </si>
   <si>
-    <t>2.2.1.1</t>
-  </si>
-  <si>
     <t>YBR117C;YPR074C</t>
   </si>
   <si>
@@ -515,33 +398,18 @@
     <t>Transaldolase</t>
   </si>
   <si>
-    <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
-  </si>
-  <si>
-    <t>2.2.1.2</t>
-  </si>
-  <si>
     <t>YLR354C</t>
   </si>
   <si>
     <t>TKLb</t>
   </si>
   <si>
-    <t>D-erythrose 4-phosphate[c] + D-xylulose 5-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c] + D-glyceraldehyde 3-phosphate[c]</t>
-  </si>
-  <si>
     <t>DAR</t>
   </si>
   <si>
-    <t>glycerol-3-phosphate dehydrogenase</t>
-  </si>
-  <si>
     <t>glycerone phosphate[c] + NADH[c] =&gt; glycerol-3-phosphate[c] + nad+[c]</t>
   </si>
   <si>
-    <t>1.1.1.8</t>
-  </si>
-  <si>
     <t>YDL022W;YOL059W</t>
   </si>
   <si>
@@ -551,15 +419,9 @@
     <t>GPP</t>
   </si>
   <si>
-    <t>sn-glycerol-3-phosphate phosphohydrolase</t>
-  </si>
-  <si>
     <t>glycerol-3-phosphate[c] =&gt; glycerol[c] + phosphate[c]</t>
   </si>
   <si>
-    <t>3.1.3.21</t>
-  </si>
-  <si>
     <t>YER062C;YIL053W</t>
   </si>
   <si>
@@ -572,54 +434,33 @@
     <t>pyruvate[c] =&gt; acetaldehyde[c] + CO2[c]</t>
   </si>
   <si>
-    <t>4.1.1.1</t>
-  </si>
-  <si>
     <t>YGR087C;YLR134W;YLR044C</t>
   </si>
   <si>
     <t>ADH1</t>
   </si>
   <si>
-    <t>Alcohol dehydrogenase</t>
-  </si>
-  <si>
     <t>acetaldehyde[c] + NADH[c] &lt;=&gt; ethanol[c] + nad+[c]</t>
   </si>
   <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
     <t>YGL256W;YMR303C;YOL086C</t>
   </si>
   <si>
     <t>ALD6</t>
   </si>
   <si>
-    <t>Aldehyde dehydrogenase</t>
-  </si>
-  <si>
     <t>acetaldehyde[c] + nadp+[c] =&gt; acetate[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>1.2.1.3</t>
-  </si>
-  <si>
     <t>YPL061W</t>
   </si>
   <si>
     <t>ALD2</t>
   </si>
   <si>
-    <t>Aldehyde dehydrogenase [NAD(P)+] 1</t>
-  </si>
-  <si>
     <t>acetaldehyde[c] + nad+[c] =&gt; acetate[c] + NADH[c]</t>
   </si>
   <si>
-    <t>1.2.1.5</t>
-  </si>
-  <si>
     <t>YMR170C;YMR169C;YOR374W;YOR374W;YER073W</t>
   </si>
   <si>
@@ -635,9 +476,6 @@
     <t>isocitrate[m] =&gt; succinate[m] + Glyoxylate[m]</t>
   </si>
   <si>
-    <t>4.1.3.1</t>
-  </si>
-  <si>
     <t>YER065C;YPR006C</t>
   </si>
   <si>
@@ -650,15 +488,9 @@
     <t>MLS1</t>
   </si>
   <si>
-    <t>Malate synthase 1, glyoxysomal</t>
-  </si>
-  <si>
     <t>acetyl-CoA[m] + Glyoxylate[m] =&gt; (S)-malate[m] + coenzyme A[m]</t>
   </si>
   <si>
-    <t>2.3.3.9</t>
-  </si>
-  <si>
     <t>YIR031C;YNL117W</t>
   </si>
   <si>
@@ -677,27 +509,15 @@
     <t>PDH</t>
   </si>
   <si>
-    <t>Pyruvate dehydrogenase complex</t>
-  </si>
-  <si>
     <t>coenzyme A[m] + nad+[m] + pyruvate[m] =&gt; acetyl-CoA[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
-    <t>1.2.4.1</t>
-  </si>
-  <si>
     <t>YER178W;YFL018C;YBR221C</t>
   </si>
   <si>
     <t>ACS</t>
   </si>
   <si>
-    <t>Acetyl-coenzyme A synthetase 1</t>
-  </si>
-  <si>
-    <t>6.2.1.1</t>
-  </si>
-  <si>
     <t>YAL054C;YLR153C</t>
   </si>
   <si>
@@ -710,24 +530,15 @@
     <t>ATP[c] + oxaloacetate[c] =&gt; ADP[c] + CO2[c] + phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>4.1.1.49</t>
-  </si>
-  <si>
     <t>YKR097W</t>
   </si>
   <si>
     <t>PYC</t>
   </si>
   <si>
-    <t>Pyruvate carboxylase 1</t>
-  </si>
-  <si>
     <t>ATP[c] + CO2[c] + pyruvate[c] =&gt; ADP[c] + phosphate[c] + oxaloacetate[c]</t>
   </si>
   <si>
-    <t>6.4.1.1</t>
-  </si>
-  <si>
     <t>YGL062W;YBR218C</t>
   </si>
   <si>
@@ -737,15 +548,9 @@
     <t>CIT</t>
   </si>
   <si>
-    <t>Citrate synthase, mitochondrial</t>
-  </si>
-  <si>
     <t>acetyl-CoA[m] + oxaloacetate[m] =&gt; citrate[m] + coenzyme A[m]</t>
   </si>
   <si>
-    <t>2.3.3.1</t>
-  </si>
-  <si>
     <t>YNR001C;YPR001W</t>
   </si>
   <si>
@@ -758,9 +563,6 @@
     <t>citrate[m] &lt;=&gt; isocitrate[m]</t>
   </si>
   <si>
-    <t>4.2.1.3</t>
-  </si>
-  <si>
     <t>YLR304C</t>
   </si>
   <si>
@@ -773,33 +575,21 @@
     <t>isocitrate[m] + nad+[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
-    <t>1.1.1.41</t>
-  </si>
-  <si>
     <t>YNL037C;YOR136W</t>
   </si>
   <si>
     <t>IDPH</t>
   </si>
   <si>
-    <t>Isocitrate dehydrogenase [NADP], mitochondrial</t>
-  </si>
-  <si>
     <t>isocitrate[m] + nadp+[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADPH[m]</t>
   </si>
   <si>
-    <t>1.1.1.42</t>
-  </si>
-  <si>
     <t>YDL066W;YLR174W</t>
   </si>
   <si>
     <t>Alpha-ketoglutarate dehydrogenase</t>
   </si>
   <si>
-    <t>1.2.4.2</t>
-  </si>
-  <si>
     <t>SDH12</t>
   </si>
   <si>
@@ -809,9 +599,6 @@
     <t>FAD[m] + succinate[m] =&gt; FADH2[m] + fumarate[m]</t>
   </si>
   <si>
-    <t>1.3.5.1</t>
-  </si>
-  <si>
     <t>YKL148C;YLL041C</t>
   </si>
   <si>
@@ -824,24 +611,15 @@
     <t>FADH2[m] + fumarate[m] =&gt; FAD[m] + succinate[m]</t>
   </si>
   <si>
-    <t>1.3.1.6</t>
-  </si>
-  <si>
     <t>YJR051W;YEL047C</t>
   </si>
   <si>
     <t>FUM1</t>
   </si>
   <si>
-    <t>Fumarate hydratase</t>
-  </si>
-  <si>
     <t>fumarate[m] &lt;=&gt; (S)-malate[m]</t>
   </si>
   <si>
-    <t>4.2.1.2</t>
-  </si>
-  <si>
     <t>YPL262W</t>
   </si>
   <si>
@@ -854,24 +632,15 @@
     <t>(S)-malate[m] + nad+[m] &lt;=&gt; NADH[m] + oxaloacetate[m]</t>
   </si>
   <si>
-    <t>1.1.1.37</t>
-  </si>
-  <si>
     <t>YKL085W</t>
   </si>
   <si>
     <t>NDI1</t>
   </si>
   <si>
-    <t>NADH-ubiquinone oxidoreductase, mitochondrial ("Complex 1")</t>
-  </si>
-  <si>
     <t>NADH[m] + ubiquinone-9[m] =&gt; nad+[m] + ubiquinols[m]</t>
   </si>
   <si>
-    <t>1.6.5.3 (1.6.5.9)</t>
-  </si>
-  <si>
     <t>YML120C;YMR145C</t>
   </si>
   <si>
@@ -881,9 +650,6 @@
     <t>NDE2</t>
   </si>
   <si>
-    <t>External NADH-ubiquinone oxidoreductase 2, mitochondrial ("Complex 1")</t>
-  </si>
-  <si>
     <t>NADH[c] + ubiquinone-9[m] =&gt; nad+[c] + ubiquinols[m]</t>
   </si>
   <si>
@@ -893,9 +659,6 @@
     <t>SDH34</t>
   </si>
   <si>
-    <t>Succinate dehydrogenase [ubiquinone] cytochrome b subunit, mitochondrial (Complex II)</t>
-  </si>
-  <si>
     <t>FADH2[m] + ubiquinone-9[m] &lt;=&gt; FAD[m] + ubiquinols[m]</t>
   </si>
   <si>
@@ -905,36 +668,18 @@
     <t>RIP1</t>
   </si>
   <si>
-    <t>Cytochrome b-c1 complex subunit Rieske, mitochondrial (complex III)</t>
-  </si>
-  <si>
-    <t>1.10.2.2</t>
-  </si>
-  <si>
     <t>YEL024W;YBL045C;YHR001W-A;YPR191W;YFR033C;YDR529C;YJL166W;YGR183C</t>
   </si>
   <si>
     <t>COX1</t>
   </si>
   <si>
-    <t>Cytochrome c oxidase subunit 1 (Complex IV)</t>
-  </si>
-  <si>
-    <t>1.9.3.1</t>
-  </si>
-  <si>
     <t>YNL052W;YIL111W;YLR395C;Q0045;Q0250;YGL187C;YHR051W;YGL191W;YLR038C;YMR256C;YDL067C</t>
   </si>
   <si>
     <t>ATP1</t>
   </si>
   <si>
-    <t>ATP synthase subunit alpha, mitochondrial (Complex V)</t>
-  </si>
-  <si>
-    <t>3.6.3.14</t>
-  </si>
-  <si>
     <t>YBL099W;Q0080;YPL078C;YDR298C;Q0130;Q0085;YJR121W;YKL016C;YDL004W;YDR322C-A;YPL271W;YDR377W;YPR020W;YBR039W;YLR295C;YML081C-A;YOL077W-A;YML042W</t>
   </si>
   <si>
@@ -1067,9 +812,6 @@
     <t>VGROMANNAN</t>
   </si>
   <si>
-    <t>3.07 ATP[c] + beta-D-fructofuranose 6-phosphate[c] =&gt; 3.07 ADP[c] + 4.07 phosphate[c] + growthMannan[c]</t>
-  </si>
-  <si>
     <t>VGROGLUCAN</t>
   </si>
   <si>
@@ -1079,9 +821,6 @@
     <t>VGROMAINTAIN</t>
   </si>
   <si>
-    <t>1 mol ATP spent for maintainance</t>
-  </si>
-  <si>
     <t>ATP[c] =&gt; ADP[c] + phosphate[c] + Maintainance for growth[c]</t>
   </si>
   <si>
@@ -2012,12 +1751,6 @@
     <t>OAA[c]</t>
   </si>
   <si>
-    <t>galactos[c]</t>
-  </si>
-  <si>
-    <t>galactos</t>
-  </si>
-  <si>
     <t>GAL[c]</t>
   </si>
   <si>
@@ -2492,12 +2225,6 @@
     <t>ADK1_1</t>
   </si>
   <si>
-    <t>Adenylate kinase cytosolic</t>
-  </si>
-  <si>
-    <t>2.7.4.3</t>
-  </si>
-  <si>
     <t>YDR226W</t>
   </si>
   <si>
@@ -2525,12 +2252,6 @@
     <t>KGD1</t>
   </si>
   <si>
-    <t>Succinyl-CoA ligase [ADP-forming] subunit beta, mitochondrial</t>
-  </si>
-  <si>
-    <t>6.2.1.5</t>
-  </si>
-  <si>
     <t>YGR244C</t>
   </si>
   <si>
@@ -2612,13 +2333,151 @@
     <t>1,3-bis-phosphoglycerate</t>
   </si>
   <si>
-    <t>h+[c] + oxaloacetate[c] =&gt; oxaloacetate[m] + h+[m]</t>
-  </si>
-  <si>
-    <t>h+[c]</t>
-  </si>
-  <si>
-    <t>H[c]</t>
+    <t xml:space="preserve"> =&gt; galactose[c]</t>
+  </si>
+  <si>
+    <t>ATP[c] + galactose[c] =&gt; ADP[c] + D-galactose 1-phosphate[c]</t>
+  </si>
+  <si>
+    <t>h+[i] + oxaloacetate[c] =&gt; oxaloacetate[m] + h+[m]</t>
+  </si>
+  <si>
+    <t>galactose</t>
+  </si>
+  <si>
+    <t>galactose[c]</t>
+  </si>
+  <si>
+    <t>UDPglucose 4-epimerase</t>
+  </si>
+  <si>
+    <t>phosphoglucomutase</t>
+  </si>
+  <si>
+    <t>hexokinase (D-glucose:ATP)</t>
+  </si>
+  <si>
+    <t>fructose-bisphosphatase</t>
+  </si>
+  <si>
+    <t>triose-phosphate isomerase</t>
+  </si>
+  <si>
+    <t>glyceraldehyde-3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>glucose 6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t>ribose-5-phosphate isomerase</t>
+  </si>
+  <si>
+    <t>ribulose 5-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t>transketolase 1</t>
+  </si>
+  <si>
+    <t>transketolase 2</t>
+  </si>
+  <si>
+    <t>glycerol-3-phosphate dehydrogenase (NAD)</t>
+  </si>
+  <si>
+    <t>glycerol-3-phosphatase</t>
+  </si>
+  <si>
+    <t>alcohol dehydrogenase, (acetaldehyde to ethanol)</t>
+  </si>
+  <si>
+    <t>aldehyde dehydrogenase (acetaldehyde, NADP)</t>
+  </si>
+  <si>
+    <t>acetaldehyde dehydrogenase</t>
+  </si>
+  <si>
+    <t>malate synthase</t>
+  </si>
+  <si>
+    <t>pyruvate dehydrogenase</t>
+  </si>
+  <si>
+    <t>acetyl-CoA synthetase</t>
+  </si>
+  <si>
+    <t>adenylate kinase</t>
+  </si>
+  <si>
+    <t>pyruvate carboxylase</t>
+  </si>
+  <si>
+    <t>citrate synthase</t>
+  </si>
+  <si>
+    <t>isocitrate dehydrogenase</t>
+  </si>
+  <si>
+    <t>succinate-CoA ligase (ADP-forming)</t>
+  </si>
+  <si>
+    <t>fumarase</t>
+  </si>
+  <si>
+    <t>NADH:ubiquinone oxidoreductase</t>
+  </si>
+  <si>
+    <t>NADH dehydrogenase, cytosolic/mitochondrial</t>
+  </si>
+  <si>
+    <t>succinate dehydrogenase (ubiquinone-6)</t>
+  </si>
+  <si>
+    <t>ubiquinol:ferricytochrome c reductase</t>
+  </si>
+  <si>
+    <t>ferrocytochrome-c:oxygen oxidoreductase</t>
+  </si>
+  <si>
+    <t>ATP synthase</t>
+  </si>
+  <si>
+    <t>Glycogen synthesis for growth</t>
+  </si>
+  <si>
+    <t>Trehalose synthesis for growth</t>
+  </si>
+  <si>
+    <t>Mannan synthesis for growth</t>
+  </si>
+  <si>
+    <t>Glucan synthesis for growth</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>alpha-D-glucose 6-phosphate[c] &lt;=&gt; D-fructose 6-phosphate[c]</t>
+  </si>
+  <si>
+    <t>ATP[c] + D-fructose 6-phosphate[c] =&gt; ADP[c] + D-fructose 1,6-bisphosphate[c]</t>
+  </si>
+  <si>
+    <t>D-fructose 1,6-bisphosphate[c] =&gt; D-fructose 6-phosphate[c] + phosphate[c]</t>
+  </si>
+  <si>
+    <t>D-fructose 1,6-bisphosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + glycerone phosphate[c]</t>
+  </si>
+  <si>
+    <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; D-fructose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
+  </si>
+  <si>
+    <t>D-erythrose 4-phosphate[c] + D-xylulose 5-phosphate[c] &lt;=&gt; D-fructose 6-phosphate[c] + D-glyceraldehyde 3-phosphate[c]</t>
+  </si>
+  <si>
+    <t>3.07 ATP[c] + D-fructose 6-phosphate[c] =&gt; 3.07 ADP[c] + 4.07 phosphate[c] + growthMannan[c]</t>
   </si>
 </sst>
 </file>
@@ -2647,30 +2506,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2691,18 +2532,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2983,2131 +2820,1864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="57.1640625" customWidth="1"/>
-    <col min="4" max="4" width="94.1640625" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="34.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8">
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="5">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>857</v>
-      </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>858</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>859</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>847</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s">
-        <v>848</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" t="s">
-        <v>145</v>
-      </c>
-      <c r="J32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" t="s">
-        <v>155</v>
-      </c>
-      <c r="J34" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" t="s">
-        <v>165</v>
-      </c>
-      <c r="J36" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="J37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" t="s">
-        <v>178</v>
-      </c>
-      <c r="J39" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" t="s">
-        <v>183</v>
-      </c>
-      <c r="J40" t="s">
-        <v>60</v>
-      </c>
-      <c r="L40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" t="s">
-        <v>188</v>
-      </c>
-      <c r="J41" t="s">
-        <v>60</v>
-      </c>
-      <c r="L41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" t="s">
-        <v>192</v>
-      </c>
-      <c r="F42" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" t="s">
-        <v>60</v>
-      </c>
-      <c r="L42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" t="s">
-        <v>197</v>
-      </c>
-      <c r="F43" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
-        <v>204</v>
-      </c>
-      <c r="J44" t="s">
-        <v>205</v>
-      </c>
-      <c r="L44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" t="s">
-        <v>211</v>
-      </c>
-      <c r="J45" t="s">
-        <v>205</v>
-      </c>
-      <c r="L45" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" t="s">
-        <v>214</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" t="s">
-        <v>220</v>
-      </c>
-      <c r="J47" t="s">
-        <v>205</v>
-      </c>
-      <c r="L47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" t="s">
-        <v>820</v>
-      </c>
-      <c r="E48" t="s">
-        <v>223</v>
-      </c>
-      <c r="F48" t="s">
-        <v>224</v>
-      </c>
-      <c r="J48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" t="s">
-        <v>229</v>
-      </c>
-      <c r="J50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" t="s">
-        <v>233</v>
-      </c>
-      <c r="F51" t="s">
-        <v>234</v>
-      </c>
-      <c r="J51" t="s">
-        <v>60</v>
-      </c>
-      <c r="L51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" t="s">
-        <v>240</v>
-      </c>
-      <c r="J52" t="s">
-        <v>205</v>
-      </c>
-      <c r="L52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F53" t="s">
-        <v>245</v>
-      </c>
-      <c r="J53" t="s">
-        <v>205</v>
-      </c>
-      <c r="L53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="I90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="E54" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" t="s">
-        <v>250</v>
-      </c>
-      <c r="J54" t="s">
-        <v>205</v>
-      </c>
-      <c r="L54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" t="s">
-        <v>255</v>
-      </c>
-      <c r="J55" t="s">
-        <v>205</v>
-      </c>
-      <c r="L55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>832</v>
-      </c>
-      <c r="C56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" t="s">
-        <v>850</v>
-      </c>
-      <c r="E56" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" t="s">
-        <v>718</v>
-      </c>
-      <c r="J56" t="s">
-        <v>205</v>
-      </c>
-      <c r="L56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D57" t="s">
-        <v>830</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="J57" t="s">
-        <v>205</v>
-      </c>
-      <c r="L57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" t="s">
-        <v>261</v>
-      </c>
-      <c r="F58" t="s">
-        <v>262</v>
-      </c>
-      <c r="J58" t="s">
-        <v>205</v>
-      </c>
-      <c r="L58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" t="s">
-        <v>264</v>
-      </c>
-      <c r="D59" t="s">
-        <v>265</v>
-      </c>
-      <c r="E59" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" t="s">
-        <v>267</v>
-      </c>
-      <c r="J59" t="s">
-        <v>205</v>
-      </c>
-      <c r="L59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" t="s">
-        <v>270</v>
-      </c>
-      <c r="E60" t="s">
-        <v>271</v>
-      </c>
-      <c r="F60" t="s">
-        <v>272</v>
-      </c>
-      <c r="J60" t="s">
-        <v>205</v>
-      </c>
-      <c r="L60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E61" t="s">
-        <v>276</v>
-      </c>
-      <c r="F61" t="s">
-        <v>277</v>
-      </c>
-      <c r="J61" t="s">
-        <v>205</v>
-      </c>
-      <c r="L61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" t="s">
-        <v>280</v>
-      </c>
-      <c r="E62" t="s">
-        <v>281</v>
-      </c>
-      <c r="F62" t="s">
-        <v>282</v>
-      </c>
-      <c r="J62" t="s">
-        <v>205</v>
-      </c>
-      <c r="L62" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" t="s">
-        <v>286</v>
-      </c>
-      <c r="E63" t="s">
-        <v>281</v>
-      </c>
-      <c r="F63" t="s">
-        <v>287</v>
-      </c>
-      <c r="J63" t="s">
-        <v>205</v>
-      </c>
-      <c r="L63" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C64" t="s">
-        <v>289</v>
-      </c>
-      <c r="D64" t="s">
-        <v>290</v>
-      </c>
-      <c r="E64" t="s">
-        <v>261</v>
-      </c>
-      <c r="F64" t="s">
-        <v>291</v>
-      </c>
-      <c r="J64" t="s">
-        <v>205</v>
-      </c>
-      <c r="L64" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" t="s">
-        <v>840</v>
-      </c>
-      <c r="E65" t="s">
-        <v>294</v>
-      </c>
-      <c r="F65" t="s">
-        <v>295</v>
-      </c>
-      <c r="J65" t="s">
-        <v>205</v>
-      </c>
-      <c r="L65" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C66" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" t="s">
-        <v>841</v>
-      </c>
-      <c r="E66" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" t="s">
-        <v>299</v>
-      </c>
-      <c r="J66" t="s">
-        <v>205</v>
-      </c>
-      <c r="L66" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>300</v>
-      </c>
-      <c r="C67" t="s">
-        <v>301</v>
-      </c>
-      <c r="D67" t="s">
-        <v>842</v>
-      </c>
-      <c r="E67" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" t="s">
-        <v>303</v>
-      </c>
-      <c r="J67" t="s">
-        <v>205</v>
-      </c>
-      <c r="L67" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>304</v>
-      </c>
-      <c r="C68" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68" t="s">
-        <v>306</v>
-      </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" t="s">
-        <v>205</v>
-      </c>
-      <c r="L68" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>308</v>
-      </c>
-      <c r="C69" t="s">
-        <v>309</v>
-      </c>
-      <c r="D69" t="s">
-        <v>843</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" t="s">
-        <v>205</v>
-      </c>
-      <c r="L69" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>310</v>
-      </c>
-      <c r="C70" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" t="s">
-        <v>862</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" t="s">
-        <v>205</v>
-      </c>
-      <c r="L70" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" t="s">
-        <v>844</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" t="s">
-        <v>205</v>
-      </c>
-      <c r="L71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>314</v>
-      </c>
-      <c r="C72" t="s">
-        <v>315</v>
-      </c>
-      <c r="D72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" t="s">
-        <v>205</v>
-      </c>
-      <c r="L72" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>317</v>
-      </c>
-      <c r="C73" t="s">
-        <v>318</v>
-      </c>
-      <c r="D73" t="s">
-        <v>319</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" t="s">
-        <v>205</v>
-      </c>
-      <c r="L73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>320</v>
-      </c>
-      <c r="C74" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" t="s">
-        <v>321</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" t="s">
-        <v>205</v>
-      </c>
-      <c r="L74" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>322</v>
-      </c>
-      <c r="C75" t="s">
-        <v>309</v>
-      </c>
-      <c r="D75" t="s">
-        <v>815</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" t="s">
-        <v>205</v>
-      </c>
-      <c r="L75" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>323</v>
-      </c>
-      <c r="C76" t="s">
-        <v>311</v>
-      </c>
-      <c r="D76" t="s">
-        <v>324</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" t="s">
-        <v>205</v>
-      </c>
-      <c r="L76" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>325</v>
-      </c>
-      <c r="C77" t="s">
-        <v>313</v>
-      </c>
-      <c r="D77" t="s">
-        <v>326</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" t="s">
-        <v>205</v>
-      </c>
-      <c r="L77" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>327</v>
-      </c>
-      <c r="C78" t="s">
-        <v>315</v>
-      </c>
-      <c r="D78" t="s">
-        <v>328</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" t="s">
-        <v>205</v>
-      </c>
-      <c r="L78" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>329</v>
-      </c>
-      <c r="C79" t="s">
-        <v>330</v>
-      </c>
-      <c r="D79" t="s">
-        <v>845</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" t="s">
-        <v>205</v>
-      </c>
-      <c r="L79" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>331</v>
-      </c>
-      <c r="C80" t="s">
-        <v>332</v>
-      </c>
-      <c r="D80" t="s">
-        <v>852</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" t="s">
-        <v>60</v>
-      </c>
-      <c r="L80" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>334</v>
-      </c>
-      <c r="C81" t="s">
-        <v>335</v>
-      </c>
-      <c r="D81" t="s">
-        <v>853</v>
-      </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" t="s">
-        <v>60</v>
-      </c>
-      <c r="L81" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>336</v>
-      </c>
-      <c r="C82" t="s">
-        <v>337</v>
-      </c>
-      <c r="D82" t="s">
-        <v>854</v>
-      </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" t="s">
-        <v>60</v>
-      </c>
-      <c r="L82" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" t="s">
-        <v>339</v>
-      </c>
-      <c r="D83" t="s">
-        <v>855</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" t="s">
-        <v>60</v>
-      </c>
-      <c r="L83" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" t="s">
-        <v>856</v>
-      </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" t="s">
-        <v>60</v>
-      </c>
-      <c r="L84" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" t="s">
-        <v>343</v>
-      </c>
-      <c r="E85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
-        <v>60</v>
-      </c>
-      <c r="L85" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>344</v>
-      </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s">
-        <v>345</v>
-      </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" t="s">
-        <v>60</v>
-      </c>
-      <c r="L86" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>346</v>
-      </c>
-      <c r="C87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>60</v>
-      </c>
-      <c r="L87" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>348</v>
-      </c>
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>349</v>
-      </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" t="s">
-        <v>60</v>
-      </c>
-      <c r="L88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>350</v>
-      </c>
-      <c r="C89" t="s">
-        <v>351</v>
-      </c>
-      <c r="D89" t="s">
-        <v>352</v>
-      </c>
-      <c r="E89" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" t="s">
-        <v>60</v>
-      </c>
-      <c r="L89" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>353</v>
-      </c>
-      <c r="C90" t="s">
-        <v>354</v>
-      </c>
-      <c r="D90" t="s">
-        <v>355</v>
-      </c>
-      <c r="E90" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>60</v>
-      </c>
-      <c r="L90" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5120,11 +4690,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5137,1814 +4711,1802 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="G1" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>846</v>
+        <v>753</v>
       </c>
       <c r="C6" t="s">
-        <v>861</v>
+        <v>768</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="G7" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="G9" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="G11" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="G14" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="G15" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>817</v>
+        <v>728</v>
       </c>
       <c r="C17" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>818</v>
+        <v>729</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>819</v>
+        <v>730</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>817</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="G18" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="F19" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="G19" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="C20" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="F21" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="G21" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I21" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>457</v>
+        <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="E22" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="G22" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>457</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="F23" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="G23" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="E24" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="F24" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="G24" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="E25" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="G25" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="E26" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="F26" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="G26" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="E27" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="F27" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="G28" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="C29" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="E29" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="G29" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="G30" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="E31" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="C32" t="s">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="E32" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="F32" t="s">
-        <v>507</v>
+        <v>420</v>
       </c>
       <c r="G32" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>509</v>
+        <v>422</v>
       </c>
       <c r="C33" t="s">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="E33" t="s">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="F33" t="s">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="G33" t="s">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I33" t="s">
-        <v>509</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="C34" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="E34" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="F34" t="s">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="G34" t="s">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I34" t="s">
-        <v>519</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="C35" t="s">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="C36" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="F36" t="s">
-        <v>526</v>
+        <v>439</v>
       </c>
       <c r="G36" t="s">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="C37" t="s">
-        <v>530</v>
+        <v>443</v>
       </c>
       <c r="E37" t="s">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="F37" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="G37" t="s">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="E38" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F38" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I38" t="s">
-        <v>538</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="C39" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="E39" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="F39" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="G39" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="C40" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="E40" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="F40" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="G40" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="C41" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="E41" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="F41" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="G41" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="C42" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="E42" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="F42" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="G42" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I42" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="C43" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="E43" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="F43" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="G43" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="C44" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="E44" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="F44" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="G44" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="C45" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="E45" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="F45" t="s">
-        <v>564</v>
+        <v>477</v>
       </c>
       <c r="G45" t="s">
-        <v>565</v>
+        <v>478</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>566</v>
+        <v>479</v>
       </c>
       <c r="C46" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="E46" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="F46" t="s">
-        <v>564</v>
+        <v>477</v>
       </c>
       <c r="G46" t="s">
-        <v>565</v>
+        <v>478</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I46" t="s">
-        <v>566</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>567</v>
+        <v>480</v>
       </c>
       <c r="C47" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="E47" t="s">
-        <v>569</v>
+        <v>482</v>
       </c>
       <c r="F47" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="G47" t="s">
-        <v>570</v>
+        <v>483</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>567</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="C48" t="s">
-        <v>572</v>
+        <v>485</v>
       </c>
       <c r="E48" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="F48" t="s">
-        <v>574</v>
+        <v>487</v>
       </c>
       <c r="G48" t="s">
-        <v>575</v>
+        <v>488</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>577</v>
+        <v>490</v>
       </c>
       <c r="C49" t="s">
-        <v>578</v>
+        <v>491</v>
       </c>
       <c r="E49" t="s">
-        <v>579</v>
+        <v>492</v>
       </c>
       <c r="F49" t="s">
-        <v>580</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
-        <v>581</v>
+        <v>494</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>582</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>583</v>
+        <v>496</v>
       </c>
       <c r="C50" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="E50" t="s">
-        <v>585</v>
+        <v>498</v>
       </c>
       <c r="F50" t="s">
-        <v>586</v>
+        <v>499</v>
       </c>
       <c r="G50" t="s">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>589</v>
+        <v>502</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="E51" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="F51" t="s">
-        <v>592</v>
+        <v>505</v>
       </c>
       <c r="G51" t="s">
-        <v>593</v>
+        <v>506</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>594</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>595</v>
+        <v>508</v>
       </c>
       <c r="C52" t="s">
-        <v>596</v>
+        <v>509</v>
       </c>
       <c r="E52" t="s">
-        <v>597</v>
+        <v>510</v>
       </c>
       <c r="F52" t="s">
-        <v>598</v>
+        <v>511</v>
       </c>
       <c r="G52" t="s">
-        <v>599</v>
+        <v>512</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s">
-        <v>600</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>601</v>
+        <v>514</v>
       </c>
       <c r="C53" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="E53" t="s">
-        <v>603</v>
+        <v>516</v>
       </c>
       <c r="F53" t="s">
-        <v>604</v>
+        <v>517</v>
       </c>
       <c r="G53" t="s">
-        <v>605</v>
+        <v>518</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I53" t="s">
-        <v>606</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>607</v>
+        <v>520</v>
       </c>
       <c r="C54" t="s">
-        <v>608</v>
+        <v>521</v>
       </c>
       <c r="E54" t="s">
-        <v>609</v>
+        <v>522</v>
       </c>
       <c r="F54" t="s">
-        <v>610</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>611</v>
+        <v>524</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I54" t="s">
-        <v>612</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>613</v>
+        <v>526</v>
       </c>
       <c r="C55" t="s">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="E55" t="s">
-        <v>615</v>
+        <v>528</v>
       </c>
       <c r="F55" t="s">
-        <v>616</v>
+        <v>529</v>
       </c>
       <c r="G55" t="s">
-        <v>617</v>
+        <v>530</v>
       </c>
       <c r="H55" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I55" t="s">
-        <v>618</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>619</v>
+        <v>532</v>
       </c>
       <c r="C56" t="s">
-        <v>620</v>
+        <v>533</v>
       </c>
       <c r="E56" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="F56" t="s">
-        <v>622</v>
+        <v>535</v>
       </c>
       <c r="G56" t="s">
-        <v>623</v>
+        <v>536</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s">
-        <v>624</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>625</v>
+        <v>538</v>
       </c>
       <c r="C57" t="s">
-        <v>626</v>
+        <v>539</v>
       </c>
       <c r="E57" t="s">
-        <v>627</v>
+        <v>540</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="G57" t="s">
-        <v>628</v>
+        <v>541</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
-        <v>629</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>630</v>
+        <v>543</v>
       </c>
       <c r="C58" t="s">
-        <v>631</v>
+        <v>544</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I58" t="s">
-        <v>632</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>838</v>
+        <v>745</v>
       </c>
       <c r="C59" t="s">
-        <v>631</v>
+        <v>544</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>836</v>
+        <v>743</v>
       </c>
       <c r="I59" t="s">
-        <v>839</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>633</v>
+        <v>546</v>
       </c>
       <c r="C60" t="s">
-        <v>634</v>
+        <v>547</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>633</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>635</v>
+        <v>548</v>
       </c>
       <c r="C61" t="s">
-        <v>636</v>
+        <v>549</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>635</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>637</v>
+        <v>550</v>
       </c>
       <c r="C62" t="s">
-        <v>638</v>
+        <v>551</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>637</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>639</v>
+        <v>552</v>
       </c>
       <c r="C63" t="s">
-        <v>640</v>
+        <v>553</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>639</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>641</v>
+        <v>554</v>
       </c>
       <c r="C64" t="s">
-        <v>642</v>
+        <v>555</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>641</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>643</v>
+        <v>556</v>
       </c>
       <c r="C65" t="s">
-        <v>644</v>
+        <v>557</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>643</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>645</v>
+        <v>558</v>
       </c>
       <c r="C66" t="s">
-        <v>646</v>
+        <v>559</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>645</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>647</v>
+        <v>560</v>
       </c>
       <c r="C67" t="s">
-        <v>648</v>
+        <v>561</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I67" t="s">
-        <v>647</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>649</v>
+        <v>562</v>
       </c>
       <c r="C68" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I68" t="s">
-        <v>649</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>651</v>
+        <v>564</v>
       </c>
       <c r="C69" t="s">
-        <v>652</v>
+        <v>565</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s">
-        <v>653</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>654</v>
+        <v>567</v>
       </c>
       <c r="C70" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I70" t="s">
-        <v>654</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>655</v>
+        <v>568</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I71" t="s">
-        <v>655</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>656</v>
+        <v>569</v>
       </c>
       <c r="C72" t="s">
-        <v>578</v>
+        <v>491</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I72" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>658</v>
+        <v>571</v>
       </c>
       <c r="C73" t="s">
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I73" t="s">
-        <v>659</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>660</v>
+        <v>573</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>485</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I74" t="s">
-        <v>661</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>662</v>
+        <v>773</v>
       </c>
       <c r="C75" t="s">
-        <v>663</v>
+        <v>772</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I75" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>665</v>
+        <v>576</v>
       </c>
       <c r="C76" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="E76" t="s">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="F76" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="G76" t="s">
-        <v>668</v>
+        <v>579</v>
       </c>
       <c r="H76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I76" t="s">
-        <v>669</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>670</v>
+        <v>581</v>
       </c>
       <c r="C77" t="s">
-        <v>671</v>
+        <v>582</v>
       </c>
       <c r="E77" t="s">
-        <v>672</v>
+        <v>583</v>
       </c>
       <c r="F77" t="s">
-        <v>673</v>
+        <v>584</v>
       </c>
       <c r="G77" t="s">
-        <v>674</v>
+        <v>585</v>
       </c>
       <c r="H77" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I77" t="s">
-        <v>675</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>676</v>
+        <v>587</v>
       </c>
       <c r="C78" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="E78" t="s">
-        <v>678</v>
+        <v>589</v>
       </c>
       <c r="F78" t="s">
-        <v>673</v>
+        <v>584</v>
       </c>
       <c r="G78" t="s">
-        <v>679</v>
+        <v>590</v>
       </c>
       <c r="H78" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I78" t="s">
-        <v>680</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>681</v>
+        <v>592</v>
       </c>
       <c r="C79" t="s">
-        <v>682</v>
+        <v>593</v>
       </c>
       <c r="E79" t="s">
-        <v>683</v>
+        <v>594</v>
       </c>
       <c r="F79" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="G79" t="s">
-        <v>684</v>
+        <v>595</v>
       </c>
       <c r="H79" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I79" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>686</v>
+        <v>597</v>
       </c>
       <c r="C80" t="s">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I80" t="s">
-        <v>686</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>851</v>
+        <v>758</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>735</v>
+      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="1" t="s">
-        <v>827</v>
+        <v>736</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>828</v>
+        <v>15</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>829</v>
+        <v>151</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>863</v>
-      </c>
-      <c r="C82" t="s">
-        <v>631</v>
-      </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" t="s">
-        <v>60</v>
-      </c>
-      <c r="I82" t="s">
-        <v>864</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6967,48 +6529,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>688</v>
+        <v>599</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>691</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>836</v>
+        <v>743</v>
       </c>
       <c r="C4" t="s">
-        <v>837</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -7034,1045 +6596,1045 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>708</v>
+        <v>619</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>710</v>
+        <v>621</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>712</v>
+        <v>623</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>713</v>
+        <v>624</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>714</v>
+        <v>625</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>715</v>
+        <v>626</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>717</v>
+        <v>628</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>718</v>
+        <v>629</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>719</v>
+        <v>630</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>720</v>
+        <v>631</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>721</v>
+        <v>632</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>722</v>
+        <v>633</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>723</v>
+        <v>634</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>724</v>
+        <v>635</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>725</v>
+        <v>636</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>726</v>
+        <v>637</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>727</v>
+        <v>638</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>728</v>
+        <v>639</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>730</v>
+        <v>641</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>732</v>
+        <v>643</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>734</v>
+        <v>645</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>736</v>
+        <v>647</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>737</v>
+        <v>648</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>738</v>
+        <v>649</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>739</v>
+        <v>650</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>740</v>
+        <v>651</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>741</v>
+        <v>652</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>742</v>
+        <v>653</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>744</v>
+        <v>655</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>745</v>
+        <v>656</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>746</v>
+        <v>657</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>747</v>
+        <v>658</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>748</v>
+        <v>659</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>749</v>
+        <v>660</v>
       </c>
       <c r="E71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>752</v>
+        <v>663</v>
       </c>
       <c r="E74" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>753</v>
+        <v>664</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>755</v>
+        <v>666</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="E78" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>757</v>
+        <v>668</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>759</v>
+        <v>670</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>760</v>
+        <v>671</v>
       </c>
       <c r="E83" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>761</v>
+        <v>672</v>
       </c>
       <c r="E84" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>762</v>
+        <v>673</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>765</v>
+        <v>676</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>766</v>
+        <v>677</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="E90" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>768</v>
+        <v>679</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="E92" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>771</v>
+        <v>682</v>
       </c>
       <c r="E94" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="E95" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>773</v>
+        <v>684</v>
       </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>774</v>
+        <v>685</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>776</v>
+        <v>687</v>
       </c>
       <c r="E99" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>777</v>
+        <v>688</v>
       </c>
       <c r="E100" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>778</v>
+        <v>689</v>
       </c>
       <c r="E101" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>779</v>
+        <v>690</v>
       </c>
       <c r="E102" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>780</v>
+        <v>691</v>
       </c>
       <c r="E103" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>781</v>
+        <v>692</v>
       </c>
       <c r="E104" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="E105" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>783</v>
+        <v>694</v>
       </c>
       <c r="E106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>784</v>
+        <v>695</v>
       </c>
       <c r="E107" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>785</v>
+        <v>696</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
       <c r="E109" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="E110" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>788</v>
+        <v>699</v>
       </c>
       <c r="E111" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>789</v>
+        <v>700</v>
       </c>
       <c r="E112" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="E113" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>791</v>
+        <v>702</v>
       </c>
       <c r="E114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>792</v>
+        <v>703</v>
       </c>
       <c r="E115" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="E116" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>794</v>
+        <v>705</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>795</v>
+        <v>706</v>
       </c>
       <c r="E118" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>796</v>
+        <v>707</v>
       </c>
       <c r="E119" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>797</v>
+        <v>708</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E121" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E122" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E123" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>798</v>
+        <v>709</v>
       </c>
       <c r="E124" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>799</v>
+        <v>710</v>
       </c>
       <c r="E125" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>824</v>
+        <v>733</v>
       </c>
       <c r="E126" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>835</v>
+        <v>742</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>857</v>
+        <v>764</v>
       </c>
       <c r="E128" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>858</v>
+        <v>765</v>
       </c>
       <c r="E129" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>860</v>
+        <v>767</v>
       </c>
       <c r="E130" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8096,39 +7658,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>800</v>
+        <v>711</v>
       </c>
       <c r="D1" t="s">
-        <v>801</v>
+        <v>712</v>
       </c>
       <c r="E1" t="s">
-        <v>802</v>
+        <v>713</v>
       </c>
       <c r="F1" t="s">
-        <v>803</v>
+        <v>714</v>
       </c>
       <c r="G1" t="s">
-        <v>804</v>
+        <v>715</v>
       </c>
       <c r="H1" t="s">
-        <v>805</v>
+        <v>716</v>
       </c>
       <c r="I1" t="s">
-        <v>806</v>
+        <v>717</v>
       </c>
       <c r="J1" t="s">
-        <v>807</v>
+        <v>718</v>
       </c>
       <c r="K1" t="s">
-        <v>808</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>809</v>
+        <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>810</v>
+        <v>721</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -8137,16 +7699,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>811</v>
+        <v>722</v>
       </c>
       <c r="G2" t="s">
-        <v>812</v>
+        <v>723</v>
       </c>
       <c r="H2" t="s">
-        <v>813</v>
+        <v>724</v>
       </c>
       <c r="I2" t="s">
-        <v>814</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21D7B550-82A4-054D-B008-8286E6C24836}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9390E1C6-D2F7-0043-914E-89A6D16768DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19900" yWindow="460" windowWidth="18500" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19640" yWindow="460" windowWidth="18760" windowHeight="23540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="838">
   <si>
     <t>#</t>
   </si>
@@ -233,9 +233,6 @@
     <t>alpha-D-glucose[c] + ATP[c] =&gt; ADP[c] + alpha-D-glucose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>YFR053C;YGL253W;YCL040W</t>
-  </si>
-  <si>
     <t>Glycolysis</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>Phosphofructokinase</t>
   </si>
   <si>
-    <t>YGR240C;YMR205C</t>
-  </si>
-  <si>
     <t>FBP</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>GLD</t>
   </si>
   <si>
-    <t>YJL052W;YJR009C;YGR192C</t>
-  </si>
-  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glycerate[c]</t>
   </si>
   <si>
-    <t>YKL152C;YDL021W;YOL056W</t>
-  </si>
-  <si>
     <t>ENO</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>2-phospho-D-glycerate[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>YGR254W;YHR174W;YOR393W;YPL281C;YMR323W</t>
-  </si>
-  <si>
     <t>CDC</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t>ADP[c] + phosphoenolpyruvate[c] =&gt; ATP[c] + pyruvate[c]</t>
   </si>
   <si>
-    <t>YOR347C;YAL038W</t>
-  </si>
-  <si>
     <t>ZWF</t>
   </si>
   <si>
@@ -353,9 +335,6 @@
     <t>6-O-phosphono-D-glucono-1,5-lactone[c] =&gt; 6-phospho-D-gluconate[c]</t>
   </si>
   <si>
-    <t>YNR034W;YCR073W-A;YHR163W;YGR248W</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -434,18 +413,12 @@
     <t>pyruvate[c] =&gt; acetaldehyde[c] + CO2[c]</t>
   </si>
   <si>
-    <t>YGR087C;YLR134W;YLR044C</t>
-  </si>
-  <si>
     <t>ADH1</t>
   </si>
   <si>
     <t>acetaldehyde[c] + NADH[c] &lt;=&gt; ethanol[c] + nad+[c]</t>
   </si>
   <si>
-    <t>YGL256W;YMR303C;YOL086C</t>
-  </si>
-  <si>
     <t>ALD6</t>
   </si>
   <si>
@@ -461,9 +434,6 @@
     <t>acetaldehyde[c] + nad+[c] =&gt; acetate[c] + NADH[c]</t>
   </si>
   <si>
-    <t>YMR170C;YMR169C;YOR374W;YOR374W;YER073W</t>
-  </si>
-  <si>
     <t>Phenylalanine, tyrosine, and tryptophan biosynthesis (aromatic amino acids)</t>
   </si>
   <si>
@@ -476,9 +446,6 @@
     <t>isocitrate[m] =&gt; succinate[m] + Glyoxylate[m]</t>
   </si>
   <si>
-    <t>YER065C;YPR006C</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -512,9 +479,6 @@
     <t>coenzyme A[m] + nad+[m] + pyruvate[m] =&gt; acetyl-CoA[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
-    <t>YER178W;YFL018C;YBR221C</t>
-  </si>
-  <si>
     <t>ACS</t>
   </si>
   <si>
@@ -539,9 +503,6 @@
     <t>ATP[c] + CO2[c] + pyruvate[c] =&gt; ADP[c] + phosphate[c] + oxaloacetate[c]</t>
   </si>
   <si>
-    <t>YGL062W;YBR218C</t>
-  </si>
-  <si>
     <t>TCA</t>
   </si>
   <si>
@@ -575,18 +536,12 @@
     <t>isocitrate[m] + nad+[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
-    <t>YNL037C;YOR136W</t>
-  </si>
-  <si>
     <t>IDPH</t>
   </si>
   <si>
     <t>isocitrate[m] + nadp+[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADPH[m]</t>
   </si>
   <si>
-    <t>YDL066W;YLR174W</t>
-  </si>
-  <si>
     <t>Alpha-ketoglutarate dehydrogenase</t>
   </si>
   <si>
@@ -611,9 +566,6 @@
     <t>FADH2[m] + fumarate[m] =&gt; FAD[m] + succinate[m]</t>
   </si>
   <si>
-    <t>YJR051W;YEL047C</t>
-  </si>
-  <si>
     <t>FUM1</t>
   </si>
   <si>
@@ -641,9 +593,6 @@
     <t>NADH[m] + ubiquinone-9[m] =&gt; nad+[m] + ubiquinols[m]</t>
   </si>
   <si>
-    <t>YML120C;YMR145C</t>
-  </si>
-  <si>
     <t>Oxidative Phosphorylation</t>
   </si>
   <si>
@@ -662,27 +611,15 @@
     <t>FADH2[m] + ubiquinone-9[m] &lt;=&gt; FAD[m] + ubiquinols[m]</t>
   </si>
   <si>
-    <t>YKL141W;YDR178W</t>
-  </si>
-  <si>
     <t>RIP1</t>
   </si>
   <si>
-    <t>YEL024W;YBL045C;YHR001W-A;YPR191W;YFR033C;YDR529C;YJL166W;YGR183C</t>
-  </si>
-  <si>
     <t>COX1</t>
   </si>
   <si>
-    <t>YNL052W;YIL111W;YLR395C;Q0045;Q0250;YGL187C;YHR051W;YGL191W;YLR038C;YMR256C;YDL067C</t>
-  </si>
-  <si>
     <t>ATP1</t>
   </si>
   <si>
-    <t>YBL099W;Q0080;YPL078C;YDR298C;Q0130;Q0085;YJR121W;YKL016C;YDL004W;YDR322C-A;YPL271W;YDR377W;YPR020W;YBR039W;YLR295C;YML081C-A;YOL077W-A;YML042W</t>
-  </si>
-  <si>
     <t>ShuttleX</t>
   </si>
   <si>
@@ -2478,6 +2415,129 @@
   </si>
   <si>
     <t>3.07 ATP[c] + D-fructose 6-phosphate[c] =&gt; 3.07 ADP[c] + 4.07 phosphate[c] + growthMannan[c]</t>
+  </si>
+  <si>
+    <t>YLR446W;YCL040W;YFR053C;YGL253W</t>
+  </si>
+  <si>
+    <t>YMR205C;YGR240C:YMR205C</t>
+  </si>
+  <si>
+    <t>YGR192C;YJL052W;YJR009C</t>
+  </si>
+  <si>
+    <t>YPL281C;YGR254W;YHR174W;YMR323W;YOR393W</t>
+  </si>
+  <si>
+    <t>YAL038W;YOR347C</t>
+  </si>
+  <si>
+    <t>YGR248W;YHR163W</t>
+  </si>
+  <si>
+    <t>YGR087C;YLR044C;YLR134W</t>
+  </si>
+  <si>
+    <t>YBR145W;YOL086C</t>
+  </si>
+  <si>
+    <t>YMR110C;YMR170C;YER073W;YOR374W</t>
+  </si>
+  <si>
+    <t>YBR221C:YER178W:YFL018C:YGR193C:YNL071W</t>
+  </si>
+  <si>
+    <t>YDL166C;YDR226W</t>
+  </si>
+  <si>
+    <t>YBR218C;YGL062W</t>
+  </si>
+  <si>
+    <t>YGR244C:YOR142W</t>
+  </si>
+  <si>
+    <t>YDL085W;YMR145C</t>
+  </si>
+  <si>
+    <t>YDR178W:YJL045W:YKL141W:YLL041C;YDR178W:YKL141W:YKL148C:YLL041C</t>
+  </si>
+  <si>
+    <t>Q0105:YBL045C:YDR529C:YEL024W:YEL039C:YFR033C:YGR183C:YHR001W-A:YJL166W:YOR065W:YPR191W;Q0105:YBL045C:YDR529C:YEL024W:YFR033C:YGR183C:YHR001W-A:YJL166W:YJR048W:YOR065W:YPR191W</t>
+  </si>
+  <si>
+    <t>Q0045:Q0250:Q0275:YDL067C:YEL039C:YGL187C:YGL191W:YHR051W:YIL111W:YLR038C:YLR395C:YMR256C;Q0045:Q0250:Q0275:YDL067C:YEL039C:YGL187C:YGL191W:YHR051W:YLR038C:YLR395C:YMR256C:YNL052W;Q0045:Q0250:Q0275:YDL067C:YGL187C:YGL191W:YHR051W:YIL111W:YJR048W:YLR038C:YLR395C:YMR256C;Q0045:Q0250:Q0275:YDL067C:YGL187C:YGL191W:YHR051W:YJR048W:YLR038C:YLR395C:YMR256C:YNL052W;Q0045:Q0250:Q0275:YDL067C:YHR116W:YDR231C:YGR062C:YJL003W:YPL132W:YLL018C-A</t>
+  </si>
+  <si>
+    <t>Q0080:Q0085:Q0130:YBL099W:YBR039W:YDL004W:YDR298C:YDR322C-A:YDR377W:YJR121W:YKL016C:YLR295C:YML081C-A:YPL078C:YPL271W;Q0080:Q0085:Q0130:YBL099W:YBR039W:YDL004W:YDR298C:YDR377W:YJR121W:YKL016C:YLR295C:YML081C-A:YPL078C:YPL271W:YPR020W;Q0080:Q0085:Q0130:YBL099W:YBR039W:YDL004W:YDR298C:YDR322C-A:YDR377W:YJR121W:YKL016C:YLR295C:YML081C-A:YPL078C:YPL271W:YJL180C:YLR393W:YNL315C:YOL077W-A:YCL005W-A</t>
+  </si>
+  <si>
+    <t>YLR446W</t>
+  </si>
+  <si>
+    <t>YBR145W</t>
+  </si>
+  <si>
+    <t>YMR110C</t>
+  </si>
+  <si>
+    <t>YGR193C</t>
+  </si>
+  <si>
+    <t>YNL071W</t>
+  </si>
+  <si>
+    <t>YDL166C</t>
+  </si>
+  <si>
+    <t>YOR142W</t>
+  </si>
+  <si>
+    <t>YJL045W</t>
+  </si>
+  <si>
+    <t>Q0105</t>
+  </si>
+  <si>
+    <t>YEL039C</t>
+  </si>
+  <si>
+    <t>YOR065W</t>
+  </si>
+  <si>
+    <t>YJR048W</t>
+  </si>
+  <si>
+    <t>Q0275</t>
+  </si>
+  <si>
+    <t>YHR116W</t>
+  </si>
+  <si>
+    <t>YDR231C</t>
+  </si>
+  <si>
+    <t>YGR062C</t>
+  </si>
+  <si>
+    <t>YJL003W</t>
+  </si>
+  <si>
+    <t>YPL132W</t>
+  </si>
+  <si>
+    <t>YLL018C-A</t>
+  </si>
+  <si>
+    <t>YJL180C</t>
+  </si>
+  <si>
+    <t>YLR393W</t>
+  </si>
+  <si>
+    <t>YNL315C</t>
+  </si>
+  <si>
+    <t>YCL005W-A</t>
   </si>
 </sst>
 </file>
@@ -2506,12 +2566,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2526,7 +2598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2534,12 +2606,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2822,1862 +2900,1788 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="5"/>
-    <col min="3" max="3" width="34.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="2" width="8.83203125" style="8"/>
+    <col min="3" max="3" width="34.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2"/>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3"/>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5"/>
+      <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6"/>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7"/>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8"/>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9"/>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10"/>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11"/>
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12"/>
+      <c r="I12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="E13"/>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="K13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14"/>
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>770</v>
+      <c r="D15" s="8" t="s">
+        <v>749</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="I15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="I46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D51" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D52" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="D55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E56" t="s">
+        <v>608</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="I64" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="I65" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="I66" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="I67" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68"/>
+      <c r="I68" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E69"/>
+      <c r="I69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="E70"/>
+      <c r="I70" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E71"/>
+      <c r="I71" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72"/>
+      <c r="I72" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="I73" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74"/>
+      <c r="I74" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E75"/>
+      <c r="I75" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76"/>
+      <c r="I76" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77"/>
+      <c r="I77" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78"/>
+      <c r="I78" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E79"/>
+      <c r="I79" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E80"/>
+      <c r="I80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E81"/>
+      <c r="I81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="E82"/>
+      <c r="I82" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E83"/>
+      <c r="I83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E84"/>
+      <c r="I84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D85" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85"/>
+      <c r="I85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="D86" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86"/>
+      <c r="I86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D87" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E87"/>
+      <c r="I87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D88" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88"/>
+      <c r="I88" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="5" t="s">
+      <c r="D89" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89"/>
+      <c r="I89" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C79" s="5" t="s">
+    </row>
+    <row r="90" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="5" t="s">
+      <c r="C90" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D90" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="5">
+      <c r="E90" s="5"/>
+      <c r="G90" s="8">
         <v>0</v>
       </c>
-      <c r="I90" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>248</v>
+      <c r="I90" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4690,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4711,16 +4715,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -4731,102 +4735,102 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="G3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="C6" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -4838,311 +4842,311 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G12" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="G14" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="F16" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="C17" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C18" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F18" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E19" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -5154,337 +5158,337 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C21" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="G21" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="G22" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="G23" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="H23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G25" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C26" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="F26" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="G26" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E28" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="F28" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="G28" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="E29" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F29" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="G29" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E30" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F30" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="G30" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C31" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="E31" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="G31" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="E32" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F32" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="G32" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="G33" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="H33" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I33" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="E34" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="G34" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C35" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
@@ -5496,521 +5500,521 @@
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="E36" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="G36" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C37" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="F37" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C39" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="E39" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="F39" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="G39" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="E40" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="F40" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="G40" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C41" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="E41" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F41" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="G41" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C42" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="E42" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F42" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="G42" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C43" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="F43" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G43" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C44" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="E44" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C45" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="E45" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="F45" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="G45" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C46" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="F46" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="G46" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="H46" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C47" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="E47" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="F47" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="C48" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="F48" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="G48" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="E49" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F49" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="G49" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C50" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="E50" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F50" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C51" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="E51" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="F51" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="G51" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="C52" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="E52" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="F52" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="G52" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
       </c>
       <c r="I52" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C53" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="E53" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="F53" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="H53" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I53" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="C54" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="E54" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="F54" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="C55" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="E55" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="F55" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="G55" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C56" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="E56" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="F56" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="G56" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="H56" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="C57" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="E57" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="F57" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="G57" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C58" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -6019,18 +6023,18 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -6039,18 +6043,18 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="I59" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C60" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -6062,15 +6066,15 @@
         <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C61" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -6082,15 +6086,15 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C62" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -6102,15 +6106,15 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="C63" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -6122,15 +6126,15 @@
         <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C64" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
@@ -6142,15 +6146,15 @@
         <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C65" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -6162,15 +6166,15 @@
         <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="C66" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -6182,15 +6186,15 @@
         <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C67" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -6202,15 +6206,15 @@
         <v>56</v>
       </c>
       <c r="I67" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="C68" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -6222,15 +6226,15 @@
         <v>56</v>
       </c>
       <c r="I68" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C69" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -6242,15 +6246,15 @@
         <v>56</v>
       </c>
       <c r="I69" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C70" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -6259,18 +6263,18 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I70" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -6279,18 +6283,18 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C72" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
@@ -6299,18 +6303,18 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C73" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
@@ -6319,18 +6323,18 @@
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C74" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
@@ -6342,15 +6346,15 @@
         <v>56</v>
       </c>
       <c r="I74" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="C75" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -6362,107 +6366,107 @@
         <v>56</v>
       </c>
       <c r="I75" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="C76" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="E76" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="F76" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G76" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
       </c>
       <c r="I76" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C77" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="E77" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="F77" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="G77" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
       </c>
       <c r="I77" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="C78" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="E78" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="F78" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="G78" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="H78" t="s">
         <v>56</v>
       </c>
       <c r="I78" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C79" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="E79" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="F79" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G79" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
       </c>
       <c r="I79" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="C80" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -6471,34 +6475,34 @@
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I80" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="1" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
@@ -6529,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -6546,23 +6550,23 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6570,7 +6574,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6580,10 +6584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6599,7 +6603,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -6607,7 +6611,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -6615,7 +6619,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -6623,7 +6627,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -6631,7 +6635,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -6639,7 +6643,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -6647,7 +6651,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
@@ -6655,7 +6659,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -6663,7 +6667,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -6671,7 +6675,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -6679,7 +6683,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -6687,7 +6691,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -6695,7 +6699,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
@@ -6703,7 +6707,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -6711,7 +6715,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -6719,7 +6723,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -6727,7 +6731,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -6735,7 +6739,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -6743,7 +6747,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -6751,7 +6755,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -6759,7 +6763,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -6767,7 +6771,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -6775,7 +6779,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -6783,7 +6787,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -6791,7 +6795,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -6799,7 +6803,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -6807,7 +6811,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
@@ -6815,7 +6819,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -6823,7 +6827,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
@@ -6831,7 +6835,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="E30" t="s">
         <v>56</v>
@@ -6839,7 +6843,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -6847,7 +6851,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
@@ -6855,7 +6859,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -6863,7 +6867,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
         <v>56</v>
@@ -6871,7 +6875,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
@@ -6879,7 +6883,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -6887,7 +6891,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
@@ -6895,7 +6899,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
@@ -6903,7 +6907,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="E39" t="s">
         <v>56</v>
@@ -6911,7 +6915,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="E40" t="s">
         <v>56</v>
@@ -6919,7 +6923,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="E41" t="s">
         <v>56</v>
@@ -6927,7 +6931,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
         <v>56</v>
@@ -6935,7 +6939,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
         <v>56</v>
@@ -6943,7 +6947,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
         <v>56</v>
@@ -6951,7 +6955,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="E45" t="s">
         <v>56</v>
@@ -6959,7 +6963,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="E46" t="s">
         <v>56</v>
@@ -6967,7 +6971,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -6975,7 +6979,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
         <v>56</v>
@@ -6983,7 +6987,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="E49" t="s">
         <v>56</v>
@@ -6991,7 +6995,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -6999,7 +7003,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -7007,7 +7011,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="E52" t="s">
         <v>56</v>
@@ -7015,7 +7019,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
@@ -7023,7 +7027,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -7031,7 +7035,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="E55" t="s">
         <v>56</v>
@@ -7039,7 +7043,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
         <v>56</v>
@@ -7047,7 +7051,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
         <v>56</v>
@@ -7055,7 +7059,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -7063,7 +7067,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="E59" t="s">
         <v>56</v>
@@ -7071,7 +7075,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="E60" t="s">
         <v>56</v>
@@ -7079,7 +7083,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="E61" t="s">
         <v>56</v>
@@ -7087,7 +7091,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="E62" t="s">
         <v>56</v>
@@ -7095,7 +7099,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="E63" t="s">
         <v>56</v>
@@ -7103,7 +7107,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="E64" t="s">
         <v>56</v>
@@ -7111,7 +7115,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="E65" t="s">
         <v>56</v>
@@ -7119,7 +7123,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="E66" t="s">
         <v>56</v>
@@ -7127,7 +7131,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="E67" t="s">
         <v>56</v>
@@ -7135,7 +7139,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="E68" t="s">
         <v>56</v>
@@ -7143,7 +7147,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="E69" t="s">
         <v>56</v>
@@ -7151,7 +7155,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="E70" t="s">
         <v>56</v>
@@ -7159,7 +7163,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="E71" t="s">
         <v>56</v>
@@ -7167,7 +7171,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="E72" t="s">
         <v>56</v>
@@ -7175,7 +7179,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -7183,7 +7187,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="E74" t="s">
         <v>56</v>
@@ -7191,7 +7195,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="E75" t="s">
         <v>56</v>
@@ -7199,7 +7203,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="E76" t="s">
         <v>56</v>
@@ -7207,7 +7211,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
@@ -7215,7 +7219,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="E78" t="s">
         <v>56</v>
@@ -7223,7 +7227,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
         <v>56</v>
@@ -7231,7 +7235,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="E80" t="s">
         <v>56</v>
@@ -7239,7 +7243,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="E81" t="s">
         <v>56</v>
@@ -7247,7 +7251,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="E82" t="s">
         <v>56</v>
@@ -7255,7 +7259,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="E83" t="s">
         <v>56</v>
@@ -7263,7 +7267,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="E84" t="s">
         <v>56</v>
@@ -7271,7 +7275,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="E85" t="s">
         <v>56</v>
@@ -7279,7 +7283,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="E86" t="s">
         <v>56</v>
@@ -7287,7 +7291,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="E87" t="s">
         <v>56</v>
@@ -7295,7 +7299,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="E88" t="s">
         <v>56</v>
@@ -7303,7 +7307,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="E89" t="s">
         <v>56</v>
@@ -7311,7 +7315,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="E90" t="s">
         <v>56</v>
@@ -7319,7 +7323,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="E91" t="s">
         <v>56</v>
@@ -7327,7 +7331,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="E92" t="s">
         <v>56</v>
@@ -7335,7 +7339,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="E93" t="s">
         <v>56</v>
@@ -7343,7 +7347,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="E94" t="s">
         <v>56</v>
@@ -7351,7 +7355,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="E95" t="s">
         <v>56</v>
@@ -7359,7 +7363,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="E96" t="s">
         <v>56</v>
@@ -7367,7 +7371,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
@@ -7375,7 +7379,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="E98" t="s">
         <v>56</v>
@@ -7383,7 +7387,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="E99" t="s">
         <v>56</v>
@@ -7391,7 +7395,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="E100" t="s">
         <v>56</v>
@@ -7399,7 +7403,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="E101" t="s">
         <v>56</v>
@@ -7407,7 +7411,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="E102" t="s">
         <v>56</v>
@@ -7415,7 +7419,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="E103" t="s">
         <v>56</v>
@@ -7423,7 +7427,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="E104" t="s">
         <v>56</v>
@@ -7431,7 +7435,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="E105" t="s">
         <v>56</v>
@@ -7439,7 +7443,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="E106" t="s">
         <v>56</v>
@@ -7447,7 +7451,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="E107" t="s">
         <v>56</v>
@@ -7455,7 +7459,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="E108" t="s">
         <v>56</v>
@@ -7463,7 +7467,7 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="E109" t="s">
         <v>56</v>
@@ -7471,7 +7475,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="E110" t="s">
         <v>56</v>
@@ -7479,7 +7483,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="E111" t="s">
         <v>56</v>
@@ -7487,7 +7491,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -7495,7 +7499,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="E113" t="s">
         <v>56</v>
@@ -7503,7 +7507,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="E114" t="s">
         <v>56</v>
@@ -7511,7 +7515,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="E115" t="s">
         <v>56</v>
@@ -7519,7 +7523,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="E116" t="s">
         <v>56</v>
@@ -7527,7 +7531,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="E117" t="s">
         <v>56</v>
@@ -7535,7 +7539,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="E118" t="s">
         <v>56</v>
@@ -7543,7 +7547,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -7551,7 +7555,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="E120" t="s">
         <v>56</v>
@@ -7583,7 +7587,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="E124" t="s">
         <v>56</v>
@@ -7591,7 +7595,7 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="E125" t="s">
         <v>56</v>
@@ -7599,7 +7603,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="E126" t="s">
         <v>56</v>
@@ -7607,15 +7611,15 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="E128" t="s">
         <v>56</v>
@@ -7623,7 +7627,7 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="E129" t="s">
         <v>56</v>
@@ -7631,9 +7635,193 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="E130" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>815</v>
+      </c>
+      <c r="E131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>816</v>
+      </c>
+      <c r="E132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>817</v>
+      </c>
+      <c r="E133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>818</v>
+      </c>
+      <c r="E134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>819</v>
+      </c>
+      <c r="E135" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>820</v>
+      </c>
+      <c r="E136" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>821</v>
+      </c>
+      <c r="E137" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>822</v>
+      </c>
+      <c r="E138" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>823</v>
+      </c>
+      <c r="E139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>824</v>
+      </c>
+      <c r="E140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>825</v>
+      </c>
+      <c r="E141" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>826</v>
+      </c>
+      <c r="E142" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>827</v>
+      </c>
+      <c r="E143" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>828</v>
+      </c>
+      <c r="E144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>829</v>
+      </c>
+      <c r="E145" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>830</v>
+      </c>
+      <c r="E146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>831</v>
+      </c>
+      <c r="E147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>832</v>
+      </c>
+      <c r="E148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>833</v>
+      </c>
+      <c r="E149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>834</v>
+      </c>
+      <c r="E150" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>835</v>
+      </c>
+      <c r="E151" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>836</v>
+      </c>
+      <c r="E152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>837</v>
+      </c>
+      <c r="E153" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7658,39 +7846,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="D1" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="E1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="F1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="G1" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="H1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="I1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="J1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="K1" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -7699,16 +7887,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="I2" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9390E1C6-D2F7-0043-914E-89A6D16768DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83054DF1-3E29-6644-BCCA-A069A5E0BD67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19640" yWindow="460" windowWidth="18760" windowHeight="23540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="18760" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="803">
   <si>
     <t>#</t>
   </si>
@@ -206,9 +206,6 @@
     <t>UDP-D-galactose[c] &lt;=&gt; UDP-glucose[c]</t>
   </si>
   <si>
-    <t>YBR019</t>
-  </si>
-  <si>
     <t>GAL7b</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>D-galactose 1-phosphate[c] + UDP-glucose[c] &lt;=&gt; UDP-D-galactose[c] + D-glucose 1-phosphate[c]</t>
   </si>
   <si>
-    <t>YBR018</t>
-  </si>
-  <si>
     <t>PGM1_2</t>
   </si>
   <si>
@@ -542,30 +536,6 @@
     <t>isocitrate[m] + nadp+[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADPH[m]</t>
   </si>
   <si>
-    <t>Alpha-ketoglutarate dehydrogenase</t>
-  </si>
-  <si>
-    <t>SDH12</t>
-  </si>
-  <si>
-    <t>Succinate dehydrogenase complex</t>
-  </si>
-  <si>
-    <t>FAD[m] + succinate[m] =&gt; FADH2[m] + fumarate[m]</t>
-  </si>
-  <si>
-    <t>YKL148C;YLL041C</t>
-  </si>
-  <si>
-    <t>FRDS2</t>
-  </si>
-  <si>
-    <t>Fumarate reductase</t>
-  </si>
-  <si>
-    <t>FADH2[m] + fumarate[m] =&gt; FAD[m] + succinate[m]</t>
-  </si>
-  <si>
     <t>FUM1</t>
   </si>
   <si>
@@ -605,12 +575,6 @@
     <t>YDL085W</t>
   </si>
   <si>
-    <t>SDH34</t>
-  </si>
-  <si>
-    <t>FADH2[m] + ubiquinone-9[m] &lt;=&gt; FAD[m] + ubiquinols[m]</t>
-  </si>
-  <si>
     <t>RIP1</t>
   </si>
   <si>
@@ -1013,12 +977,6 @@
     <t>1/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1/f/h18-19,21,23H,11H2</t>
   </si>
   <si>
-    <t>beta-D-fructofuranose 1,6-bisphosphate[c]</t>
-  </si>
-  <si>
-    <t>beta-D-fructofuranose 1,6-bisphosphate</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:28013</t>
   </si>
   <si>
@@ -1031,12 +989,6 @@
     <t>F16P[c]</t>
   </si>
   <si>
-    <t>beta-D-fructofuranose 6-phosphate[c]</t>
-  </si>
-  <si>
-    <t>beta-D-fructofuranose 6-phosphate</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:16084</t>
   </si>
   <si>
@@ -1214,36 +1166,6 @@
     <t>ETH[c]</t>
   </si>
   <si>
-    <t>FAD[m]</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>obo.chebi:CHEBI:16238</t>
-  </si>
-  <si>
-    <t>C27H33N9O15P2</t>
-  </si>
-  <si>
-    <t>1/C27H33N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H,34,42,43)/t14-,15+,16+,19-,20+,21+,26+/m0/s1/f/h34,44,46H,28H2</t>
-  </si>
-  <si>
-    <t>FADH2[m]</t>
-  </si>
-  <si>
-    <t>FADH2</t>
-  </si>
-  <si>
-    <t>obo.chebi:CHEBI:17877</t>
-  </si>
-  <si>
-    <t>C27H35N9O15P2</t>
-  </si>
-  <si>
-    <t>1/C27H35N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,32,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H2,33,34,42,43)/t14-,15+,16+,19-,20+,21+,26+/m0/s1/f/h33-34,44,46H,28H2</t>
-  </si>
-  <si>
     <t>fumarate[m]</t>
   </si>
   <si>
@@ -1790,12 +1712,6 @@
     <t>YCL040W</t>
   </si>
   <si>
-    <t>YCR073W-A</t>
-  </si>
-  <si>
-    <t>YDL021W</t>
-  </si>
-  <si>
     <t>YDL022W</t>
   </si>
   <si>
@@ -1817,9 +1733,6 @@
     <t>YGL253W</t>
   </si>
   <si>
-    <t>YGL256W</t>
-  </si>
-  <si>
     <t>YGR087C</t>
   </si>
   <si>
@@ -1859,9 +1772,6 @@
     <t>YJR009C</t>
   </si>
   <si>
-    <t>YJR051W</t>
-  </si>
-  <si>
     <t>YKL141W</t>
   </si>
   <si>
@@ -1877,24 +1787,12 @@
     <t>YLR153C</t>
   </si>
   <si>
-    <t>YML042W</t>
-  </si>
-  <si>
     <t>YMR205C</t>
   </si>
   <si>
-    <t>YMR303C</t>
-  </si>
-  <si>
     <t>YNR001C</t>
   </si>
   <si>
-    <t>YNR034W</t>
-  </si>
-  <si>
-    <t>YOL056W</t>
-  </si>
-  <si>
     <t>YOL059W</t>
   </si>
   <si>
@@ -1925,9 +1823,6 @@
     <t>YMR170C</t>
   </si>
   <si>
-    <t>YMR169C</t>
-  </si>
-  <si>
     <t>YOR374W</t>
   </si>
   <si>
@@ -1937,9 +1832,6 @@
     <t>YER065C</t>
   </si>
   <si>
-    <t>YPR006C</t>
-  </si>
-  <si>
     <t>YIR031C</t>
   </si>
   <si>
@@ -1958,9 +1850,6 @@
     <t>YLL041C</t>
   </si>
   <si>
-    <t>YEL047C</t>
-  </si>
-  <si>
     <t>YML120C</t>
   </si>
   <si>
@@ -2078,24 +1967,9 @@
     <t>YOL077W-A</t>
   </si>
   <si>
-    <t>YNL037C</t>
-  </si>
-  <si>
-    <t>YOR136W</t>
-  </si>
-  <si>
-    <t>YLR174W</t>
-  </si>
-  <si>
-    <t>YDR148C</t>
-  </si>
-  <si>
     <t>YMR105C</t>
   </si>
   <si>
-    <t>YKL127</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -2369,9 +2243,6 @@
     <t>NADH dehydrogenase, cytosolic/mitochondrial</t>
   </si>
   <si>
-    <t>succinate dehydrogenase (ubiquinone-6)</t>
-  </si>
-  <si>
     <t>ubiquinol:ferricytochrome c reductase</t>
   </si>
   <si>
@@ -2538,13 +2409,37 @@
   </si>
   <si>
     <t>YCL005W-A</t>
+  </si>
+  <si>
+    <t>D-fructose 1,6-bisphosphate[c]</t>
+  </si>
+  <si>
+    <t>D-fructose 1,6-bisphosphate</t>
+  </si>
+  <si>
+    <t>D-fructose 6-phosphate[c]</t>
+  </si>
+  <si>
+    <t>D-fructose 6-phosphate</t>
+  </si>
+  <si>
+    <t>oxoglutarate dehydrogenase</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>Succinate dehydrogenase</t>
+  </si>
+  <si>
+    <t>succinate[m] + ubiquinone-9[m] =&gt; fumarate[m] + ubiquinols[m]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2565,25 +2460,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2598,7 +2489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2606,18 +2497,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2898,1790 +2784,1713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="8"/>
-    <col min="3" max="3" width="34.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="2" width="8.83203125" style="6"/>
+    <col min="3" max="3" width="34.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="66" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3"/>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4"/>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7"/>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8"/>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9"/>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10"/>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E12"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="E13"/>
-      <c r="G13" s="8">
+      <c r="E21" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G88" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="I46" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E56" t="s">
-        <v>608</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E68"/>
-      <c r="I68" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="E69"/>
-      <c r="I69" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="E70"/>
-      <c r="I70" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="E71"/>
-      <c r="I71" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72"/>
-      <c r="I72" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="I73" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="I88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="E74"/>
-      <c r="I74" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="E75"/>
-      <c r="I75" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76"/>
-      <c r="I76" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E77"/>
-      <c r="I77" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78"/>
-      <c r="I78" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="E79"/>
-      <c r="I79" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="E80"/>
-      <c r="I80" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="E81"/>
-      <c r="I81" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E82"/>
-      <c r="I82" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="E83"/>
-      <c r="I83" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="E84"/>
-      <c r="I84" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E85"/>
-      <c r="I85" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E86"/>
-      <c r="I86" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="E87"/>
-      <c r="I87" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88"/>
-      <c r="I88" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89"/>
-      <c r="I89" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="G90" s="8">
-        <v>0</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4692,10 +4501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4715,16 +4524,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -4735,102 +4544,102 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="C6" t="s">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -4842,311 +4651,311 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G12" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="C17" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>329</v>
+        <v>795</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>796</v>
       </c>
       <c r="E18" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G18" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>335</v>
+        <v>797</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>798</v>
       </c>
       <c r="E19" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G19" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -5158,863 +4967,857 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F21" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E24" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G24" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G25" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E26" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F26" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="G26" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E27" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F27" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="G27" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F28" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G28" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G29" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E30" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F30" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G30" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E31" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G31" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E32" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="G32" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
-      </c>
-      <c r="E33" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F33" t="s">
-        <v>404</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="E34" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F34" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G34" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C35" t="s">
-        <v>413</v>
+        <v>396</v>
+      </c>
+      <c r="E35" t="s">
+        <v>397</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E36" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F36" t="s">
-        <v>418</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C37" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E37" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F37" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="G37" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E38" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="G38" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C39" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E39" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F39" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G39" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C40" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F40" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G40" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="E41" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="F41" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="G41" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C42" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="E42" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="F42" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="G42" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I42" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C43" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F43" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G43" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F44" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G44" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I44" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E45" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="F45" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C46" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E46" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F46" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="G46" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I46" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C47" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="E47" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G47" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C48" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E48" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C49" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E49" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C50" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="E50" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="F50" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C51" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E51" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F51" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G51" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I51" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C52" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E52" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F52" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G52" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I52" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="E53" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I53" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C54" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="E54" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F54" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G54" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="H54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I54" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C55" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E55" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F55" t="s">
-        <v>508</v>
+        <v>303</v>
       </c>
       <c r="G55" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I55" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C56" t="s">
-        <v>512</v>
-      </c>
-      <c r="E56" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F56" t="s">
-        <v>514</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I56" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>517</v>
+        <v>682</v>
       </c>
       <c r="C57" t="s">
-        <v>518</v>
-      </c>
-      <c r="E57" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>520</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="I57" t="s">
-        <v>521</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="C58" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -6023,18 +5826,18 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>724</v>
+        <v>501</v>
       </c>
       <c r="C59" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -6043,18 +5846,18 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>722</v>
+        <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>725</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C60" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -6066,15 +5869,15 @@
         <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C61" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -6086,15 +5889,15 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="C62" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -6106,15 +5909,15 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C63" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -6126,15 +5929,15 @@
         <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="C64" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
@@ -6146,15 +5949,15 @@
         <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C65" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -6166,15 +5969,15 @@
         <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="C66" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -6186,15 +5989,15 @@
         <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="C67" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -6206,15 +6009,15 @@
         <v>56</v>
       </c>
       <c r="I67" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C68" t="s">
-        <v>542</v>
+        <v>313</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -6223,18 +6026,18 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -6243,18 +6046,18 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I69" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -6263,18 +6066,18 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I70" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -6283,18 +6086,18 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I71" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="C72" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
@@ -6303,18 +6106,18 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I72" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>550</v>
+        <v>710</v>
       </c>
       <c r="C73" t="s">
-        <v>482</v>
+        <v>709</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
@@ -6323,193 +6126,153 @@
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="I73" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="C74" t="s">
-        <v>464</v>
+        <v>530</v>
+      </c>
+      <c r="E74" t="s">
+        <v>531</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>532</v>
       </c>
       <c r="H74" t="s">
         <v>56</v>
       </c>
       <c r="I74" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>752</v>
+        <v>534</v>
       </c>
       <c r="C75" t="s">
-        <v>751</v>
+        <v>535</v>
+      </c>
+      <c r="E75" t="s">
+        <v>536</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>537</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>538</v>
       </c>
       <c r="H75" t="s">
         <v>56</v>
       </c>
       <c r="I75" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C76" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E76" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F76" t="s">
-        <v>321</v>
+        <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
       </c>
       <c r="I76" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="C77" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="E77" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="F77" t="s">
-        <v>563</v>
+        <v>309</v>
       </c>
       <c r="G77" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
       </c>
       <c r="I77" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C78" t="s">
-        <v>567</v>
-      </c>
-      <c r="E78" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="F78" t="s">
-        <v>563</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>569</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="I78" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>571</v>
-      </c>
-      <c r="C79" t="s">
-        <v>572</v>
-      </c>
-      <c r="E79" t="s">
-        <v>573</v>
-      </c>
-      <c r="F79" t="s">
-        <v>321</v>
-      </c>
-      <c r="G79" t="s">
-        <v>574</v>
-      </c>
-      <c r="H79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I79" t="s">
-        <v>575</v>
+      <c r="B79" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>576</v>
-      </c>
-      <c r="C80" t="s">
-        <v>577</v>
-      </c>
       <c r="F80" t="s">
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6533,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -6550,23 +6313,23 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="C4" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6574,7 +6337,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -6584,10 +6347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A110" activeCellId="1" sqref="A107:XFD108 A110:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6603,7 +6366,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -6611,7 +6374,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -6619,7 +6382,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -6627,7 +6390,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -6635,7 +6398,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -6643,7 +6406,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -6651,7 +6414,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
@@ -6659,7 +6422,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -6667,7 +6430,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -6675,7 +6438,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -6683,7 +6446,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -6691,7 +6454,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -6699,7 +6462,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
@@ -6707,7 +6470,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -6715,7 +6478,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -6723,7 +6486,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -6731,7 +6494,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -6739,7 +6502,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -6747,7 +6510,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -6755,7 +6518,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -6763,7 +6526,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -6771,7 +6534,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -6779,7 +6542,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -6787,7 +6550,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -6795,7 +6558,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -6803,7 +6566,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -6811,7 +6574,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
@@ -6819,7 +6582,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>607</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -6827,7 +6590,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
@@ -6835,7 +6598,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>609</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
         <v>56</v>
@@ -6843,7 +6606,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -6851,7 +6614,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
@@ -6859,7 +6622,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -6867,7 +6630,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
         <v>56</v>
@@ -6875,7 +6638,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>584</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
@@ -6883,7 +6646,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -6891,7 +6654,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
@@ -6899,7 +6662,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
@@ -6907,7 +6670,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>614</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
         <v>56</v>
@@ -6915,7 +6678,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>615</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
         <v>56</v>
@@ -6923,7 +6686,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="E41" t="s">
         <v>56</v>
@@ -6931,7 +6694,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
         <v>56</v>
@@ -6939,7 +6702,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>117</v>
+        <v>588</v>
       </c>
       <c r="E43" t="s">
         <v>56</v>
@@ -6947,7 +6710,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>589</v>
       </c>
       <c r="E44" t="s">
         <v>56</v>
@@ -6955,7 +6718,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="E45" t="s">
         <v>56</v>
@@ -6963,7 +6726,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>618</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>56</v>
@@ -6971,7 +6734,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -6979,7 +6742,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
         <v>56</v>
@@ -6987,7 +6750,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>620</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
         <v>56</v>
@@ -6995,7 +6758,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -7003,7 +6766,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -7011,7 +6774,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="E52" t="s">
         <v>56</v>
@@ -7019,7 +6782,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
@@ -7027,7 +6790,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>108</v>
+        <v>596</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -7035,7 +6798,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="E55" t="s">
         <v>56</v>
@@ -7043,7 +6806,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>133</v>
+        <v>598</v>
       </c>
       <c r="E56" t="s">
         <v>56</v>
@@ -7051,7 +6814,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>182</v>
+        <v>599</v>
       </c>
       <c r="E57" t="s">
         <v>56</v>
@@ -7059,7 +6822,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -7067,7 +6830,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="E59" t="s">
         <v>56</v>
@@ -7075,7 +6838,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="E60" t="s">
         <v>56</v>
@@ -7083,7 +6846,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="E61" t="s">
         <v>56</v>
@@ -7091,7 +6854,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="E62" t="s">
         <v>56</v>
@@ -7099,7 +6862,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="E63" t="s">
         <v>56</v>
@@ -7107,7 +6870,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E64" t="s">
         <v>56</v>
@@ -7115,7 +6878,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="E65" t="s">
         <v>56</v>
@@ -7123,7 +6886,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="E66" t="s">
         <v>56</v>
@@ -7131,7 +6894,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="E67" t="s">
         <v>56</v>
@@ -7139,7 +6902,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>636</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
         <v>56</v>
@@ -7147,7 +6910,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="E69" t="s">
         <v>56</v>
@@ -7155,7 +6918,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="E70" t="s">
         <v>56</v>
@@ -7163,7 +6926,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="E71" t="s">
         <v>56</v>
@@ -7171,7 +6934,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="E72" t="s">
         <v>56</v>
@@ -7179,7 +6942,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -7187,7 +6950,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="E74" t="s">
         <v>56</v>
@@ -7195,7 +6958,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="E75" t="s">
         <v>56</v>
@@ -7203,7 +6966,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="E76" t="s">
         <v>56</v>
@@ -7211,7 +6974,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
@@ -7219,7 +6982,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="E78" t="s">
         <v>56</v>
@@ -7227,7 +6990,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>192</v>
+        <v>620</v>
       </c>
       <c r="E79" t="s">
         <v>56</v>
@@ -7235,7 +6998,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E80" t="s">
         <v>56</v>
@@ -7243,7 +7006,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="E81" t="s">
         <v>56</v>
@@ -7251,7 +7014,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="E82" t="s">
         <v>56</v>
@@ -7259,7 +7022,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="E83" t="s">
         <v>56</v>
@@ -7267,7 +7030,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="E84" t="s">
         <v>56</v>
@@ -7275,7 +7038,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="E85" t="s">
         <v>56</v>
@@ -7283,7 +7046,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="E86" t="s">
         <v>56</v>
@@ -7291,7 +7054,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="E87" t="s">
         <v>56</v>
@@ -7299,7 +7062,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="E88" t="s">
         <v>56</v>
@@ -7307,7 +7070,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="E89" t="s">
         <v>56</v>
@@ -7315,7 +7078,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="E90" t="s">
         <v>56</v>
@@ -7323,7 +7086,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="E91" t="s">
         <v>56</v>
@@ -7331,7 +7094,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="E92" t="s">
         <v>56</v>
@@ -7339,7 +7102,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="E93" t="s">
         <v>56</v>
@@ -7347,7 +7110,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="E94" t="s">
         <v>56</v>
@@ -7355,7 +7118,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="E95" t="s">
         <v>56</v>
@@ -7363,7 +7126,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="E96" t="s">
         <v>56</v>
@@ -7371,7 +7134,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
@@ -7379,7 +7142,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="E98" t="s">
         <v>56</v>
@@ -7387,7 +7150,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="E99" t="s">
         <v>56</v>
@@ -7395,7 +7158,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="E100" t="s">
         <v>56</v>
@@ -7403,7 +7166,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="E101" t="s">
         <v>56</v>
@@ -7411,7 +7174,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="E102" t="s">
         <v>56</v>
@@ -7419,7 +7182,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="E103" t="s">
         <v>56</v>
@@ -7427,7 +7190,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="E104" t="s">
         <v>56</v>
@@ -7435,7 +7198,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="E105" t="s">
         <v>56</v>
@@ -7443,7 +7206,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>673</v>
+        <v>55</v>
       </c>
       <c r="E106" t="s">
         <v>56</v>
@@ -7451,15 +7214,15 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="E107" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>675</v>
+      <c r="B108" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="E108" t="s">
         <v>56</v>
@@ -7467,15 +7230,15 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E109" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="E110" t="s">
         <v>56</v>
@@ -7483,7 +7246,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
       <c r="E111" t="s">
         <v>56</v>
@@ -7491,7 +7254,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -7499,7 +7262,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="E113" t="s">
         <v>56</v>
@@ -7507,7 +7270,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="E114" t="s">
         <v>56</v>
@@ -7515,7 +7278,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>682</v>
+        <v>777</v>
       </c>
       <c r="E115" t="s">
         <v>56</v>
@@ -7523,7 +7286,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>683</v>
+        <v>778</v>
       </c>
       <c r="E116" t="s">
         <v>56</v>
@@ -7531,7 +7294,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="E117" t="s">
         <v>56</v>
@@ -7539,7 +7302,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="E118" t="s">
         <v>56</v>
@@ -7547,7 +7310,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>686</v>
+        <v>781</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -7555,7 +7318,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="E120" t="s">
         <v>56</v>
@@ -7563,7 +7326,7 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>55</v>
+        <v>783</v>
       </c>
       <c r="E121" t="s">
         <v>56</v>
@@ -7571,7 +7334,7 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>60</v>
+        <v>784</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
@@ -7579,7 +7342,7 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>64</v>
+        <v>785</v>
       </c>
       <c r="E123" t="s">
         <v>56</v>
@@ -7587,7 +7350,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>688</v>
+        <v>786</v>
       </c>
       <c r="E124" t="s">
         <v>56</v>
@@ -7595,15 +7358,15 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>689</v>
+        <v>787</v>
       </c>
       <c r="E125" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>712</v>
+      <c r="B126" t="s">
+        <v>788</v>
       </c>
       <c r="E126" t="s">
         <v>56</v>
@@ -7611,15 +7374,15 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>721</v>
+        <v>789</v>
       </c>
       <c r="E127" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="E128" t="s">
         <v>56</v>
@@ -7627,7 +7390,7 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
       <c r="E129" t="s">
         <v>56</v>
@@ -7635,7 +7398,7 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="E130" t="s">
         <v>56</v>
@@ -7643,7 +7406,7 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="E131" t="s">
         <v>56</v>
@@ -7651,7 +7414,7 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="E132" t="s">
         <v>56</v>
@@ -7659,7 +7422,7 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>817</v>
+        <v>701</v>
       </c>
       <c r="E133" t="s">
         <v>56</v>
@@ -7667,7 +7430,7 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>818</v>
+        <v>702</v>
       </c>
       <c r="E134" t="s">
         <v>56</v>
@@ -7675,153 +7438,9 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>819</v>
+        <v>704</v>
       </c>
       <c r="E135" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>820</v>
-      </c>
-      <c r="E136" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>821</v>
-      </c>
-      <c r="E137" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>822</v>
-      </c>
-      <c r="E138" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>823</v>
-      </c>
-      <c r="E139" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>824</v>
-      </c>
-      <c r="E140" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>825</v>
-      </c>
-      <c r="E141" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>826</v>
-      </c>
-      <c r="E142" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>827</v>
-      </c>
-      <c r="E143" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>828</v>
-      </c>
-      <c r="E144" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>829</v>
-      </c>
-      <c r="E145" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>830</v>
-      </c>
-      <c r="E146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>831</v>
-      </c>
-      <c r="E147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>832</v>
-      </c>
-      <c r="E148" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>833</v>
-      </c>
-      <c r="E149" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>834</v>
-      </c>
-      <c r="E150" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>835</v>
-      </c>
-      <c r="E151" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>836</v>
-      </c>
-      <c r="E152" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>837</v>
-      </c>
-      <c r="E153" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7846,39 +7465,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="D1" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="E1" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="F1" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="G1" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="H1" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="I1" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="J1" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="K1" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -7887,16 +7506,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="G2" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="H2" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="I2" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83054DF1-3E29-6644-BCCA-A069A5E0BD67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB86E4E4-9530-C24C-90EB-542226CCD632}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="18760" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="18760" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="GENES" sheetId="4" r:id="rId4"/>
     <sheet name="MODEL" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="942">
   <si>
     <t>#</t>
   </si>
@@ -263,9 +264,6 @@
     <t>TPI</t>
   </si>
   <si>
-    <t>glycerone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
-  </si>
-  <si>
     <t>YDR050C</t>
   </si>
   <si>
@@ -287,18 +285,12 @@
     <t>Phosphoglycerate mutase</t>
   </si>
   <si>
-    <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glycerate[c]</t>
-  </si>
-  <si>
     <t>ENO</t>
   </si>
   <si>
     <t>Enolase</t>
   </si>
   <si>
-    <t>2-phospho-D-glycerate[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
-  </si>
-  <si>
     <t>CDC</t>
   </si>
   <si>
@@ -380,9 +372,6 @@
     <t>DAR</t>
   </si>
   <si>
-    <t>glycerone phosphate[c] + NADH[c] =&gt; glycerol-3-phosphate[c] + nad+[c]</t>
-  </si>
-  <si>
     <t>YDL022W;YOL059W</t>
   </si>
   <si>
@@ -524,9 +513,6 @@
     <t>IDH</t>
   </si>
   <si>
-    <t>Isocitrate dehydrogenase</t>
-  </si>
-  <si>
     <t>isocitrate[m] + nad+[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
@@ -560,18 +546,12 @@
     <t>NDI1</t>
   </si>
   <si>
-    <t>NADH[m] + ubiquinone-9[m] =&gt; nad+[m] + ubiquinols[m]</t>
-  </si>
-  <si>
     <t>Oxidative Phosphorylation</t>
   </si>
   <si>
     <t>NDE2</t>
   </si>
   <si>
-    <t>NADH[c] + ubiquinone-9[m] =&gt; nad+[c] + ubiquinols[m]</t>
-  </si>
-  <si>
     <t>YDL085W</t>
   </si>
   <si>
@@ -779,12 +759,6 @@
     <t>AKG[m]</t>
   </si>
   <si>
-    <t>2-phospho-D-glycerate[c]</t>
-  </si>
-  <si>
-    <t>2-phospho-D-glycerate</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:17835</t>
   </si>
   <si>
@@ -1211,12 +1185,6 @@
     <t>GLY[c]</t>
   </si>
   <si>
-    <t>glycerone phosphate[c]</t>
-  </si>
-  <si>
-    <t>glycerone phosphate</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:16108</t>
   </si>
   <si>
@@ -1463,12 +1431,6 @@
     <t>Ubiquinone-9[m]</t>
   </si>
   <si>
-    <t>ubiquinols[m]</t>
-  </si>
-  <si>
-    <t>ubiquinols</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:17976</t>
   </si>
   <si>
@@ -2078,9 +2040,6 @@
     <t>H[i]</t>
   </si>
   <si>
-    <t>ubiquinols[m] + 2 ferricytochrome c[m] + 1.5 h+[m] =&gt; ubiquinone-9[m] + 2 ferrocytochrome c[m] + 1.5 h+[i]</t>
-  </si>
-  <si>
     <t>0.25 O2[c] + ferrocytochrome c[m] + 1.5 h+[m] =&gt; ferricytochrome c[m] + 1.5 h+[i]</t>
   </si>
   <si>
@@ -2096,15 +2055,6 @@
     <t>h+[i] =&gt; h+[m]</t>
   </si>
   <si>
-    <t>1,3bis-phosphoglycerate[c]</t>
-  </si>
-  <si>
-    <t>D-glyceraldehyde 3-phosphate[c] + nad+[c] + phosphate[c] &lt;=&gt; 1,3bis-phosphoglycerate[c] + NADH[c]</t>
-  </si>
-  <si>
-    <t>1,3bis-phosphoglycerate[c] + ADP[c] &lt;=&gt; 3-phospho-D-glycerate[c] + ATP[c]</t>
-  </si>
-  <si>
     <t>ATP[c] + AMP[c] &lt;=&gt; 2 ADP[c]</t>
   </si>
   <si>
@@ -2114,21 +2064,6 @@
     <t>succinyl-CoA[m]</t>
   </si>
   <si>
-    <t>0.0361 2-oxoglutarate[m] + 0.0864 1,3bis-phosphoglycerate[c] + 0.429 acetyl-CoA[m] + 5.23 ATP[c] + 0.0795 D-erythrose 4-phosphate[c] + 0.031 D-glyceraldehyde 3-phosphate[c] + 0.0292 D-ribose 5-phosphate[c] + 0.314 nad+[m] + 1.28 NADPH[c] + 0.262 NADPH[m] + 0.0298 O2[c] + 0.233 phosphoenolpyruvate[c] + 0.434 pyruvate[m] + 0.418 oxaloacetate[c] =&gt; 5.23 ADP[c] + 0.652 CO2[c] + 0.429 coenzyme A[m] + 0.314 NADH[m] + 1.28 nadp+[c] + 0.262 nadp+[m] + 5.78 phosphate[c] + growthProteinAlt[c]</t>
-  </si>
-  <si>
-    <t>0.0341 2-oxoglutarate[m] + 0.00833 1,3bis-phosphoglycerate[c] + 0.447 acetyl-CoA[m] + 5.02 ATP[c] + 0.0717 D-erythrose 4-phosphate[c] + 0.0755 D-glyceraldehyde 3-phosphate[c] + 0.0257 D-ribose 5-phosphate[c] + 0.356 nad+[m] + 1.2 NADPH[c] + 0.248 NADPH[m] + 0.0291 O2[c] + 0.26 phosphoenolpyruvate[c] + 0.409 pyruvate[m] + 0.416 oxaloacetate[c] =&gt; 5.02 ADP[c] + 0.633 CO2[c] + 0.447 coenzyme A[m] + 0.356 NADH[m] + 1.2 nadp+[c] + 0.248 nadp+[m] + 5.47 phosphate[c] + growthProtein[c]</t>
-  </si>
-  <si>
-    <t>0.702 1,3bis-phosphoglycerate[c] + 0.234 6-phospho-D-gluconate[c] + 14.6 ATP[c] + 0.766 D-ribose 5-phosphate[c] + 1.87 nad+[c] + 0.766 NADPH[c] + 0.266 O2[c] + 0.532 oxaloacetate[c] =&gt; 14.6 ADP[c] + 1.87 NADH[c] + 0.766 nadp+[c] + 16 phosphate[c] + growthRNA[c]</t>
-  </si>
-  <si>
-    <t>0.9 1,3bis-phosphoglycerate[c] + 0.1 6-phospho-D-gluconate[c] + 5.55e-17 acetyl-CoA[c] + 14.6 ATP[c] + 0.9 D-ribose 5-phosphate[c] + 2.3 nad+[c] + 2.4 NADPH[c] + 0.25 O2[c] + 0.5 oxaloacetate[c] =&gt; 14.6 ADP[c] + 2.3 NADH[c] + 2.4 nadp+[c] + 16.4 phosphate[c] + growthDNA[c]</t>
-  </si>
-  <si>
-    <t>0.804 1,3bis-phosphoglycerate[c] + 18.4 acetyl-CoA[c] + 0.197 alpha-D-glucose 6-phosphate[c] + 19.6 ATP[c] + 0.918 glycerone phosphate[c] + 0.316 nad+[c] + 29.9 NADPH[c] + 0.00208 NADPH[m] + 0.572 O2[c] + 0.00416 pyruvate[m] + 0.00208 oxaloacetate[c] =&gt; 19.6 ADP[c] + 1.4 CO2[c] + 18.4 coenzyme A[c] + 0.316 NADH[c] + 29.9 nadp+[c] + 0.00208 nadp+[m] + 21.6 phosphate[c] + growthLipid[c]</t>
-  </si>
-  <si>
     <t>YBR019C</t>
   </si>
   <si>
@@ -2141,9 +2076,6 @@
     <t>YKL127W</t>
   </si>
   <si>
-    <t>1,3-bis-phosphoglycerate</t>
-  </si>
-  <si>
     <t xml:space="preserve"> =&gt; galactose[c]</t>
   </si>
   <si>
@@ -2228,9 +2160,6 @@
     <t>citrate synthase</t>
   </si>
   <si>
-    <t>isocitrate dehydrogenase</t>
-  </si>
-  <si>
     <t>succinate-CoA ligase (ADP-forming)</t>
   </si>
   <si>
@@ -2276,9 +2205,6 @@
     <t>D-fructose 1,6-bisphosphate[c] =&gt; D-fructose 6-phosphate[c] + phosphate[c]</t>
   </si>
   <si>
-    <t>D-fructose 1,6-bisphosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + glycerone phosphate[c]</t>
-  </si>
-  <si>
     <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; D-fructose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
   </si>
   <si>
@@ -2423,6 +2349,102 @@
     <t>D-fructose 6-phosphate</t>
   </si>
   <si>
+    <t>rxnKEGGID</t>
+  </si>
+  <si>
+    <t>R01092</t>
+  </si>
+  <si>
+    <t>R00502</t>
+  </si>
+  <si>
+    <t>R08639</t>
+  </si>
+  <si>
+    <t>R00299</t>
+  </si>
+  <si>
+    <t>R00771</t>
+  </si>
+  <si>
+    <t>R00756</t>
+  </si>
+  <si>
+    <t>R00762</t>
+  </si>
+  <si>
+    <t>R01512</t>
+  </si>
+  <si>
+    <t>R01518</t>
+  </si>
+  <si>
+    <t>R00658</t>
+  </si>
+  <si>
+    <t>R00200</t>
+  </si>
+  <si>
+    <t>R00835</t>
+  </si>
+  <si>
+    <t>R02035</t>
+  </si>
+  <si>
+    <t>R01528</t>
+  </si>
+  <si>
+    <t>R01529</t>
+  </si>
+  <si>
+    <t>R00842</t>
+  </si>
+  <si>
+    <t>R00841</t>
+  </si>
+  <si>
+    <t>R00224</t>
+  </si>
+  <si>
+    <t>R00754</t>
+  </si>
+  <si>
+    <t>R00711</t>
+  </si>
+  <si>
+    <t>R00479</t>
+  </si>
+  <si>
+    <t>R00472</t>
+  </si>
+  <si>
+    <t>R00209</t>
+  </si>
+  <si>
+    <t>R00235</t>
+  </si>
+  <si>
+    <t>R00127</t>
+  </si>
+  <si>
+    <t>R00341</t>
+  </si>
+  <si>
+    <t>R00344</t>
+  </si>
+  <si>
+    <t>R00405</t>
+  </si>
+  <si>
+    <t>R01082</t>
+  </si>
+  <si>
+    <t>R00342</t>
+  </si>
+  <si>
+    <t>R00081</t>
+  </si>
+  <si>
     <t>oxoglutarate dehydrogenase</t>
   </si>
   <si>
@@ -2432,7 +2454,403 @@
     <t>Succinate dehydrogenase</t>
   </si>
   <si>
-    <t>succinate[m] + ubiquinone-9[m] =&gt; fumarate[m] + ubiquinols[m]</t>
+    <t>R01900</t>
+  </si>
+  <si>
+    <t>Isocitrate dehydrogenase (NAD+)</t>
+  </si>
+  <si>
+    <t>isocitrate dehydrogenase (NADP)</t>
+  </si>
+  <si>
+    <t>R00709</t>
+  </si>
+  <si>
+    <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glyceric acid[c]</t>
+  </si>
+  <si>
+    <t>2-phospho-D-glyceric acid[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
+  </si>
+  <si>
+    <t>2-phospho-D-glyceric acid[c]</t>
+  </si>
+  <si>
+    <t>2-phospho-D-glyceric acid</t>
+  </si>
+  <si>
+    <t>D-glyceraldehyde 3-phosphate[c] + nad+[c] + phosphate[c] &lt;=&gt; 1,3-bisphospho-D-glycerate[c] + NADH[c]</t>
+  </si>
+  <si>
+    <t>1,3-bisphospho-D-glycerate[c] + ADP[c] &lt;=&gt; 3-phospho-D-glycerate[c] + ATP[c]</t>
+  </si>
+  <si>
+    <t>0.0361 2-oxoglutarate[m] + 0.0864 1,3-bisphospho-D-glycerate[c] + 0.429 acetyl-CoA[m] + 5.23 ATP[c] + 0.0795 D-erythrose 4-phosphate[c] + 0.031 D-glyceraldehyde 3-phosphate[c] + 0.0292 D-ribose 5-phosphate[c] + 0.314 nad+[m] + 1.28 NADPH[c] + 0.262 NADPH[m] + 0.0298 O2[c] + 0.233 phosphoenolpyruvate[c] + 0.434 pyruvate[m] + 0.418 oxaloacetate[c] =&gt; 5.23 ADP[c] + 0.652 CO2[c] + 0.429 coenzyme A[m] + 0.314 NADH[m] + 1.28 nadp+[c] + 0.262 nadp+[m] + 5.78 phosphate[c] + growthProteinAlt[c]</t>
+  </si>
+  <si>
+    <t>0.0341 2-oxoglutarate[m] + 0.00833 1,3-bisphospho-D-glycerate[c] + 0.447 acetyl-CoA[m] + 5.02 ATP[c] + 0.0717 D-erythrose 4-phosphate[c] + 0.0755 D-glyceraldehyde 3-phosphate[c] + 0.0257 D-ribose 5-phosphate[c] + 0.356 nad+[m] + 1.2 NADPH[c] + 0.248 NADPH[m] + 0.0291 O2[c] + 0.26 phosphoenolpyruvate[c] + 0.409 pyruvate[m] + 0.416 oxaloacetate[c] =&gt; 5.02 ADP[c] + 0.633 CO2[c] + 0.447 coenzyme A[m] + 0.356 NADH[m] + 1.2 nadp+[c] + 0.248 nadp+[m] + 5.47 phosphate[c] + growthProtein[c]</t>
+  </si>
+  <si>
+    <t>0.702 1,3-bisphospho-D-glycerate[c] + 0.234 6-phospho-D-gluconate[c] + 14.6 ATP[c] + 0.766 D-ribose 5-phosphate[c] + 1.87 nad+[c] + 0.766 NADPH[c] + 0.266 O2[c] + 0.532 oxaloacetate[c] =&gt; 14.6 ADP[c] + 1.87 NADH[c] + 0.766 nadp+[c] + 16 phosphate[c] + growthRNA[c]</t>
+  </si>
+  <si>
+    <t>0.9 1,3-bisphospho-D-glycerate[c] + 0.1 6-phospho-D-gluconate[c] + 5.55e-17 acetyl-CoA[c] + 14.6 ATP[c] + 0.9 D-ribose 5-phosphate[c] + 2.3 nad+[c] + 2.4 NADPH[c] + 0.25 O2[c] + 0.5 oxaloacetate[c] =&gt; 14.6 ADP[c] + 2.3 NADH[c] + 2.4 nadp+[c] + 16.4 phosphate[c] + growthDNA[c]</t>
+  </si>
+  <si>
+    <t>1,3-bisphospho-D-glycerate[c]</t>
+  </si>
+  <si>
+    <t>1,3-bisphospho-D-glycerate</t>
+  </si>
+  <si>
+    <t>D-fructose 1,6-bisphosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + dihydroxyacetone phosphate[c]</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate[c] + NADH[c] =&gt; glycerol-3-phosphate[c] + nad+[c]</t>
+  </si>
+  <si>
+    <t>0.804 1,3-bisphospho-D-glycerate[c] + 18.4 acetyl-CoA[c] + 0.197 alpha-D-glucose 6-phosphate[c] + 19.6 ATP[c] + 0.918 dihydroxyacetone phosphate[c] + 0.316 nad+[c] + 29.9 NADPH[c] + 0.00208 NADPH[m] + 0.572 O2[c] + 0.00416 pyruvate[m] + 0.00208 oxaloacetate[c] =&gt; 19.6 ADP[c] + 1.4 CO2[c] + 18.4 coenzyme A[c] + 0.316 NADH[c] + 29.9 nadp+[c] + 0.00208 nadp+[m] + 21.6 phosphate[c] + growthLipid[c]</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate[c]</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate</t>
+  </si>
+  <si>
+    <t>succinate[m] + ubiquinone-9[m] =&gt; fumarate[m] + ubiquinol[m]</t>
+  </si>
+  <si>
+    <t>NADH[m] + ubiquinone-9[m] =&gt; nad+[m] + ubiquinol[m]</t>
+  </si>
+  <si>
+    <t>NADH[c] + ubiquinone-9[m] =&gt; nad+[c] + ubiquinol[m]</t>
+  </si>
+  <si>
+    <t>ubiquinol[m] + 2 ferricytochrome c[m] + 1.5 h+[m] =&gt; ubiquinone-9[m] + 2 ferrocytochrome c[m] + 1.5 h+[i]</t>
+  </si>
+  <si>
+    <t>ubiquinol[m]</t>
+  </si>
+  <si>
+    <t>ubiquinol</t>
+  </si>
+  <si>
+    <t>C00149</t>
+  </si>
+  <si>
+    <t>C00026</t>
+  </si>
+  <si>
+    <t>C00631</t>
+  </si>
+  <si>
+    <t>C00197</t>
+  </si>
+  <si>
+    <t>C00236</t>
+  </si>
+  <si>
+    <t>C01236</t>
+  </si>
+  <si>
+    <t>C00345</t>
+  </si>
+  <si>
+    <t>C00084</t>
+  </si>
+  <si>
+    <t>C00033</t>
+  </si>
+  <si>
+    <t>C00024</t>
+  </si>
+  <si>
+    <t>C00008</t>
+  </si>
+  <si>
+    <t>C00031</t>
+  </si>
+  <si>
+    <t>C00092</t>
+  </si>
+  <si>
+    <t>C00002</t>
+  </si>
+  <si>
+    <t>C00020</t>
+  </si>
+  <si>
+    <t>C00354</t>
+  </si>
+  <si>
+    <t>C00085</t>
+  </si>
+  <si>
+    <t>C00158</t>
+  </si>
+  <si>
+    <t>C00011</t>
+  </si>
+  <si>
+    <t>C00010</t>
+  </si>
+  <si>
+    <t>C00279</t>
+  </si>
+  <si>
+    <t>C00661</t>
+  </si>
+  <si>
+    <t>C03736</t>
+  </si>
+  <si>
+    <t>C00199</t>
+  </si>
+  <si>
+    <t>C00231</t>
+  </si>
+  <si>
+    <t>C00469</t>
+  </si>
+  <si>
+    <t>C00122</t>
+  </si>
+  <si>
+    <t>C00093</t>
+  </si>
+  <si>
+    <t>C00116</t>
+  </si>
+  <si>
+    <t>C00111</t>
+  </si>
+  <si>
+    <t>C00311</t>
+  </si>
+  <si>
+    <t>C00003</t>
+  </si>
+  <si>
+    <t>C00004</t>
+  </si>
+  <si>
+    <t>C00006</t>
+  </si>
+  <si>
+    <t>C00005</t>
+  </si>
+  <si>
+    <t>C00007</t>
+  </si>
+  <si>
+    <t>C00036</t>
+  </si>
+  <si>
+    <t>C00009</t>
+  </si>
+  <si>
+    <t>C00074</t>
+  </si>
+  <si>
+    <t>C00022</t>
+  </si>
+  <si>
+    <t>C05382</t>
+  </si>
+  <si>
+    <t>C00042</t>
+  </si>
+  <si>
+    <t>C17568</t>
+  </si>
+  <si>
+    <t>C00390</t>
+  </si>
+  <si>
+    <t>C00125</t>
+  </si>
+  <si>
+    <t>C00126</t>
+  </si>
+  <si>
+    <t>C00080</t>
+  </si>
+  <si>
+    <t>C00124</t>
+  </si>
+  <si>
+    <t>C00446</t>
+  </si>
+  <si>
+    <t>C00052</t>
+  </si>
+  <si>
+    <t>C00029</t>
+  </si>
+  <si>
+    <t>C00103</t>
+  </si>
+  <si>
+    <t>C00048</t>
+  </si>
+  <si>
+    <t>C00091</t>
+  </si>
+  <si>
+    <t>metKEGGID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00124 =&gt; C00008  + C00446  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00052 &lt;=&gt; C00029  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00446 + C00029 &lt;=&gt; C00052  + C00103  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00103 &lt;=&gt; C00092  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00031 + C00002 =&gt; C00008  + C00092  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00092 &lt;=&gt; C00085  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00085 =&gt; C00008  + C00354  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00354 =&gt; C00085  + C00009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00354 &lt;=&gt; C00661  + C00111  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00111 &lt;=&gt; C00661  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00661 + C00003 + C00009 &lt;=&gt; C00236  + C00004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00236 + C00008 &lt;=&gt; C00197  + C00002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00197 &lt;=&gt; C00631  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00631 &lt;=&gt; C00074  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00008 + C00074 =&gt; C00002  + C00022  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00092 + C00006 =&gt; C01236  + C00005  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01236 =&gt; C00345  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00345 + C00006 =&gt; C00011  + C00199  + C00005  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00199 &lt;=&gt; C03736  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00199 &lt;=&gt; C00231  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03736 + C00231 &lt;=&gt; C00661  + C05382  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00661 + C05382 &lt;=&gt; C00085  + C00279  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00279 + C00231 &lt;=&gt; C00085  + C00661  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00111 + C00004 =&gt; C00093  + C00003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00093 =&gt; C00116  + C00009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00022 =&gt; C00084  + C00011  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00084 + C00004 &lt;=&gt; C00469  + C00003  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00084 + C00006 =&gt; C00033  + C00005  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00084 + C00003 =&gt; C00033  + C00004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00311 =&gt; C00042  + C00048  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00024 + C00048 =&gt; C00149  + C00010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00010 + C00003 + C00022 =&gt; C00024  + C00011  + C00004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00033 + C00002 + C00010 =&gt; C00024  + C00020  + C00009  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00020 &lt;=&gt; C00008  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00036 =&gt; C00008  + C00011  + C00074  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00011 + C00022 =&gt; C00008  + C00009  + C00036  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00024 + C00036 =&gt; C00158  + C00010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00158 &lt;=&gt; C00311  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00311 + C00003 =&gt; C00026  + C00011  + C00004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00311 + C00006 =&gt; C00026  + C00011  + C00005  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00026 + C00010 + C00003 =&gt; C00011  + C00004  + C00091  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00008 + C00009 + C00091 =&gt; C00010  + C00042  + C00002  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00042 + C17568 =&gt; C00122  + C00390  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00122 &lt;=&gt; C00149  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00149 + C00003 &lt;=&gt; C00004  + C00036  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00004 + C17568 =&gt; C00003  + C00390  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00390 + C00125 + C00080 =&gt; C17568  + C00126  + C00080  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00007 + C00126 + C00080 =&gt; C00125  + C00080  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00080 + C00008 + C00009 =&gt; C00080  + C00002  </t>
+  </si>
+  <si>
+    <t>KEGG EQUATION</t>
   </si>
 </sst>
 </file>
@@ -2784,22 +3202,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="6"/>
     <col min="3" max="3" width="34.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="66" style="6" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="6"/>
+    <col min="4" max="5" width="66" style="6" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2813,31 +3231,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2847,14 +3271,14 @@
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2864,17 +3288,17 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
@@ -2884,17 +3308,17 @@
       <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -2904,14 +3328,14 @@
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
@@ -2921,14 +3345,14 @@
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
@@ -2938,14 +3362,14 @@
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
@@ -2955,17 +3379,17 @@
       <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
@@ -2975,17 +3399,17 @@
       <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
@@ -2995,17 +3419,17 @@
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3015,14 +3439,14 @@
       <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
@@ -3032,14 +3456,14 @@
       <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
@@ -3047,19 +3471,19 @@
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="G13" s="6">
+        <v>683</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
@@ -3069,17 +3493,17 @@
       <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
@@ -3087,39 +3511,48 @@
         <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
@@ -3130,56 +3563,74 @@
         <v>62</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>68</v>
       </c>
@@ -3187,19 +3638,25 @@
         <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
@@ -3207,39 +3664,51 @@
         <v>72</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>75</v>
       </c>
@@ -3247,1250 +3716,1457 @@
         <v>76</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="J24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="C25" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="N26" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="N27" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="D28" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="N28" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="E29" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+      <c r="N29" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="J30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="N30" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
+      <c r="E31" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E32" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
+      <c r="J32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
+      <c r="J33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C34" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
+      <c r="J34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
+      <c r="J35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
+      <c r="J36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="C38" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+      <c r="J38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
+      <c r="N38" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C39" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="J39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
+      <c r="C41" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
+      <c r="E42" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="J42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="s">
+      <c r="C43" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="N43" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="E44" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
+      <c r="L44" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="N44" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="C45" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="I44" s="6" t="s">
+      <c r="E45" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="J45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="J46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="6" t="s">
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E47" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="6" t="s">
+      <c r="C48" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="F49" s="8"/>
+        <v>925</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>739</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="8" t="s">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="6" t="s">
+      <c r="E64" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="N64" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K61" s="6" t="s">
+      <c r="C65" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="6" t="s">
+      <c r="J66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="D67" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="6" t="s">
+      <c r="J68" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="D74" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="6" t="s">
+      <c r="D75" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
+      <c r="J76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="D77" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="D78" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L78" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="6" t="s">
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="6" t="s">
+      <c r="D79" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="6" t="s">
+      <c r="D80" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K78" s="6" t="s">
+      <c r="D81" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D82" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="6" t="s">
+      <c r="C83" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="J83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="6" t="s">
+      <c r="C84" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="J84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
+      <c r="C85" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C86" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="6" t="s">
+      <c r="J86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="C87" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="6" t="s">
+      <c r="J87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="H88" s="6">
         <v>0</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>215</v>
+      <c r="J88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4501,10 +5177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4513,7 +5189,7 @@
     <col min="3" max="3" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4524,16 +5200,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -4541,105 +5217,120 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
         <v>239</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>240</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>241</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>242</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
         <v>243</v>
       </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="F4" t="s">
         <v>245</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G4" t="s">
         <v>246</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>247</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>248</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C5" t="s">
         <v>249</v>
       </c>
-      <c r="H3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="F5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" t="s">
         <v>251</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
         <v>252</v>
       </c>
-      <c r="E4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>690</v>
+        <v>823</v>
       </c>
       <c r="C6" t="s">
-        <v>705</v>
+        <v>824</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -4651,311 +5342,353 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="F8" t="s">
         <v>263</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G8" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
         <v>265</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C9" t="s">
         <v>267</v>
       </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="E9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="F9" t="s">
         <v>269</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G9" t="s">
         <v>270</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
         <v>271</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J9" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>272</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C10" t="s">
         <v>273</v>
       </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="F10" t="s">
         <v>275</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G10" t="s">
         <v>276</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
         <v>277</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J10" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>278</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C11" t="s">
         <v>279</v>
       </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="E11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="F11" t="s">
         <v>281</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G11" t="s">
         <v>282</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
         <v>283</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>284</v>
       </c>
-      <c r="G10" t="s">
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
         <v>285</v>
       </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>287</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E13" t="s">
         <v>288</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F13" t="s">
         <v>289</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G13" t="s">
         <v>290</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>291</v>
       </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="C14" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="E14" t="s">
         <v>293</v>
       </c>
-      <c r="C12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F14" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="G14" t="s">
         <v>295</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
         <v>296</v>
       </c>
-      <c r="E13" t="s">
+      <c r="J14" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>297</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C15" t="s">
         <v>298</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E15" t="s">
         <v>299</v>
       </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="F15" t="s">
         <v>300</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G15" t="s">
         <v>301</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
         <v>302</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J15" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>303</v>
       </c>
-      <c r="G14" t="s">
+      <c r="C16" t="s">
         <v>304</v>
       </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="E16" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="F16" t="s">
         <v>306</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G16" t="s">
         <v>307</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>303</v>
+      </c>
+      <c r="J16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>652</v>
+      </c>
+      <c r="C17" t="s">
+        <v>651</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J17" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C18" t="s">
+        <v>771</v>
+      </c>
+      <c r="E18" t="s">
         <v>308</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>309</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G18" t="s">
         <v>310</v>
       </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="J18" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E19" t="s">
         <v>312</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F19" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" t="s">
         <v>313</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
         <v>314</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>315</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C20" t="s">
         <v>316</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>665</v>
-      </c>
-      <c r="C17" t="s">
-        <v>664</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>795</v>
-      </c>
-      <c r="C18" t="s">
-        <v>796</v>
-      </c>
-      <c r="E18" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18" t="s">
-        <v>319</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>797</v>
-      </c>
-      <c r="C19" t="s">
-        <v>798</v>
-      </c>
-      <c r="E19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" t="s">
-        <v>325</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -4967,291 +5700,327 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>323</v>
+      </c>
+      <c r="J21" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="F22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" t="s">
         <v>327</v>
       </c>
-      <c r="C21" t="s">
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>324</v>
+      </c>
+      <c r="J22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>328</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>328</v>
+      </c>
+      <c r="J23" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>329</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C24" t="s">
         <v>330</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E24" t="s">
         <v>331</v>
       </c>
-      <c r="H21" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="F24" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="G24" t="s">
         <v>333</v>
       </c>
-      <c r="C22" t="s">
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
         <v>334</v>
       </c>
-      <c r="E22" t="s">
+      <c r="J24" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>335</v>
       </c>
-      <c r="F22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="C25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
         <v>336</v>
       </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="J25" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>337</v>
       </c>
-      <c r="C23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="C26" t="s">
         <v>338</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E26" t="s">
         <v>339</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F26" t="s">
         <v>340</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G26" t="s">
         <v>341</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
         <v>342</v>
       </c>
-      <c r="H24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J26" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="C27" t="s">
         <v>344</v>
       </c>
-      <c r="C25" t="s">
-        <v>339</v>
-      </c>
-      <c r="E25" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="E27" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="F27" t="s">
         <v>346</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G27" t="s">
         <v>347</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
         <v>348</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J27" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>349</v>
       </c>
-      <c r="G26" t="s">
+      <c r="C28" t="s">
         <v>350</v>
       </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="E28" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F28" t="s">
         <v>352</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G28" t="s">
         <v>353</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
         <v>354</v>
       </c>
-      <c r="F27" t="s">
+      <c r="J28" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>355</v>
       </c>
-      <c r="G27" t="s">
+      <c r="C29" t="s">
         <v>356</v>
       </c>
-      <c r="H27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="E29" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="F29" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" t="s">
         <v>358</v>
       </c>
-      <c r="C28" t="s">
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
         <v>359</v>
       </c>
-      <c r="E28" t="s">
+      <c r="J29" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>360</v>
       </c>
-      <c r="F28" t="s">
+      <c r="C30" t="s">
         <v>361</v>
       </c>
-      <c r="G28" t="s">
+      <c r="E30" t="s">
         <v>362</v>
       </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="F30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
         <v>364</v>
       </c>
-      <c r="C29" t="s">
+      <c r="J30" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>365</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C31" t="s">
         <v>366</v>
       </c>
-      <c r="F29" t="s">
-        <v>361</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="E31" t="s">
         <v>367</v>
       </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="F31" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="G31" t="s">
         <v>369</v>
       </c>
-      <c r="C30" t="s">
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
         <v>370</v>
       </c>
-      <c r="E30" t="s">
+      <c r="J31" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>371</v>
       </c>
-      <c r="F30" t="s">
-        <v>361</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="C32" t="s">
         <v>372</v>
       </c>
-      <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="E32" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="F32" t="s">
         <v>374</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G32" t="s">
         <v>375</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
         <v>376</v>
       </c>
-      <c r="F31" t="s">
+      <c r="J32" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>377</v>
       </c>
-      <c r="G31" t="s">
+      <c r="C33" t="s">
         <v>378</v>
-      </c>
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>380</v>
-      </c>
-      <c r="C32" t="s">
-        <v>381</v>
-      </c>
-      <c r="E32" t="s">
-        <v>382</v>
-      </c>
-      <c r="F32" t="s">
-        <v>383</v>
-      </c>
-      <c r="G32" t="s">
-        <v>384</v>
-      </c>
-      <c r="H32" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>386</v>
-      </c>
-      <c r="C33" t="s">
-        <v>387</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -5263,521 +6032,590 @@
         <v>56</v>
       </c>
       <c r="I33" t="s">
+        <v>379</v>
+      </c>
+      <c r="J33" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" t="s">
+        <v>383</v>
+      </c>
+      <c r="G34" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
+        <v>385</v>
+      </c>
+      <c r="J34" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>829</v>
+      </c>
+      <c r="C35" t="s">
+        <v>830</v>
+      </c>
+      <c r="E35" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" t="s">
+        <v>346</v>
+      </c>
+      <c r="G35" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="J35" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>389</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>390</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>391</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
         <v>392</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
         <v>393</v>
       </c>
-      <c r="H34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J36" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="C37" t="s">
         <v>395</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E37" t="s">
         <v>396</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F37" t="s">
         <v>397</v>
       </c>
-      <c r="F35" t="s">
-        <v>355</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>398</v>
       </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="J37" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>400</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F38" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" t="s">
+        <v>398</v>
+      </c>
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
         <v>401</v>
       </c>
-      <c r="E36" t="s">
+      <c r="J38" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>402</v>
       </c>
-      <c r="F36" t="s">
-        <v>330</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="C39" t="s">
         <v>403</v>
       </c>
-      <c r="H36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="E39" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="F39" t="s">
         <v>405</v>
       </c>
-      <c r="C37" t="s">
+      <c r="G39" t="s">
         <v>406</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>402</v>
+      </c>
+      <c r="J39" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>407</v>
       </c>
-      <c r="F37" t="s">
+      <c r="C40" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" t="s">
+        <v>404</v>
+      </c>
+      <c r="F40" t="s">
+        <v>405</v>
+      </c>
+      <c r="G40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>407</v>
+      </c>
+      <c r="J40" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>408</v>
       </c>
-      <c r="G37" t="s">
+      <c r="C41" t="s">
         <v>409</v>
       </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="E41" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="F41" t="s">
         <v>411</v>
       </c>
-      <c r="C38" t="s">
-        <v>406</v>
-      </c>
-      <c r="E38" t="s">
-        <v>407</v>
-      </c>
-      <c r="F38" t="s">
-        <v>408</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>413</v>
+      </c>
+      <c r="J41" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" t="s">
         <v>409</v>
       </c>
-      <c r="H38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="E42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" t="s">
+        <v>411</v>
+      </c>
+      <c r="G42" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" t="s">
-        <v>414</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
         <v>415</v>
       </c>
-      <c r="F39" t="s">
+      <c r="J42" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>416</v>
       </c>
-      <c r="G39" t="s">
+      <c r="C43" t="s">
         <v>417</v>
       </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="E43" t="s">
         <v>418</v>
       </c>
-      <c r="C40" t="s">
-        <v>414</v>
-      </c>
-      <c r="E40" t="s">
-        <v>415</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
+        <v>419</v>
+      </c>
+      <c r="G43" t="s">
+        <v>420</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
         <v>416</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J43" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" t="s">
         <v>417</v>
       </c>
-      <c r="H40" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="E44" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="F44" t="s">
         <v>419</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G44" t="s">
         <v>420</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" t="s">
         <v>421</v>
       </c>
-      <c r="F41" t="s">
+      <c r="J44" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>422</v>
       </c>
-      <c r="G41" t="s">
+      <c r="C45" t="s">
         <v>423</v>
       </c>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="E45" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="F45" t="s">
+        <v>423</v>
+      </c>
+      <c r="G45" t="s">
         <v>425</v>
       </c>
-      <c r="C42" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" t="s">
-        <v>421</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
         <v>422</v>
       </c>
-      <c r="G42" t="s">
-        <v>423</v>
-      </c>
-      <c r="H42" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J45" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="C46" t="s">
         <v>427</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E46" t="s">
         <v>428</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F46" t="s">
         <v>429</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G46" t="s">
         <v>430</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
         <v>431</v>
       </c>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="J46" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>432</v>
       </c>
-      <c r="C44" t="s">
-        <v>428</v>
-      </c>
-      <c r="E44" t="s">
-        <v>429</v>
-      </c>
-      <c r="F44" t="s">
-        <v>430</v>
-      </c>
-      <c r="G44" t="s">
-        <v>431</v>
-      </c>
-      <c r="H44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="C47" t="s">
         <v>433</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E47" t="s">
         <v>434</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F47" t="s">
         <v>435</v>
       </c>
-      <c r="F45" t="s">
-        <v>434</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="G47" t="s">
         <v>436</v>
       </c>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
         <v>437</v>
       </c>
-      <c r="C46" t="s">
+      <c r="J47" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>438</v>
       </c>
-      <c r="E46" t="s">
+      <c r="C48" t="s">
         <v>439</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E48" t="s">
         <v>440</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F48" t="s">
         <v>441</v>
       </c>
-      <c r="H46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="G48" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
         <v>443</v>
       </c>
-      <c r="C47" t="s">
+      <c r="J48" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>444</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C49" t="s">
         <v>445</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E49" t="s">
         <v>446</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F49" t="s">
         <v>447</v>
       </c>
-      <c r="H47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G49" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
         <v>449</v>
       </c>
-      <c r="C48" t="s">
+      <c r="J49" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>450</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C50" t="s">
         <v>451</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E50" t="s">
         <v>452</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F50" t="s">
         <v>453</v>
       </c>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="G50" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" t="s">
         <v>455</v>
       </c>
-      <c r="C49" t="s">
+      <c r="J50" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>456</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C51" t="s">
         <v>457</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E51" t="s">
         <v>458</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F51" t="s">
         <v>459</v>
       </c>
-      <c r="H49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G51" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="H51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" t="s">
         <v>461</v>
       </c>
-      <c r="C50" t="s">
+      <c r="J51" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>462</v>
       </c>
-      <c r="E50" t="s">
+      <c r="C52" t="s">
         <v>463</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E52" t="s">
         <v>464</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F52" t="s">
         <v>465</v>
       </c>
-      <c r="H50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G52" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" t="s">
         <v>467</v>
       </c>
-      <c r="C51" t="s">
+      <c r="J52" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>835</v>
+      </c>
+      <c r="C53" t="s">
+        <v>836</v>
+      </c>
+      <c r="E53" t="s">
         <v>468</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F53" t="s">
         <v>469</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G53" t="s">
         <v>470</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
         <v>471</v>
       </c>
-      <c r="H51" t="s">
-        <v>138</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J53" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="C54" t="s">
         <v>473</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E54" t="s">
         <v>474</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F54" t="s">
         <v>475</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G54" t="s">
         <v>476</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" t="s">
         <v>477</v>
       </c>
-      <c r="H52" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J54" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+      <c r="C55" t="s">
         <v>479</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E55" t="s">
         <v>480</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" t="s">
         <v>481</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
         <v>482</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J55" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>483</v>
       </c>
-      <c r="H53" t="s">
-        <v>138</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="C56" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>485</v>
-      </c>
-      <c r="C54" t="s">
-        <v>486</v>
-      </c>
-      <c r="E54" t="s">
-        <v>487</v>
-      </c>
-      <c r="F54" t="s">
-        <v>488</v>
-      </c>
-      <c r="G54" t="s">
-        <v>489</v>
-      </c>
-      <c r="H54" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>491</v>
-      </c>
-      <c r="C55" t="s">
-        <v>492</v>
-      </c>
-      <c r="E55" t="s">
-        <v>493</v>
-      </c>
-      <c r="F55" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" t="s">
-        <v>494</v>
-      </c>
-      <c r="H55" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>496</v>
-      </c>
-      <c r="C56" t="s">
-        <v>497</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -5786,18 +6624,21 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I56" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="J56" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C57" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -5806,18 +6647,21 @@
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="I57" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+      <c r="J57" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -5829,15 +6673,15 @@
         <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C59" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -5849,15 +6693,15 @@
         <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C60" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -5869,15 +6713,15 @@
         <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C61" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -5889,15 +6733,15 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C62" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -5909,15 +6753,15 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C63" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -5929,15 +6773,15 @@
         <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C64" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
@@ -5949,15 +6793,15 @@
         <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C65" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -5969,15 +6813,15 @@
         <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C66" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -5989,15 +6833,15 @@
         <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C67" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -6009,15 +6853,15 @@
         <v>56</v>
       </c>
       <c r="I67" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -6026,18 +6870,21 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I68" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+      <c r="J68" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -6046,18 +6893,21 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I69" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+      <c r="J69" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C70" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -6066,18 +6916,21 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I70" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="J70" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C71" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -6086,18 +6939,21 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I71" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="J71" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C72" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
@@ -6109,15 +6965,18 @@
         <v>56</v>
       </c>
       <c r="I72" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="J72" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
@@ -6129,107 +6988,122 @@
         <v>56</v>
       </c>
       <c r="I73" t="s">
+        <v>515</v>
+      </c>
+      <c r="J73" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>516</v>
+      </c>
+      <c r="C74" t="s">
+        <v>517</v>
+      </c>
+      <c r="E74" t="s">
+        <v>518</v>
+      </c>
+      <c r="F74" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" t="s">
+        <v>520</v>
+      </c>
+      <c r="J74" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>521</v>
+      </c>
+      <c r="C75" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" t="s">
+        <v>523</v>
+      </c>
+      <c r="F75" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" t="s">
+        <v>525</v>
+      </c>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s">
+        <v>526</v>
+      </c>
+      <c r="J75" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>527</v>
+      </c>
+      <c r="C76" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="E76" t="s">
         <v>529</v>
       </c>
-      <c r="C74" t="s">
+      <c r="F76" t="s">
+        <v>524</v>
+      </c>
+      <c r="G76" t="s">
         <v>530</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" t="s">
         <v>531</v>
       </c>
-      <c r="F74" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="J76" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>532</v>
       </c>
-      <c r="H74" t="s">
-        <v>56</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="C77" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="E77" t="s">
         <v>534</v>
       </c>
-      <c r="C75" t="s">
+      <c r="F77" t="s">
+        <v>300</v>
+      </c>
+      <c r="G77" t="s">
         <v>535</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s">
         <v>536</v>
       </c>
-      <c r="F75" t="s">
+      <c r="J77" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>537</v>
       </c>
-      <c r="G75" t="s">
+      <c r="C78" t="s">
         <v>538</v>
-      </c>
-      <c r="H75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>540</v>
-      </c>
-      <c r="C76" t="s">
-        <v>541</v>
-      </c>
-      <c r="E76" t="s">
-        <v>542</v>
-      </c>
-      <c r="F76" t="s">
-        <v>537</v>
-      </c>
-      <c r="G76" t="s">
-        <v>543</v>
-      </c>
-      <c r="H76" t="s">
-        <v>56</v>
-      </c>
-      <c r="I76" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>545</v>
-      </c>
-      <c r="C77" t="s">
-        <v>546</v>
-      </c>
-      <c r="E77" t="s">
-        <v>547</v>
-      </c>
-      <c r="F77" t="s">
-        <v>309</v>
-      </c>
-      <c r="G77" t="s">
-        <v>548</v>
-      </c>
-      <c r="H77" t="s">
-        <v>56</v>
-      </c>
-      <c r="I77" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>550</v>
-      </c>
-      <c r="C78" t="s">
-        <v>551</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -6238,37 +7112,43 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I78" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="J78" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="1" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+      <c r="J79" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
         <v>15</v>
       </c>
@@ -6296,13 +7176,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -6313,23 +7193,23 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6337,7 +7217,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6366,7 +7246,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -6374,7 +7254,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -6382,7 +7262,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -6398,7 +7278,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -6406,7 +7286,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -6414,7 +7294,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
@@ -6422,7 +7302,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -6430,7 +7310,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -6438,7 +7318,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -6446,7 +7326,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -6454,7 +7334,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -6462,7 +7342,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
@@ -6470,7 +7350,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -6478,7 +7358,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -6486,7 +7366,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -6494,7 +7374,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -6502,7 +7382,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -6510,7 +7390,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -6518,7 +7398,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -6526,7 +7406,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -6534,7 +7414,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -6542,7 +7422,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -6550,7 +7430,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -6558,7 +7438,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -6566,7 +7446,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -6574,7 +7454,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
@@ -6582,7 +7462,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -6590,7 +7470,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
@@ -6606,7 +7486,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -6614,7 +7494,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
@@ -6622,7 +7502,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -6630,7 +7510,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
         <v>56</v>
@@ -6638,7 +7518,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
@@ -6646,7 +7526,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -6654,7 +7534,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
@@ -6662,7 +7542,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
@@ -6670,7 +7550,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>56</v>
@@ -6686,7 +7566,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E41" t="s">
         <v>56</v>
@@ -6694,7 +7574,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
         <v>56</v>
@@ -6702,7 +7582,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E43" t="s">
         <v>56</v>
@@ -6710,7 +7590,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E44" t="s">
         <v>56</v>
@@ -6718,7 +7598,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E45" t="s">
         <v>56</v>
@@ -6726,7 +7606,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
         <v>56</v>
@@ -6734,7 +7614,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -6742,7 +7622,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
         <v>56</v>
@@ -6750,7 +7630,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
         <v>56</v>
@@ -6758,7 +7638,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -6766,7 +7646,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -6774,7 +7654,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E52" t="s">
         <v>56</v>
@@ -6782,7 +7662,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
@@ -6790,7 +7670,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -6798,7 +7678,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E55" t="s">
         <v>56</v>
@@ -6806,7 +7686,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E56" t="s">
         <v>56</v>
@@ -6814,7 +7694,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="E57" t="s">
         <v>56</v>
@@ -6822,7 +7702,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -6830,7 +7710,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="E59" t="s">
         <v>56</v>
@@ -6838,7 +7718,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="E60" t="s">
         <v>56</v>
@@ -6846,7 +7726,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E61" t="s">
         <v>56</v>
@@ -6854,7 +7734,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E62" t="s">
         <v>56</v>
@@ -6862,7 +7742,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="E63" t="s">
         <v>56</v>
@@ -6870,7 +7750,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E64" t="s">
         <v>56</v>
@@ -6878,7 +7758,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="E65" t="s">
         <v>56</v>
@@ -6886,7 +7766,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="E66" t="s">
         <v>56</v>
@@ -6894,7 +7774,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E67" t="s">
         <v>56</v>
@@ -6902,7 +7782,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E68" t="s">
         <v>56</v>
@@ -6910,7 +7790,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="E69" t="s">
         <v>56</v>
@@ -6918,7 +7798,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E70" t="s">
         <v>56</v>
@@ -6926,7 +7806,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="E71" t="s">
         <v>56</v>
@@ -6934,7 +7814,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="E72" t="s">
         <v>56</v>
@@ -6942,7 +7822,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -6950,7 +7830,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E74" t="s">
         <v>56</v>
@@ -6958,7 +7838,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E75" t="s">
         <v>56</v>
@@ -6966,7 +7846,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E76" t="s">
         <v>56</v>
@@ -6974,7 +7854,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
@@ -6982,7 +7862,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E78" t="s">
         <v>56</v>
@@ -6990,7 +7870,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E79" t="s">
         <v>56</v>
@@ -6998,7 +7878,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E80" t="s">
         <v>56</v>
@@ -7006,7 +7886,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E81" t="s">
         <v>56</v>
@@ -7014,7 +7894,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E82" t="s">
         <v>56</v>
@@ -7022,7 +7902,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E83" t="s">
         <v>56</v>
@@ -7030,7 +7910,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E84" t="s">
         <v>56</v>
@@ -7038,7 +7918,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E85" t="s">
         <v>56</v>
@@ -7046,7 +7926,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E86" t="s">
         <v>56</v>
@@ -7054,7 +7934,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E87" t="s">
         <v>56</v>
@@ -7062,7 +7942,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="E88" t="s">
         <v>56</v>
@@ -7070,7 +7950,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E89" t="s">
         <v>56</v>
@@ -7078,7 +7958,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E90" t="s">
         <v>56</v>
@@ -7086,7 +7966,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E91" t="s">
         <v>56</v>
@@ -7094,7 +7974,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="E92" t="s">
         <v>56</v>
@@ -7102,7 +7982,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E93" t="s">
         <v>56</v>
@@ -7110,7 +7990,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="E94" t="s">
         <v>56</v>
@@ -7118,7 +7998,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E95" t="s">
         <v>56</v>
@@ -7126,7 +8006,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E96" t="s">
         <v>56</v>
@@ -7134,7 +8014,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
@@ -7142,7 +8022,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="E98" t="s">
         <v>56</v>
@@ -7150,7 +8030,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="E99" t="s">
         <v>56</v>
@@ -7158,7 +8038,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E100" t="s">
         <v>56</v>
@@ -7166,7 +8046,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="E101" t="s">
         <v>56</v>
@@ -7174,7 +8054,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E102" t="s">
         <v>56</v>
@@ -7182,7 +8062,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="E103" t="s">
         <v>56</v>
@@ -7190,7 +8070,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="E104" t="s">
         <v>56</v>
@@ -7198,7 +8078,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E105" t="s">
         <v>56</v>
@@ -7214,7 +8094,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="E107" t="s">
         <v>56</v>
@@ -7222,7 +8102,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="E108" t="s">
         <v>56</v>
@@ -7230,15 +8110,15 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="E109" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="E110" t="s">
         <v>56</v>
@@ -7246,7 +8126,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="E111" t="s">
         <v>56</v>
@@ -7254,7 +8134,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -7262,7 +8142,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="E113" t="s">
         <v>56</v>
@@ -7270,7 +8150,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="E114" t="s">
         <v>56</v>
@@ -7278,7 +8158,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="E115" t="s">
         <v>56</v>
@@ -7286,7 +8166,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="E116" t="s">
         <v>56</v>
@@ -7294,7 +8174,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="E117" t="s">
         <v>56</v>
@@ -7302,7 +8182,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="E118" t="s">
         <v>56</v>
@@ -7310,7 +8190,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -7318,7 +8198,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="E120" t="s">
         <v>56</v>
@@ -7326,7 +8206,7 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="E121" t="s">
         <v>56</v>
@@ -7334,7 +8214,7 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
@@ -7342,7 +8222,7 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="E123" t="s">
         <v>56</v>
@@ -7350,7 +8230,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="E124" t="s">
         <v>56</v>
@@ -7358,7 +8238,7 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="E125" t="s">
         <v>56</v>
@@ -7366,7 +8246,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="E126" t="s">
         <v>56</v>
@@ -7374,7 +8254,7 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="E127" t="s">
         <v>56</v>
@@ -7382,7 +8262,7 @@
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="E128" t="s">
         <v>56</v>
@@ -7390,7 +8270,7 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="E129" t="s">
         <v>56</v>
@@ -7398,7 +8278,7 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="E130" t="s">
         <v>56</v>
@@ -7406,7 +8286,7 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="E131" t="s">
         <v>56</v>
@@ -7414,7 +8294,7 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="E132" t="s">
         <v>56</v>
@@ -7422,7 +8302,7 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="E133" t="s">
         <v>56</v>
@@ -7430,7 +8310,7 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="E134" t="s">
         <v>56</v>
@@ -7438,7 +8318,7 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="E135" t="s">
         <v>56</v>
@@ -7465,39 +8345,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D1" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E1" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="F1" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="G1" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="H1" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="I1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="J1" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="K1" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -7506,16 +8386,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="G2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="H2" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="I2" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB86E4E4-9530-C24C-90EB-542226CCD632}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B60F3F43-161D-8A4D-89CA-69B8318EC963}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="18760" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18620" windowHeight="23440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <sheet name="MODEL" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="956">
   <si>
     <t>#</t>
   </si>
@@ -318,9 +317,6 @@
     <t>6-phosphogluconolactonase</t>
   </si>
   <si>
-    <t>6-O-phosphono-D-glucono-1,5-lactone[c] =&gt; 6-phospho-D-gluconate[c]</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -381,9 +377,6 @@
     <t>GPP</t>
   </si>
   <si>
-    <t>glycerol-3-phosphate[c] =&gt; glycerol[c] + phosphate[c]</t>
-  </si>
-  <si>
     <t>YER062C;YIL053W</t>
   </si>
   <si>
@@ -405,18 +398,12 @@
     <t>ALD6</t>
   </si>
   <si>
-    <t>acetaldehyde[c] + nadp+[c] =&gt; acetate[c] + NADPH[c]</t>
-  </si>
-  <si>
     <t>YPL061W</t>
   </si>
   <si>
     <t>ALD2</t>
   </si>
   <si>
-    <t>acetaldehyde[c] + nad+[c] =&gt; acetate[c] + NADH[c]</t>
-  </si>
-  <si>
     <t>Phenylalanine, tyrosine, and tryptophan biosynthesis (aromatic amino acids)</t>
   </si>
   <si>
@@ -438,9 +425,6 @@
     <t>MLS1</t>
   </si>
   <si>
-    <t>acetyl-CoA[m] + Glyoxylate[m] =&gt; (S)-malate[m] + coenzyme A[m]</t>
-  </si>
-  <si>
     <t>YIR031C;YNL117W</t>
   </si>
   <si>
@@ -483,18 +467,12 @@
     <t>PYC</t>
   </si>
   <si>
-    <t>ATP[c] + CO2[c] + pyruvate[c] =&gt; ADP[c] + phosphate[c] + oxaloacetate[c]</t>
-  </si>
-  <si>
     <t>TCA</t>
   </si>
   <si>
     <t>CIT</t>
   </si>
   <si>
-    <t>acetyl-CoA[m] + oxaloacetate[m] =&gt; citrate[m] + coenzyme A[m]</t>
-  </si>
-  <si>
     <t>YNR001C;YPR001W</t>
   </si>
   <si>
@@ -525,9 +503,6 @@
     <t>FUM1</t>
   </si>
   <si>
-    <t>fumarate[m] &lt;=&gt; (S)-malate[m]</t>
-  </si>
-  <si>
     <t>YPL262W</t>
   </si>
   <si>
@@ -1413,12 +1388,6 @@
     <t>SUC[m]</t>
   </si>
   <si>
-    <t>ubiquinone-9[m]</t>
-  </si>
-  <si>
-    <t>ubiquinone-9</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:18160</t>
   </si>
   <si>
@@ -1428,9 +1397,6 @@
     <t>1/C54H82O4/c1-40(2)22-14-23-41(3)24-15-25-42(4)26-16-27-43(5)28-17-29-44(6)30-18-31-45(7)32-19-33-46(8)34-20-35-47(9)36-21-37-48(10)38-39-50-49(11)51(55)53(57-12)54(58-13)52(50)56/h22,24,26,28,30,32,34,36,38H,14-21,23,25,27,29,31,33,35,37,39H2,1-13H3/b41-24+,42-26+,43-28+,44-30+,45-32+,46-34+,47-36+,48-38+</t>
   </si>
   <si>
-    <t>Ubiquinone-9[m]</t>
-  </si>
-  <si>
     <t>obo.chebi:CHEBI:17976</t>
   </si>
   <si>
@@ -1440,9 +1406,6 @@
     <t>1/C14H20O4/c1-8(2)6-7-10-9(3)11(15)13(17-4)14(18-5)12(10)16/h6,15-16H,7H2,1-5H3</t>
   </si>
   <si>
-    <t>Ubiquinol[m]</t>
-  </si>
-  <si>
     <t>ferricytochrome c[m]</t>
   </si>
   <si>
@@ -1992,9 +1955,6 @@
     <t>1/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1/f/h18-19H,11H2</t>
   </si>
   <si>
-    <t>acetate[c] + ATP[c] + coenzyme A[c] =&gt; acetyl-CoA[c] + AMP[c] + 2 phosphate[c]</t>
-  </si>
-  <si>
     <t>ADK1_1</t>
   </si>
   <si>
@@ -2040,12 +2000,6 @@
     <t>H[i]</t>
   </si>
   <si>
-    <t>0.25 O2[c] + ferrocytochrome c[m] + 1.5 h+[m] =&gt; ferricytochrome c[m] + 1.5 h+[i]</t>
-  </si>
-  <si>
-    <t>3 h+[i] + ADP[m] + phosphate[m] =&gt; 3 h+[m] + ATP[m]</t>
-  </si>
-  <si>
     <t>ADP[c] + phosphate[c] + h+[i] + ATP[m] =&gt; ATP[c] + h+[m] + ADP[m] + phosphate[m]</t>
   </si>
   <si>
@@ -2202,9 +2156,6 @@
     <t>ATP[c] + D-fructose 6-phosphate[c] =&gt; ADP[c] + D-fructose 1,6-bisphosphate[c]</t>
   </si>
   <si>
-    <t>D-fructose 1,6-bisphosphate[c] =&gt; D-fructose 6-phosphate[c] + phosphate[c]</t>
-  </si>
-  <si>
     <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; D-fructose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
   </si>
   <si>
@@ -2469,9 +2420,6 @@
     <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glyceric acid[c]</t>
   </si>
   <si>
-    <t>2-phospho-D-glyceric acid[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
-  </si>
-  <si>
     <t>2-phospho-D-glyceric acid[c]</t>
   </si>
   <si>
@@ -2520,24 +2468,6 @@
     <t>dihydroxyacetone phosphate</t>
   </si>
   <si>
-    <t>succinate[m] + ubiquinone-9[m] =&gt; fumarate[m] + ubiquinol[m]</t>
-  </si>
-  <si>
-    <t>NADH[m] + ubiquinone-9[m] =&gt; nad+[m] + ubiquinol[m]</t>
-  </si>
-  <si>
-    <t>NADH[c] + ubiquinone-9[m] =&gt; nad+[c] + ubiquinol[m]</t>
-  </si>
-  <si>
-    <t>ubiquinol[m] + 2 ferricytochrome c[m] + 1.5 h+[m] =&gt; ubiquinone-9[m] + 2 ferrocytochrome c[m] + 1.5 h+[i]</t>
-  </si>
-  <si>
-    <t>ubiquinol[m]</t>
-  </si>
-  <si>
-    <t>ubiquinol</t>
-  </si>
-  <si>
     <t>C00149</t>
   </si>
   <si>
@@ -2703,161 +2633,272 @@
     <t>metKEGGID</t>
   </si>
   <si>
-    <t xml:space="preserve">C00002 + C00124 =&gt; C00008  + C00446  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00052 &lt;=&gt; C00029  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00446 + C00029 &lt;=&gt; C00052  + C00103  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00103 &lt;=&gt; C00092  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00031 + C00002 =&gt; C00008  + C00092  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00092 &lt;=&gt; C00085  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00002 + C00085 =&gt; C00008  + C00354  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00354 =&gt; C00085  + C00009  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00354 &lt;=&gt; C00661  + C00111  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00111 &lt;=&gt; C00661  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00661 + C00003 + C00009 &lt;=&gt; C00236  + C00004  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00236 + C00008 &lt;=&gt; C00197  + C00002  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00197 &lt;=&gt; C00631  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00631 &lt;=&gt; C00074  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00008 + C00074 =&gt; C00002  + C00022  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00092 + C00006 =&gt; C01236  + C00005  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01236 =&gt; C00345  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00345 + C00006 =&gt; C00011  + C00199  + C00005  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00199 &lt;=&gt; C03736  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00199 &lt;=&gt; C00231  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C03736 + C00231 &lt;=&gt; C00661  + C05382  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00661 + C05382 &lt;=&gt; C00085  + C00279  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00279 + C00231 &lt;=&gt; C00085  + C00661  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00111 + C00004 =&gt; C00093  + C00003  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00093 =&gt; C00116  + C00009  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00022 =&gt; C00084  + C00011  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00084 + C00004 &lt;=&gt; C00469  + C00003  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00084 + C00006 =&gt; C00033  + C00005  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00084 + C00003 =&gt; C00033  + C00004  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00311 =&gt; C00042  + C00048  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00024 + C00048 =&gt; C00149  + C00010  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00010 + C00003 + C00022 =&gt; C00024  + C00011  + C00004  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00033 + C00002 + C00010 =&gt; C00024  + C00020  + C00009  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00002 + C00020 &lt;=&gt; C00008  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00002 + C00036 =&gt; C00008  + C00011  + C00074  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00002 + C00011 + C00022 =&gt; C00008  + C00009  + C00036  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00024 + C00036 =&gt; C00158  + C00010  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00158 &lt;=&gt; C00311  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00311 + C00003 =&gt; C00026  + C00011  + C00004  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00311 + C00006 =&gt; C00026  + C00011  + C00005  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00026 + C00010 + C00003 =&gt; C00011  + C00004  + C00091  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00008 + C00009 + C00091 =&gt; C00010  + C00042  + C00002  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00042 + C17568 =&gt; C00122  + C00390  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00122 &lt;=&gt; C00149  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00149 + C00003 &lt;=&gt; C00004  + C00036  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00004 + C17568 =&gt; C00003  + C00390  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00390 + C00125 + C00080 =&gt; C17568  + C00126  + C00080  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00007 + C00126 + C00080 =&gt; C00125  + C00080  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C00080 + C00008 + C00009 =&gt; C00080  + C00002  </t>
-  </si>
-  <si>
     <t>KEGG EQUATION</t>
+  </si>
+  <si>
+    <t>H2O[m]</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
+    <t>Production of H2O</t>
+  </si>
+  <si>
+    <t>H2O[c] =&gt;</t>
+  </si>
+  <si>
+    <t>H2O_Out</t>
+  </si>
+  <si>
+    <t>Transport of H2O, mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[m] &lt;=&gt; H2O[c]  </t>
+  </si>
+  <si>
+    <t>H2Otransport</t>
+  </si>
+  <si>
+    <t>D-fructose 1,6-bisphosphate[c] + H2O[c] =&gt; D-fructose 6-phosphate[c] + phosphate[c]</t>
+  </si>
+  <si>
+    <t>2-phospho-D-glyceric acid[c] &lt;=&gt; phosphoenolpyruvate[c] + H2O[c]</t>
+  </si>
+  <si>
+    <t>6-O-phosphono-D-glucono-1,5-lactone[c] + H2O[c] =&gt; 6-phospho-D-gluconate[c]</t>
+  </si>
+  <si>
+    <t>glycerol-3-phosphate[c] + H2O[c] =&gt; glycerol[c] + phosphate[c]</t>
+  </si>
+  <si>
+    <t>acetaldehyde[c] + nadp+[c] + H2O[c] =&gt; acetate[c] + NADPH[c]</t>
+  </si>
+  <si>
+    <t>acetaldehyde[c] + nad+[c] + H2O[c] =&gt; acetate[c] + NADH[c]</t>
+  </si>
+  <si>
+    <t>acetyl-CoA[m] + H2O[m] + Glyoxylate[m] =&gt; (S)-malate[m] + coenzyme A[m]</t>
+  </si>
+  <si>
+    <t>ATP[c] + HCO3[c] + pyruvate[c] =&gt; ADP[c] + phosphate[c] + oxaloacetate[c]</t>
+  </si>
+  <si>
+    <t>Uptake of HCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; HCO3[c] </t>
+  </si>
+  <si>
+    <t>HCO3IN</t>
+  </si>
+  <si>
+    <t>HCO3</t>
+  </si>
+  <si>
+    <t>HCO3[c]</t>
+  </si>
+  <si>
+    <t>C00288</t>
+  </si>
+  <si>
+    <t>acetyl-CoA[m] + H2O[m] + oxaloacetate[m] =&gt; citrate[m] + coenzyme A[m]</t>
+  </si>
+  <si>
+    <t>ubiquinol-6[m]</t>
+  </si>
+  <si>
+    <t>ubiquinol-6</t>
+  </si>
+  <si>
+    <t>fumarate[m] + H2O[m] &lt;=&gt; (S)-malate[m]</t>
+  </si>
+  <si>
+    <t>ubiquinone-6[m]</t>
+  </si>
+  <si>
+    <t>ubiquinone-6</t>
+  </si>
+  <si>
+    <t>succinate[m] + ubiquinone-6[m] =&gt; fumarate[m] + ubiquinol-6[m]</t>
+  </si>
+  <si>
+    <t>NADH[m] + ubiquinone-6[m] =&gt; nad+[m] + ubiquinol-6[m]</t>
+  </si>
+  <si>
+    <t>NADH[c] + ubiquinone-6[m] =&gt; nad+[c] + ubiquinol-6[m]</t>
+  </si>
+  <si>
+    <t>ubiquinol-6[m] + 2 ferricytochrome c[m] + 1.5 h+[m] =&gt; ubiquinone-6[m] + 2 ferrocytochrome c[m] + 1.5 h+[i]</t>
+  </si>
+  <si>
+    <t>0.25 O2[c] + ferrocytochrome c[m] + 2 h+[m] =&gt; ferricytochrome c[m] + 0.5 H2O[m] + h+[i]</t>
+  </si>
+  <si>
+    <t>3 h+[i] + ADP[m] + phosphate[m] =&gt; 3 h+[m] + ATP[m] + H2O[m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00124 =&gt; C00008 + C00446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00052 &lt;=&gt; C00029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00446 + C00029 &lt;=&gt; C00052 + C00103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00103 &lt;=&gt; C00092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00031 + C00002 =&gt; C00008 + C00092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00092 &lt;=&gt; C00085 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00085 =&gt; C00008 + C00354 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00354 + C00001 =&gt; C00085 + C00009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00354 &lt;=&gt; C00661 + C00111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00111 &lt;=&gt; C00661 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00661 + C00003 + C00009 &lt;=&gt; C00236 + C00004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00236 + C00008 &lt;=&gt; C00197 + C00002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00197 &lt;=&gt; C00631 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00631 &lt;=&gt; C00074 + C00001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00008 + C00074 =&gt; C00002 + C00022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00092 + C00006 =&gt; C01236 + C00005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01236 + C00001 =&gt; C00345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00345 + C00006 =&gt; C00011 + C00199 + C00005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00199 &lt;=&gt; C03736 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00199 &lt;=&gt; C00231 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03736 + C00231 &lt;=&gt; C00661 + C05382 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00661 + C05382 &lt;=&gt; C00085 + C00279 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00279 + C00231 &lt;=&gt; C00085 + C00661 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00111 + C00004 =&gt; C00093 + C00003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00093 + C00001 =&gt; C00116 + C00009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00022 =&gt; C00084 + C00011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00084 + C00004 &lt;=&gt; C00469 + C00003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00084 + C00006 + C00001 =&gt; C00033 + C00005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00084 + C00003 + C00001 =&gt; C00033 + C00004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00311 =&gt; C00042 + C00048 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00024 + C00048 + C00001 =&gt; C00149 + C00010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00010 + C00003 + C00022 =&gt; C00024 + C00011 + C00004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00033 + C00002 + C00010 =&gt; C00024 + C00020 + 2 C00009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00020 &lt;=&gt; 2 C00008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00036 =&gt; C00008 + C00011 + C00074 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00002 + C00022 +  =&gt; C00008 + C00009 + C00036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00024 + C00036 + C00001 =&gt; C00158 + C00010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00158 &lt;=&gt; C00311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00311 + C00003 =&gt; C00026 + C00011 + C00004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00311 + C00006 =&gt; C00026 + C00011 + C00005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00026 + C00010 + C00003 =&gt; C00011 + C00004 + C00091 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00008 + C00009 + C00091 =&gt; C00010 + C00042 + C00002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00042 + C17568 =&gt; C00122 + C00390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00122 + C00001 &lt;=&gt; C00149 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00149 + C00003 &lt;=&gt; C00004 + C00036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00004 + C17568 =&gt; C00003 + C00390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00390 + 2 C00125 + 1.5 C00080 =&gt; C17568 + 2 C00126 + 1.5 C00080 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 C00007 + C00126 + 2 C00080 =&gt; C00125 + C00080 + 0.5 C00001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 C00080 + C00008 + C00009 =&gt; 3 C00080 + C00002 + C00001 </t>
+  </si>
+  <si>
+    <t>acetate[c] + ATP[c] + H2O[c] + coenzyme A[c] =&gt; acetyl-CoA[c] + AMP[c] + 2 phosphate[c]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2886,6 +2927,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2907,7 +2960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2922,6 +2975,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3202,17 +3257,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="6"/>
     <col min="3" max="3" width="34.33203125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="66" style="6" customWidth="1"/>
+    <col min="4" max="4" width="89.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="66" style="6" customWidth="1"/>
     <col min="6" max="6" width="53.6640625" style="6" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="6"/>
   </cols>
@@ -3231,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>941</v>
+        <v>869</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -3258,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3465,108 +3521,87 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>876</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>874</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>890</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>888</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>668</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>775</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>688</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>679</v>
+        <v>52</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>669</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>680</v>
+        <v>55</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>56</v>
@@ -3575,24 +3610,24 @@
         <v>57</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>56</v>
@@ -3600,77 +3635,74 @@
       <c r="L18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>777</v>
-      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>690</v>
+        <v>61</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>729</v>
+        <v>665</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>674</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>723</v>
+        <v>64</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>70</v>
+        <v>666</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>675</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>724</v>
+        <v>66</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>56</v>
@@ -3679,24 +3711,24 @@
         <v>67</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>691</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>56</v>
@@ -3705,24 +3737,24 @@
         <v>67</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>825</v>
+        <v>709</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>77</v>
+        <v>714</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>56</v>
@@ -3730,22 +3762,25 @@
       <c r="L23" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="N23" s="6" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>826</v>
+        <v>880</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>56</v>
@@ -3753,22 +3788,25 @@
       <c r="L24" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="N24" s="6" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>693</v>
+        <v>76</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>731</v>
+        <v>77</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>56</v>
@@ -3779,19 +3817,19 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>82</v>
+        <v>677</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>56</v>
@@ -3799,25 +3837,22 @@
       <c r="L26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>782</v>
-      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>570</v>
+        <v>715</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>56</v>
@@ -3825,25 +3860,22 @@
       <c r="L27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>783</v>
-      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>732</v>
+        <v>83</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>56</v>
@@ -3852,24 +3884,24 @@
         <v>67</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>90</v>
+        <v>797</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>733</v>
+        <v>558</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>56</v>
@@ -3878,76 +3910,76 @@
         <v>67</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>92</v>
+        <v>881</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>93</v>
+        <v>716</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>56</v>
@@ -3956,24 +3988,24 @@
         <v>94</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>696</v>
+        <v>96</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>102</v>
+        <v>882</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>103</v>
+        <v>718</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>56</v>
@@ -3981,22 +4013,25 @@
       <c r="L33" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="N33" s="6" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>56</v>
@@ -4005,24 +4040,24 @@
         <v>94</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>56</v>
@@ -4033,19 +4068,19 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>111</v>
+        <v>682</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>726</v>
+        <v>104</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>56</v>
@@ -4053,22 +4088,25 @@
       <c r="L36" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="N36" s="6" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>727</v>
+        <v>107</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>56</v>
@@ -4079,1094 +4117,1154 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>827</v>
+        <v>710</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>790</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>118</v>
+        <v>711</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>791</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>121</v>
+        <v>685</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>122</v>
+        <v>810</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>735</v>
+        <v>114</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>702</v>
+        <v>116</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>124</v>
+        <v>883</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>736</v>
+        <v>117</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>703</v>
+        <v>119</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>127</v>
+        <v>719</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>704</v>
+        <v>121</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>687</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>132</v>
+        <v>688</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>133</v>
+        <v>884</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>588</v>
+        <v>124</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>137</v>
+        <v>885</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>138</v>
+        <v>721</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>576</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>144</v>
+        <v>886</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>738</v>
+        <v>133</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>707</v>
+        <v>135</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>798</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>658</v>
+      <c r="B49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>148</v>
+        <v>692</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>149</v>
+        <v>955</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>153</v>
+      <c r="B51" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>645</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>710</v>
+        <v>143</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>158</v>
+        <v>694</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>159</v>
+        <v>887</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>160</v>
+        <v>724</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>810</v>
+        <v>695</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>162</v>
+        <v>894</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>550</v>
+        <v>149</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>812</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>811</v>
+        <v>151</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>550</v>
+        <v>153</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>806</v>
+        <v>154</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>794</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>677</v>
+        <v>155</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>711</v>
+      <c r="B57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>795</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>663</v>
+        <v>157</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>741</v>
+        <v>945</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>802</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>808</v>
+        <v>652</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>790</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>831</v>
+        <v>662</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>743</v>
+        <v>554</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>712</v>
+      <c r="B59" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>696</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>166</v>
+        <v>650</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>167</v>
+        <v>947</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>168</v>
+        <v>791</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>169</v>
+        <v>792</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>171</v>
+        <v>727</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>804</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>832</v>
+        <v>897</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>595</v>
+        <v>159</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>714</v>
+        <v>161</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>833</v>
+        <v>162</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>742</v>
+        <v>163</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>834</v>
+        <v>901</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>744</v>
+        <v>583</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N64" s="6" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="6" t="s">
+      <c r="D70" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D71" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J66" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L66" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="J72" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L67" s="6" t="s">
+      <c r="C73" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="J79" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="D80" s="6" t="s">
-        <v>821</v>
+        <v>660</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>718</v>
+        <v>204</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>218</v>
+        <v>804</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>719</v>
+        <v>206</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>220</v>
+        <v>805</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>720</v>
+        <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>728</v>
+        <v>811</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>227</v>
+        <v>705</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H88" s="6">
+        <v>712</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H91" s="6">
         <v>0</v>
       </c>
-      <c r="J88" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>208</v>
+      <c r="J91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5177,10 +5275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5200,16 +5298,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -5218,119 +5316,119 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J2" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="C4" t="s">
+        <v>799</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" t="s">
         <v>816</v>
-      </c>
-      <c r="E4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J5" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="C6" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -5342,353 +5440,353 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J6" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J7" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J8" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J10" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J11" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G15" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J15" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E16" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J16" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C17" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="J17" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="C18" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J18" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="C19" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E19" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G19" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J19" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -5700,327 +5798,327 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E21" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G21" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="J21" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J22" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G23" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J23" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E24" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="J24" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J25" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G26" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J26" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F27" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J27" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E28" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G28" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J28" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C29" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F29" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G29" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J29" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E30" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G30" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J30" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E31" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G31" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J31" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F32" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G32" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J32" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -6032,590 +6130,593 @@
         <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="J33" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E34" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G34" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="J34" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="C35" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="E35" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F35" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J35" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J36" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E37" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F37" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G37" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="J37" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E38" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F38" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G38" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="J38" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E39" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F39" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J39" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C40" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E40" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I40" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="J40" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="J41" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C42" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E42" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F42" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I42" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="J42" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G43" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="J43" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C44" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I44" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J44" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C45" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F45" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G45" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C46" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E46" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F46" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I46" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J46" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C47" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G47" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J47" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>430</v>
+      </c>
+      <c r="C48" t="s">
+        <v>431</v>
+      </c>
+      <c r="E48" t="s">
+        <v>432</v>
+      </c>
+      <c r="F48" t="s">
+        <v>433</v>
+      </c>
+      <c r="G48" t="s">
+        <v>434</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>435</v>
+      </c>
+      <c r="J48" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
+      <c r="E49" t="s">
         <v>438</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F49" t="s">
         <v>439</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G49" t="s">
         <v>440</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
         <v>441</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J49" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>442</v>
       </c>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="C50" t="s">
         <v>443</v>
       </c>
-      <c r="J48" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="E50" t="s">
         <v>444</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F50" t="s">
         <v>445</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G50" t="s">
         <v>446</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" t="s">
         <v>447</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J50" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>448</v>
       </c>
-      <c r="H49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="C51" t="s">
         <v>449</v>
       </c>
-      <c r="J49" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="E51" t="s">
         <v>450</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F51" t="s">
         <v>451</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G51" t="s">
         <v>452</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" t="s">
         <v>453</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J51" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>898</v>
+      </c>
+      <c r="C52" t="s">
+        <v>899</v>
+      </c>
+      <c r="E52" t="s">
         <v>454</v>
       </c>
-      <c r="H50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="F52" t="s">
         <v>455</v>
       </c>
-      <c r="J50" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+      <c r="G52" t="s">
         <v>456</v>
       </c>
-      <c r="C51" t="s">
+      <c r="H52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I52" t="s">
+        <v>898</v>
+      </c>
+      <c r="J52" t="s">
+        <v>856</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>895</v>
+      </c>
+      <c r="C53" t="s">
+        <v>896</v>
+      </c>
+      <c r="E53" t="s">
         <v>457</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F53" t="s">
         <v>458</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G53" t="s">
         <v>459</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H53" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" t="s">
+        <v>895</v>
+      </c>
+      <c r="J53" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>460</v>
       </c>
-      <c r="H51" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="C54" t="s">
         <v>461</v>
       </c>
-      <c r="J51" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="E54" t="s">
         <v>462</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F54" t="s">
         <v>463</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G54" t="s">
         <v>464</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" t="s">
         <v>465</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J54" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>466</v>
       </c>
-      <c r="H52" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="C55" t="s">
         <v>467</v>
       </c>
-      <c r="J52" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>835</v>
-      </c>
-      <c r="C53" t="s">
-        <v>836</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>468</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" t="s">
         <v>469</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" t="s">
         <v>470</v>
       </c>
-      <c r="H53" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J55" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>471</v>
       </c>
-      <c r="J53" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="C56" t="s">
         <v>472</v>
-      </c>
-      <c r="C54" t="s">
-        <v>473</v>
-      </c>
-      <c r="E54" t="s">
-        <v>474</v>
-      </c>
-      <c r="F54" t="s">
-        <v>475</v>
-      </c>
-      <c r="G54" t="s">
-        <v>476</v>
-      </c>
-      <c r="H54" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" t="s">
-        <v>477</v>
-      </c>
-      <c r="J54" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>478</v>
-      </c>
-      <c r="C55" t="s">
-        <v>479</v>
-      </c>
-      <c r="E55" t="s">
-        <v>480</v>
-      </c>
-      <c r="F55" t="s">
-        <v>294</v>
-      </c>
-      <c r="G55" t="s">
-        <v>481</v>
-      </c>
-      <c r="H55" t="s">
-        <v>134</v>
-      </c>
-      <c r="I55" t="s">
-        <v>482</v>
-      </c>
-      <c r="J55" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>483</v>
-      </c>
-      <c r="C56" t="s">
-        <v>484</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -6624,21 +6725,21 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I56" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C57" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -6647,21 +6748,21 @@
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="I57" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="J57" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C58" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -6673,15 +6774,15 @@
         <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C59" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -6693,15 +6794,15 @@
         <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C60" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -6713,15 +6814,15 @@
         <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C61" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -6733,15 +6834,15 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -6753,15 +6854,15 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C63" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -6773,15 +6874,15 @@
         <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C64" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
@@ -6793,15 +6894,15 @@
         <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C65" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -6813,15 +6914,15 @@
         <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C66" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -6833,15 +6934,15 @@
         <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -6853,15 +6954,15 @@
         <v>56</v>
       </c>
       <c r="I67" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C68" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -6870,21 +6971,21 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="J68" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -6893,21 +6994,21 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I69" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J69" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C70" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -6916,21 +7017,21 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I70" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="J70" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C71" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -6939,21 +7040,21 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I71" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J71" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C72" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
@@ -6965,18 +7066,18 @@
         <v>56</v>
       </c>
       <c r="I72" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="J72" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="C73" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
@@ -6988,122 +7089,122 @@
         <v>56</v>
       </c>
       <c r="I73" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="J73" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C74" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E74" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F74" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G74" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H74" t="s">
         <v>56</v>
       </c>
       <c r="I74" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="J74" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C75" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E75" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F75" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G75" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="H75" t="s">
         <v>56</v>
       </c>
       <c r="I75" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="J75" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C76" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E76" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F76" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G76" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
       </c>
       <c r="I76" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="J76" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C77" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E77" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G77" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
       </c>
       <c r="I77" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="J77" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C78" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -7112,52 +7213,102 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I78" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="J78" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="1" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="J79" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="F80" t="s">
         <v>15</v>
       </c>
       <c r="G80" t="s">
         <v>15</v>
       </c>
+      <c r="H80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I80" t="s">
+        <v>870</v>
+      </c>
+      <c r="J80" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s">
+        <v>872</v>
+      </c>
+      <c r="J81" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" t="s">
+        <v>892</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>893</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7176,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -7193,23 +7344,23 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7217,7 +7368,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -7246,7 +7397,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -7254,7 +7405,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -7262,7 +7413,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -7278,7 +7429,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -7286,7 +7437,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -7302,7 +7453,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -7310,7 +7461,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
@@ -7326,7 +7477,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -7334,7 +7485,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -7342,7 +7493,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
@@ -7350,7 +7501,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -7358,7 +7509,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -7366,7 +7517,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -7374,7 +7525,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -7382,7 +7533,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -7390,7 +7541,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -7398,7 +7549,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -7406,7 +7557,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -7414,7 +7565,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -7422,7 +7573,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -7430,7 +7581,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -7438,7 +7589,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -7446,7 +7597,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -7454,7 +7605,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
@@ -7462,7 +7613,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -7470,7 +7621,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
@@ -7486,7 +7637,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -7494,7 +7645,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
@@ -7502,7 +7653,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -7510,7 +7661,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
         <v>56</v>
@@ -7518,7 +7669,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
@@ -7526,7 +7677,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -7534,7 +7685,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
@@ -7542,7 +7693,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
@@ -7550,7 +7701,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>56</v>
@@ -7566,7 +7717,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E41" t="s">
         <v>56</v>
@@ -7582,7 +7733,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E43" t="s">
         <v>56</v>
@@ -7590,7 +7741,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E44" t="s">
         <v>56</v>
@@ -7598,7 +7749,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E45" t="s">
         <v>56</v>
@@ -7606,7 +7757,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
         <v>56</v>
@@ -7614,7 +7765,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -7622,7 +7773,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
         <v>56</v>
@@ -7630,7 +7781,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
         <v>56</v>
@@ -7638,7 +7789,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="E50" t="s">
         <v>56</v>
@@ -7646,7 +7797,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -7654,7 +7805,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E52" t="s">
         <v>56</v>
@@ -7662,7 +7813,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
@@ -7670,7 +7821,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -7678,7 +7829,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E55" t="s">
         <v>56</v>
@@ -7686,7 +7837,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E56" t="s">
         <v>56</v>
@@ -7694,7 +7845,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E57" t="s">
         <v>56</v>
@@ -7702,7 +7853,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -7710,7 +7861,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E59" t="s">
         <v>56</v>
@@ -7718,7 +7869,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E60" t="s">
         <v>56</v>
@@ -7726,7 +7877,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E61" t="s">
         <v>56</v>
@@ -7734,7 +7885,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E62" t="s">
         <v>56</v>
@@ -7742,7 +7893,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E63" t="s">
         <v>56</v>
@@ -7750,7 +7901,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E64" t="s">
         <v>56</v>
@@ -7758,7 +7909,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E65" t="s">
         <v>56</v>
@@ -7766,7 +7917,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="E66" t="s">
         <v>56</v>
@@ -7774,7 +7925,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E67" t="s">
         <v>56</v>
@@ -7782,7 +7933,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
         <v>56</v>
@@ -7790,7 +7941,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E69" t="s">
         <v>56</v>
@@ -7798,7 +7949,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E70" t="s">
         <v>56</v>
@@ -7806,7 +7957,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E71" t="s">
         <v>56</v>
@@ -7814,7 +7965,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E72" t="s">
         <v>56</v>
@@ -7822,7 +7973,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -7830,7 +7981,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E74" t="s">
         <v>56</v>
@@ -7838,7 +7989,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E75" t="s">
         <v>56</v>
@@ -7846,7 +7997,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="E76" t="s">
         <v>56</v>
@@ -7854,7 +8005,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
@@ -7862,7 +8013,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E78" t="s">
         <v>56</v>
@@ -7870,7 +8021,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="E79" t="s">
         <v>56</v>
@@ -7878,7 +8029,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="E80" t="s">
         <v>56</v>
@@ -7886,7 +8037,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E81" t="s">
         <v>56</v>
@@ -7894,7 +8045,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="E82" t="s">
         <v>56</v>
@@ -7902,7 +8053,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="E83" t="s">
         <v>56</v>
@@ -7910,7 +8061,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="E84" t="s">
         <v>56</v>
@@ -7918,7 +8069,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E85" t="s">
         <v>56</v>
@@ -7926,7 +8077,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E86" t="s">
         <v>56</v>
@@ -7934,7 +8085,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E87" t="s">
         <v>56</v>
@@ -7942,7 +8093,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E88" t="s">
         <v>56</v>
@@ -7950,7 +8101,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="E89" t="s">
         <v>56</v>
@@ -7958,7 +8109,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="E90" t="s">
         <v>56</v>
@@ -7966,7 +8117,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="E91" t="s">
         <v>56</v>
@@ -7974,7 +8125,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E92" t="s">
         <v>56</v>
@@ -7982,7 +8133,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="E93" t="s">
         <v>56</v>
@@ -7990,7 +8141,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E94" t="s">
         <v>56</v>
@@ -7998,7 +8149,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="E95" t="s">
         <v>56</v>
@@ -8006,7 +8157,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E96" t="s">
         <v>56</v>
@@ -8014,7 +8165,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
@@ -8022,7 +8173,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="E98" t="s">
         <v>56</v>
@@ -8030,7 +8181,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E99" t="s">
         <v>56</v>
@@ -8038,7 +8189,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="E100" t="s">
         <v>56</v>
@@ -8046,7 +8197,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E101" t="s">
         <v>56</v>
@@ -8054,7 +8205,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E102" t="s">
         <v>56</v>
@@ -8062,7 +8213,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="E103" t="s">
         <v>56</v>
@@ -8070,7 +8221,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E104" t="s">
         <v>56</v>
@@ -8078,7 +8229,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E105" t="s">
         <v>56</v>
@@ -8094,7 +8245,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="E107" t="s">
         <v>56</v>
@@ -8102,7 +8253,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E108" t="s">
         <v>56</v>
@@ -8110,15 +8261,15 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E110" t="s">
         <v>56</v>
@@ -8126,7 +8277,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="E111" t="s">
         <v>56</v>
@@ -8134,7 +8285,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -8142,7 +8293,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="E113" t="s">
         <v>56</v>
@@ -8150,7 +8301,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="E114" t="s">
         <v>56</v>
@@ -8158,7 +8309,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="E115" t="s">
         <v>56</v>
@@ -8166,7 +8317,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E116" t="s">
         <v>56</v>
@@ -8174,7 +8325,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="E117" t="s">
         <v>56</v>
@@ -8182,7 +8333,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="E118" t="s">
         <v>56</v>
@@ -8190,7 +8341,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -8198,7 +8349,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="E120" t="s">
         <v>56</v>
@@ -8206,7 +8357,7 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="E121" t="s">
         <v>56</v>
@@ -8214,7 +8365,7 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
@@ -8222,7 +8373,7 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="E123" t="s">
         <v>56</v>
@@ -8230,7 +8381,7 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="E124" t="s">
         <v>56</v>
@@ -8238,7 +8389,7 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="E125" t="s">
         <v>56</v>
@@ -8246,7 +8397,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="E126" t="s">
         <v>56</v>
@@ -8254,7 +8405,7 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="E127" t="s">
         <v>56</v>
@@ -8262,7 +8413,7 @@
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="E128" t="s">
         <v>56</v>
@@ -8270,7 +8421,7 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E129" t="s">
         <v>56</v>
@@ -8278,7 +8429,7 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="E130" t="s">
         <v>56</v>
@@ -8286,7 +8437,7 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="E131" t="s">
         <v>56</v>
@@ -8294,7 +8445,7 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E132" t="s">
         <v>56</v>
@@ -8302,7 +8453,7 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="E133" t="s">
         <v>56</v>
@@ -8310,7 +8461,7 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="E134" t="s">
         <v>56</v>
@@ -8318,7 +8469,7 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="E135" t="s">
         <v>56</v>
@@ -8345,39 +8496,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F1" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="I1" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="J1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="K1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -8386,16 +8537,16 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="I2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/Models/model.xlsx
+++ b/Models/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivand/Documents/GitHub/ECM_Yeast/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B60F3F43-161D-8A4D-89CA-69B8318EC963}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92042D01-DE6A-3147-AE90-7EC7345DFCBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18620" windowHeight="23440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="20160" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -2735,9 +2735,6 @@
     <t>NADH[c] + ubiquinone-6[m] =&gt; nad+[c] + ubiquinol-6[m]</t>
   </si>
   <si>
-    <t>ubiquinol-6[m] + 2 ferricytochrome c[m] + 1.5 h+[m] =&gt; ubiquinone-6[m] + 2 ferrocytochrome c[m] + 1.5 h+[i]</t>
-  </si>
-  <si>
     <t>0.25 O2[c] + ferrocytochrome c[m] + 2 h+[m] =&gt; ferricytochrome c[m] + 0.5 H2O[m] + h+[i]</t>
   </si>
   <si>
@@ -2892,6 +2889,9 @@
   </si>
   <si>
     <t>acetate[c] + ATP[c] + H2O[c] + coenzyme A[c] =&gt; acetyl-CoA[c] + AMP[c] + 2 phosphate[c]</t>
+  </si>
+  <si>
+    <t>ubiquinol-6[m] + 2 ferricytochrome c[m] + 2 h+[m] =&gt; ubiquinone-6[m] + 2 ferrocytochrome c[m] + 2 h+[i]</t>
   </si>
 </sst>
 </file>
@@ -3259,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3598,7 +3598,7 @@
         <v>669</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>55</v>
@@ -3624,7 +3624,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>664</v>
@@ -3647,7 +3647,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>665</v>
@@ -3673,7 +3673,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>666</v>
@@ -3699,7 +3699,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>713</v>
@@ -3725,7 +3725,7 @@
         <v>708</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>70</v>
@@ -3751,7 +3751,7 @@
         <v>709</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>714</v>
@@ -3777,7 +3777,7 @@
         <v>880</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>74</v>
@@ -3803,7 +3803,7 @@
         <v>808</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>77</v>
@@ -3826,7 +3826,7 @@
         <v>809</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>79</v>
@@ -3849,7 +3849,7 @@
         <v>800</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>715</v>
@@ -3872,7 +3872,7 @@
         <v>801</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>83</v>
@@ -3898,7 +3898,7 @@
         <v>797</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>558</v>
@@ -3924,7 +3924,7 @@
         <v>881</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>716</v>
@@ -3950,7 +3950,7 @@
         <v>90</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>717</v>
@@ -3976,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>93</v>
@@ -4002,7 +4002,7 @@
         <v>882</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>718</v>
@@ -4028,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>99</v>
@@ -4054,7 +4054,7 @@
         <v>101</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>102</v>
@@ -4077,7 +4077,7 @@
         <v>104</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>105</v>
@@ -4103,7 +4103,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>108</v>
@@ -4126,7 +4126,7 @@
         <v>710</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>111</v>
@@ -4149,7 +4149,7 @@
         <v>711</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>108</v>
@@ -4172,7 +4172,7 @@
         <v>810</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>114</v>
@@ -4198,7 +4198,7 @@
         <v>883</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>117</v>
@@ -4224,7 +4224,7 @@
         <v>120</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>719</v>
@@ -4250,7 +4250,7 @@
         <v>122</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>720</v>
@@ -4276,7 +4276,7 @@
         <v>884</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>124</v>
@@ -4302,7 +4302,7 @@
         <v>885</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>721</v>
@@ -4328,7 +4328,7 @@
         <v>129</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>576</v>
@@ -4354,7 +4354,7 @@
         <v>886</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>133</v>
@@ -4397,7 +4397,7 @@
         <v>139</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>722</v>
@@ -4420,10 +4420,10 @@
         <v>692</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>141</v>
@@ -4449,7 +4449,7 @@
         <v>661</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>723</v>
@@ -4478,7 +4478,7 @@
         <v>144</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>145</v>
@@ -4504,7 +4504,7 @@
         <v>887</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>724</v>
@@ -4530,7 +4530,7 @@
         <v>894</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>149</v>
@@ -4553,7 +4553,7 @@
         <v>152</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>153</v>
@@ -4579,7 +4579,7 @@
         <v>155</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>538</v>
@@ -4605,7 +4605,7 @@
         <v>157</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>538</v>
@@ -4628,7 +4628,7 @@
         <v>662</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>554</v>
@@ -4651,7 +4651,7 @@
         <v>650</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>725</v>
@@ -4668,19 +4668,19 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>791</v>
+        <v>158</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>792</v>
+        <v>697</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>948</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>727</v>
+        <v>159</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>130</v>
@@ -4688,22 +4688,25 @@
       <c r="L60" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="N60" s="6" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>697</v>
+        <v>161</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>897</v>
+        <v>162</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>949</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>130</v>
@@ -4712,33 +4715,30 @@
         <v>147</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>160</v>
+        <v>791</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>161</v>
+        <v>792</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>162</v>
+        <v>900</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>163</v>
+        <v>727</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>130</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
@@ -4752,7 +4752,7 @@
         <v>901</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>583</v>
@@ -4775,7 +4775,7 @@
         <v>902</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>726</v>
@@ -4795,10 +4795,10 @@
         <v>700</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>903</v>
+        <v>955</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>728</v>
@@ -4818,10 +4818,10 @@
         <v>701</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>729</v>
@@ -4844,10 +4844,10 @@
         <v>702</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>730</v>
